--- a/tools-core/model/业务字典.xlsx
+++ b/tools-core/model/业务字典.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="9820" yWindow="460" windowWidth="13580" windowHeight="14800" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14800" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="业务字典" sheetId="1" r:id="rId1"/>
@@ -2431,9 +2431,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2446,22 +2443,25 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2744,12 +2744,12 @@
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="27.33203125" customWidth="1"/>
+    <col min="1" max="1" width="32" customWidth="1"/>
     <col min="2" max="2" width="13.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="33.5" bestFit="1" customWidth="1"/>
   </cols>
@@ -2988,13 +2988,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="6"/>
+      <c r="C1" s="19"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
@@ -3008,126 +3008,126 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="6" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="6" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="7"/>
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
+      <c r="A5" s="6"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="7"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
+      <c r="A6" s="6"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="7"/>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
+      <c r="A7" s="6"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="7"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
+      <c r="A8" s="6"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="7"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
+      <c r="A9" s="6"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="7"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
+      <c r="A10" s="6"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="7"/>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
+      <c r="A11" s="6"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="7"/>
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
+      <c r="A12" s="6"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" s="7"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
+      <c r="A13" s="6"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" s="7"/>
-      <c r="B14" s="7"/>
-      <c r="C14" s="7"/>
+      <c r="A14" s="6"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" s="7"/>
-      <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
+      <c r="A15" s="6"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" s="7"/>
-      <c r="B16" s="7"/>
-      <c r="C16" s="7"/>
+      <c r="A16" s="6"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="7"/>
-      <c r="B17" s="7"/>
-      <c r="C17" s="7"/>
+      <c r="A17" s="6"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="7"/>
-      <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
+      <c r="A18" s="6"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="7"/>
-      <c r="B19" s="7"/>
-      <c r="C19" s="7"/>
+      <c r="A19" s="6"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="7"/>
-      <c r="B20" s="7"/>
-      <c r="C20" s="7"/>
+      <c r="A20" s="6"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="7"/>
-      <c r="B21" s="7"/>
-      <c r="C21" s="7"/>
+      <c r="A21" s="6"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" s="7"/>
-      <c r="B22" s="7"/>
-      <c r="C22" s="7"/>
+      <c r="A22" s="6"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="6"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" s="7"/>
-      <c r="B23" s="7"/>
-      <c r="C23" s="7"/>
+      <c r="A23" s="6"/>
+      <c r="B23" s="6"/>
+      <c r="C23" s="6"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" s="7"/>
-      <c r="B24" s="7"/>
-      <c r="C24" s="7"/>
+      <c r="A24" s="6"/>
+      <c r="B24" s="6"/>
+      <c r="C24" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3154,13 +3154,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="19" t="s">
         <v>102</v>
       </c>
-      <c r="C1" s="6"/>
+      <c r="C1" s="19"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
@@ -3174,154 +3174,154 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="6" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="6" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="6" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="6" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="6" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="7"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
+      <c r="A8" s="6"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="7"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
+      <c r="A9" s="6"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="7"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
+      <c r="A10" s="6"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="7"/>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
+      <c r="A11" s="6"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="7"/>
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
+      <c r="A12" s="6"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" s="7"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
+      <c r="A13" s="6"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" s="7"/>
-      <c r="B14" s="7"/>
-      <c r="C14" s="7"/>
+      <c r="A14" s="6"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" s="7"/>
-      <c r="B15" s="7"/>
-      <c r="C15" s="15"/>
+      <c r="A15" s="6"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="14"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" s="7"/>
-      <c r="B16" s="7"/>
-      <c r="C16" s="7"/>
+      <c r="A16" s="6"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="7"/>
-      <c r="B17" s="7"/>
-      <c r="C17" s="7"/>
+      <c r="A17" s="6"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="7"/>
-      <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
+      <c r="A18" s="6"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="7"/>
-      <c r="B19" s="7"/>
-      <c r="C19" s="7"/>
+      <c r="A19" s="6"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="7"/>
-      <c r="B20" s="7"/>
-      <c r="C20" s="7"/>
+      <c r="A20" s="6"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="7"/>
-      <c r="B21" s="7"/>
-      <c r="C21" s="7"/>
+      <c r="A21" s="6"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" s="7"/>
-      <c r="B22" s="7"/>
-      <c r="C22" s="7"/>
+      <c r="A22" s="6"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="6"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" s="7"/>
-      <c r="B23" s="7"/>
-      <c r="C23" s="7"/>
+      <c r="A23" s="6"/>
+      <c r="B23" s="6"/>
+      <c r="C23" s="6"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" s="7"/>
-      <c r="B24" s="7"/>
-      <c r="C24" s="7"/>
+      <c r="A24" s="6"/>
+      <c r="B24" s="6"/>
+      <c r="C24" s="6"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25" s="7"/>
-      <c r="B25" s="7"/>
-      <c r="C25" s="7"/>
+      <c r="A25" s="6"/>
+      <c r="B25" s="6"/>
+      <c r="C25" s="6"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26" s="7"/>
-      <c r="B26" s="7"/>
-      <c r="C26" s="7"/>
+      <c r="A26" s="6"/>
+      <c r="B26" s="6"/>
+      <c r="C26" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3351,10 +3351,10 @@
       <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="6"/>
+      <c r="C1" s="19"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
@@ -3368,40 +3368,40 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="11" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="11" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="11" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C7" s="9"/>
+      <c r="C7" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3431,10 +3431,10 @@
       <c r="A1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="6"/>
+      <c r="C1" s="19"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
@@ -3448,122 +3448,122 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="6" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="6" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="6" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="7"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
+      <c r="A6" s="6"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="7"/>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
+      <c r="A7" s="6"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="7"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
+      <c r="A8" s="6"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="7"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
+      <c r="A9" s="6"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="7"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
+      <c r="A10" s="6"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="7"/>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
+      <c r="A11" s="6"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="7"/>
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
+      <c r="A12" s="6"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" s="7"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
+      <c r="A13" s="6"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" s="7"/>
-      <c r="B14" s="7"/>
-      <c r="C14" s="7"/>
+      <c r="A14" s="6"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" s="7"/>
-      <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
+      <c r="A15" s="6"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" s="7"/>
-      <c r="B16" s="7"/>
-      <c r="C16" s="7"/>
+      <c r="A16" s="6"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="7"/>
-      <c r="B17" s="7"/>
-      <c r="C17" s="7"/>
+      <c r="A17" s="6"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="7"/>
-      <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
+      <c r="A18" s="6"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="7"/>
-      <c r="B19" s="7"/>
-      <c r="C19" s="7"/>
+      <c r="A19" s="6"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="7"/>
-      <c r="B20" s="7"/>
-      <c r="C20" s="7"/>
+      <c r="A20" s="6"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="7"/>
-      <c r="B21" s="7"/>
-      <c r="C21" s="7"/>
+      <c r="A21" s="6"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" s="7"/>
-      <c r="B22" s="7"/>
-      <c r="C22" s="7"/>
+      <c r="A22" s="6"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3593,10 +3593,10 @@
       <c r="A1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="C1" s="6"/>
+      <c r="C1" s="19"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
@@ -3610,122 +3610,122 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="6" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="6" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="6" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="7"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
+      <c r="A6" s="6"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="7"/>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
+      <c r="A7" s="6"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="7"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
+      <c r="A8" s="6"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="7"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
+      <c r="A9" s="6"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="7"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
+      <c r="A10" s="6"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="7"/>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
+      <c r="A11" s="6"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="7"/>
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
+      <c r="A12" s="6"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" s="7"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
+      <c r="A13" s="6"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" s="7"/>
-      <c r="B14" s="7"/>
-      <c r="C14" s="7"/>
+      <c r="A14" s="6"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" s="7"/>
-      <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
+      <c r="A15" s="6"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" s="7"/>
-      <c r="B16" s="7"/>
-      <c r="C16" s="7"/>
+      <c r="A16" s="6"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="7"/>
-      <c r="B17" s="7"/>
-      <c r="C17" s="7"/>
+      <c r="A17" s="6"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="7"/>
-      <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
+      <c r="A18" s="6"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="7"/>
-      <c r="B19" s="7"/>
-      <c r="C19" s="7"/>
+      <c r="A19" s="6"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="7"/>
-      <c r="B20" s="7"/>
-      <c r="C20" s="7"/>
+      <c r="A20" s="6"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="7"/>
-      <c r="B21" s="7"/>
-      <c r="C21" s="7"/>
+      <c r="A21" s="6"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" s="7"/>
-      <c r="B22" s="7"/>
-      <c r="C22" s="7"/>
+      <c r="A22" s="6"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3755,10 +3755,10 @@
       <c r="A1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="C1" s="6"/>
+      <c r="C1" s="19"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
@@ -3772,128 +3772,128 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="6" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="6" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="6" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="6" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="7"/>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
+      <c r="A7" s="6"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="7"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
+      <c r="A8" s="6"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="7"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
+      <c r="A9" s="6"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="7"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
+      <c r="A10" s="6"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="7"/>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
+      <c r="A11" s="6"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="7"/>
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
+      <c r="A12" s="6"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" s="7"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
+      <c r="A13" s="6"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" s="7"/>
-      <c r="B14" s="7"/>
-      <c r="C14" s="7"/>
+      <c r="A14" s="6"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" s="7"/>
-      <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
+      <c r="A15" s="6"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" s="7"/>
-      <c r="B16" s="7"/>
-      <c r="C16" s="7"/>
+      <c r="A16" s="6"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="7"/>
-      <c r="B17" s="7"/>
-      <c r="C17" s="7"/>
+      <c r="A17" s="6"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="7"/>
-      <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
+      <c r="A18" s="6"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="7"/>
-      <c r="B19" s="7"/>
-      <c r="C19" s="7"/>
+      <c r="A19" s="6"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="7"/>
-      <c r="B20" s="7"/>
-      <c r="C20" s="7"/>
+      <c r="A20" s="6"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="7"/>
-      <c r="B21" s="7"/>
-      <c r="C21" s="7"/>
+      <c r="A21" s="6"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" s="7"/>
-      <c r="B22" s="7"/>
-      <c r="C22" s="7"/>
+      <c r="A22" s="6"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3923,10 +3923,10 @@
       <c r="A1" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="C1" s="6"/>
+      <c r="C1" s="19"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
@@ -3940,145 +3940,145 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="6" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="6" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="6" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="6" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="6" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="6" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="7"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
+      <c r="A9" s="6"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="7"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
+      <c r="A10" s="6"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="7"/>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
+      <c r="A11" s="6"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="7"/>
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
+      <c r="A12" s="6"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" s="7"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
+      <c r="A13" s="6"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" s="7"/>
-      <c r="B14" s="7"/>
-      <c r="C14" s="7"/>
+      <c r="A14" s="6"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" s="7"/>
-      <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
+      <c r="A15" s="6"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" s="7"/>
-      <c r="B16" s="7"/>
-      <c r="C16" s="7"/>
+      <c r="A16" s="6"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="7"/>
-      <c r="B17" s="7"/>
-      <c r="C17" s="7"/>
+      <c r="A17" s="6"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="7"/>
-      <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
+      <c r="A18" s="6"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="7"/>
-      <c r="B19" s="7"/>
-      <c r="C19" s="7"/>
+      <c r="A19" s="6"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="7"/>
-      <c r="B20" s="7"/>
-      <c r="C20" s="7"/>
+      <c r="A20" s="6"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="7"/>
-      <c r="B21" s="7"/>
-      <c r="C21" s="7"/>
+      <c r="A21" s="6"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" s="7"/>
-      <c r="B22" s="7"/>
-      <c r="C22" s="7"/>
+      <c r="A22" s="6"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="6"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" s="7"/>
-      <c r="B23" s="7"/>
-      <c r="C23" s="7"/>
+      <c r="A23" s="6"/>
+      <c r="B23" s="6"/>
+      <c r="C23" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4106,10 +4106,10 @@
       <c r="A1" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="19" t="s">
         <v>76</v>
       </c>
-      <c r="C1" s="6"/>
+      <c r="C1" s="19"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
@@ -4123,138 +4123,138 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="6" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="6" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="6" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="13" t="s">
+      <c r="A6" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="B6" s="7">
+      <c r="B6" s="6">
         <v>3</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="12" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="7"/>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
+      <c r="A7" s="6"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="7"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
+      <c r="A8" s="6"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="7"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
+      <c r="A9" s="6"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="7"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
+      <c r="A10" s="6"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="7"/>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
+      <c r="A11" s="6"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="7"/>
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
+      <c r="A12" s="6"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" s="7"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
+      <c r="A13" s="6"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" s="7"/>
-      <c r="B14" s="7"/>
-      <c r="C14" s="7"/>
+      <c r="A14" s="6"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" s="7"/>
-      <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
+      <c r="A15" s="6"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" s="7"/>
-      <c r="B16" s="7"/>
-      <c r="C16" s="7"/>
+      <c r="A16" s="6"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="7"/>
-      <c r="B17" s="7"/>
-      <c r="C17" s="7"/>
+      <c r="A17" s="6"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="7"/>
-      <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
+      <c r="A18" s="6"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="7"/>
-      <c r="B19" s="7"/>
-      <c r="C19" s="7"/>
+      <c r="A19" s="6"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="7"/>
-      <c r="B20" s="7"/>
-      <c r="C20" s="7"/>
+      <c r="A20" s="6"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="7"/>
-      <c r="B21" s="7"/>
-      <c r="C21" s="7"/>
+      <c r="A21" s="6"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" s="7"/>
-      <c r="B22" s="7"/>
-      <c r="C22" s="7"/>
+      <c r="A22" s="6"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="6"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" s="7"/>
-      <c r="B23" s="7"/>
-      <c r="C23" s="7"/>
+      <c r="A23" s="6"/>
+      <c r="B23" s="6"/>
+      <c r="C23" s="6"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" s="7"/>
-      <c r="B24" s="7"/>
-      <c r="C24" s="7"/>
+      <c r="A24" s="6"/>
+      <c r="B24" s="6"/>
+      <c r="C24" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4284,10 +4284,10 @@
       <c r="A1" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="19" t="s">
         <v>96</v>
       </c>
-      <c r="C1" s="6"/>
+      <c r="C1" s="19"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
@@ -4301,126 +4301,126 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="6" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="6" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="7"/>
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
+      <c r="A5" s="6"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="13"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="13"/>
+      <c r="A6" s="12"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="12"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="7"/>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
+      <c r="A7" s="6"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="7"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
+      <c r="A8" s="6"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="7"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
+      <c r="A9" s="6"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="7"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
+      <c r="A10" s="6"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="7"/>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
+      <c r="A11" s="6"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="7"/>
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
+      <c r="A12" s="6"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" s="7"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
+      <c r="A13" s="6"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" s="7"/>
-      <c r="B14" s="7"/>
-      <c r="C14" s="7"/>
+      <c r="A14" s="6"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" s="7"/>
-      <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
+      <c r="A15" s="6"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" s="7"/>
-      <c r="B16" s="7"/>
-      <c r="C16" s="7"/>
+      <c r="A16" s="6"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="7"/>
-      <c r="B17" s="7"/>
-      <c r="C17" s="7"/>
+      <c r="A17" s="6"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="7"/>
-      <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
+      <c r="A18" s="6"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="7"/>
-      <c r="B19" s="7"/>
-      <c r="C19" s="7"/>
+      <c r="A19" s="6"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="7"/>
-      <c r="B20" s="7"/>
-      <c r="C20" s="7"/>
+      <c r="A20" s="6"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="7"/>
-      <c r="B21" s="7"/>
-      <c r="C21" s="7"/>
+      <c r="A21" s="6"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" s="7"/>
-      <c r="B22" s="7"/>
-      <c r="C22" s="7"/>
+      <c r="A22" s="6"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="6"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" s="7"/>
-      <c r="B23" s="7"/>
-      <c r="C23" s="7"/>
+      <c r="A23" s="6"/>
+      <c r="B23" s="6"/>
+      <c r="C23" s="6"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" s="7"/>
-      <c r="B24" s="7"/>
-      <c r="C24" s="7"/>
+      <c r="A24" s="6"/>
+      <c r="B24" s="6"/>
+      <c r="C24" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4448,13 +4448,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="16" t="s">
         <v>237</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="18" t="s">
         <v>239</v>
       </c>
-      <c r="C1" s="20"/>
+      <c r="C1" s="18"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
@@ -4468,120 +4468,120 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="6" t="s">
         <v>245</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="6" t="s">
         <v>243</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="6" t="s">
         <v>244</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="6" t="s">
         <v>241</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="6" t="s">
         <v>241</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="6" t="s">
         <v>242</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="6" t="s">
         <v>246</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="6" t="s">
         <v>247</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="6" t="s">
         <v>248</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A6" s="10"/>
-      <c r="B6" s="10"/>
-      <c r="C6" s="7" t="s">
+      <c r="A6" s="9"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="6" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="7"/>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="18"/>
+      <c r="A7" s="6"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="15"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="7"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
+      <c r="A8" s="6"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="7"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
+      <c r="A9" s="6"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="7"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
+      <c r="A10" s="6"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="7"/>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
+      <c r="A11" s="6"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="7"/>
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
+      <c r="A12" s="6"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="7"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
+      <c r="A13" s="6"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="7"/>
-      <c r="B14" s="7"/>
-      <c r="C14" s="7"/>
+      <c r="A14" s="6"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="7"/>
-      <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
+      <c r="A15" s="6"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="7"/>
-      <c r="B16" s="7"/>
-      <c r="C16" s="7"/>
+      <c r="A16" s="6"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="7"/>
-      <c r="B17" s="7"/>
-      <c r="C17" s="7"/>
+      <c r="A17" s="6"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="7"/>
-      <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
+      <c r="A18" s="6"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="7"/>
-      <c r="B19" s="7"/>
-      <c r="C19" s="7"/>
+      <c r="A19" s="6"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="7"/>
-      <c r="B20" s="7"/>
-      <c r="C20" s="7"/>
+      <c r="A20" s="6"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="7"/>
-      <c r="B21" s="7"/>
-      <c r="C21" s="7"/>
+      <c r="A21" s="6"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4609,13 +4609,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="16" t="s">
         <v>215</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="18" t="s">
         <v>218</v>
       </c>
-      <c r="C1" s="20"/>
+      <c r="C1" s="18"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
@@ -4629,124 +4629,124 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="6" t="s">
         <v>219</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="6" t="s">
         <v>220</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="6" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="6" t="s">
         <v>221</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="6" t="s">
         <v>221</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="13" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="6" t="s">
         <v>222</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="6" t="s">
         <v>222</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="6" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="9" t="s">
         <v>223</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="9" t="s">
         <v>224</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="6" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="7"/>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="18"/>
+      <c r="A7" s="6"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="15"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="7"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
+      <c r="A8" s="6"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="7"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
+      <c r="A9" s="6"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="7"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
+      <c r="A10" s="6"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="7"/>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
+      <c r="A11" s="6"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="7"/>
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
+      <c r="A12" s="6"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="7"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
+      <c r="A13" s="6"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="7"/>
-      <c r="B14" s="7"/>
-      <c r="C14" s="7"/>
+      <c r="A14" s="6"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="7"/>
-      <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
+      <c r="A15" s="6"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="7"/>
-      <c r="B16" s="7"/>
-      <c r="C16" s="7"/>
+      <c r="A16" s="6"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="7"/>
-      <c r="B17" s="7"/>
-      <c r="C17" s="7"/>
+      <c r="A17" s="6"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="7"/>
-      <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
+      <c r="A18" s="6"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="7"/>
-      <c r="B19" s="7"/>
-      <c r="C19" s="7"/>
+      <c r="A19" s="6"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="7"/>
-      <c r="B20" s="7"/>
-      <c r="C20" s="7"/>
+      <c r="A20" s="6"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="7"/>
-      <c r="B21" s="7"/>
-      <c r="C21" s="7"/>
+      <c r="A21" s="6"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4772,13 +4772,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="17" t="s">
         <v>211</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="18" t="s">
         <v>209</v>
       </c>
-      <c r="C1" s="20"/>
+      <c r="C1" s="18"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
@@ -4792,130 +4792,130 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="6" t="s">
         <v>199</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="6" t="s">
         <v>199</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="6" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="6" t="s">
         <v>200</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="6" t="s">
         <v>200</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="6" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="6" t="s">
         <v>201</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="6" t="s">
         <v>201</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="6" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="9" t="s">
         <v>202</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="9" t="s">
         <v>202</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="6" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="6" t="s">
         <v>203</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="6" t="s">
         <v>203</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="6" t="s">
         <v>204</v>
       </c>
-      <c r="D7" s="18"/>
+      <c r="D7" s="15"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="7"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
+      <c r="A8" s="6"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="7"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
+      <c r="A9" s="6"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="7"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
+      <c r="A10" s="6"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="7"/>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
+      <c r="A11" s="6"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="7"/>
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
+      <c r="A12" s="6"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="7"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
+      <c r="A13" s="6"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="7"/>
-      <c r="B14" s="7"/>
-      <c r="C14" s="7"/>
+      <c r="A14" s="6"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="7"/>
-      <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
+      <c r="A15" s="6"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="7"/>
-      <c r="B16" s="7"/>
-      <c r="C16" s="7"/>
+      <c r="A16" s="6"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="7"/>
-      <c r="B17" s="7"/>
-      <c r="C17" s="7"/>
+      <c r="A17" s="6"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="7"/>
-      <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
+      <c r="A18" s="6"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="7"/>
-      <c r="B19" s="7"/>
-      <c r="C19" s="7"/>
+      <c r="A19" s="6"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="7"/>
-      <c r="B20" s="7"/>
-      <c r="C20" s="7"/>
+      <c r="A20" s="6"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="7"/>
-      <c r="B21" s="7"/>
-      <c r="C21" s="7"/>
+      <c r="A21" s="6"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4941,13 +4941,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="19" t="s">
         <v>190</v>
       </c>
-      <c r="C1" s="6"/>
+      <c r="C1" s="19"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
@@ -4961,114 +4961,114 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="6" t="s">
         <v>196</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="6" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="6" t="s">
         <v>195</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="6" t="s">
         <v>197</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="6" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="7"/>
-      <c r="B5" s="7"/>
-      <c r="C5" s="7" t="s">
+      <c r="A5" s="6"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="7"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
+      <c r="A6" s="6"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="7"/>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="18"/>
+      <c r="A7" s="6"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="15"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="7"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
+      <c r="A8" s="6"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="7"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
+      <c r="A9" s="6"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="7"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
+      <c r="A10" s="6"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="7"/>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
+      <c r="A11" s="6"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="7"/>
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
+      <c r="A12" s="6"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="7"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
+      <c r="A13" s="6"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="7"/>
-      <c r="B14" s="7"/>
-      <c r="C14" s="7"/>
+      <c r="A14" s="6"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="7"/>
-      <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
+      <c r="A15" s="6"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="7"/>
-      <c r="B16" s="7"/>
-      <c r="C16" s="7"/>
+      <c r="A16" s="6"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="7"/>
-      <c r="B17" s="7"/>
-      <c r="C17" s="7"/>
+      <c r="A17" s="6"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="7"/>
-      <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
+      <c r="A18" s="6"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="7"/>
-      <c r="B19" s="7"/>
-      <c r="C19" s="7"/>
+      <c r="A19" s="6"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="7"/>
-      <c r="B20" s="7"/>
-      <c r="C20" s="7"/>
+      <c r="A20" s="6"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="7"/>
-      <c r="B21" s="7"/>
-      <c r="C21" s="7"/>
+      <c r="A21" s="6"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -5096,13 +5096,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="19" t="s">
         <v>181</v>
       </c>
-      <c r="C1" s="6"/>
+      <c r="C1" s="19"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
@@ -5116,118 +5116,118 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="6" t="s">
         <v>185</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="6" t="s">
         <v>185</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="6" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="6" t="s">
         <v>186</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="6" t="s">
         <v>186</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="6" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="6" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="7"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
+      <c r="A6" s="6"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="7"/>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="18"/>
+      <c r="A7" s="6"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="15"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="7"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
+      <c r="A8" s="6"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="7"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
+      <c r="A9" s="6"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="7"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
+      <c r="A10" s="6"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="7"/>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
+      <c r="A11" s="6"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="7"/>
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
+      <c r="A12" s="6"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="7"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
+      <c r="A13" s="6"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="7"/>
-      <c r="B14" s="7"/>
-      <c r="C14" s="7"/>
+      <c r="A14" s="6"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="7"/>
-      <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
+      <c r="A15" s="6"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="7"/>
-      <c r="B16" s="7"/>
-      <c r="C16" s="7"/>
+      <c r="A16" s="6"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="7"/>
-      <c r="B17" s="7"/>
-      <c r="C17" s="7"/>
+      <c r="A17" s="6"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="7"/>
-      <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
+      <c r="A18" s="6"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="7"/>
-      <c r="B19" s="7"/>
-      <c r="C19" s="7"/>
+      <c r="A19" s="6"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="7"/>
-      <c r="B20" s="7"/>
-      <c r="C20" s="7"/>
+      <c r="A20" s="6"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="7"/>
-      <c r="B21" s="7"/>
-      <c r="C21" s="7"/>
+      <c r="A21" s="6"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -5255,13 +5255,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="19" t="s">
         <v>150</v>
       </c>
-      <c r="C1" s="6"/>
+      <c r="C1" s="19"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
@@ -5275,160 +5275,160 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="6" t="s">
         <v>171</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="6" t="s">
         <v>161</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="6" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="6" t="s">
         <v>162</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="6" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="6" t="s">
         <v>163</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="6" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="6" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="6" t="s">
         <v>165</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="6" t="s">
         <v>155</v>
       </c>
-      <c r="D7" s="18"/>
+      <c r="D7" s="15"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="6" t="s">
         <v>176</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="6" t="s">
         <v>166</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="6" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="6" t="s">
         <v>177</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="6" t="s">
         <v>167</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="6" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="6" t="s">
         <v>179</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="6" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="7" t="s">
+      <c r="A11" s="6" t="s">
         <v>178</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="6" t="s">
         <v>169</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="6" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="7" t="s">
+      <c r="A12" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="6" t="s">
         <v>170</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C12" s="6" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="7"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
+      <c r="A13" s="6"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="7"/>
-      <c r="B14" s="7"/>
-      <c r="C14" s="7"/>
+      <c r="A14" s="6"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="7"/>
-      <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
+      <c r="A15" s="6"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="7"/>
-      <c r="B16" s="7"/>
-      <c r="C16" s="7"/>
+      <c r="A16" s="6"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="7"/>
-      <c r="B17" s="7"/>
-      <c r="C17" s="7"/>
+      <c r="A17" s="6"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="7"/>
-      <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
+      <c r="A18" s="6"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="7"/>
-      <c r="B19" s="7"/>
-      <c r="C19" s="7"/>
+      <c r="A19" s="6"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="7"/>
-      <c r="B20" s="7"/>
-      <c r="C20" s="7"/>
+      <c r="A20" s="6"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="7"/>
-      <c r="B21" s="7"/>
-      <c r="C21" s="7"/>
+      <c r="A21" s="6"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -5456,13 +5456,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="19" t="s">
         <v>131</v>
       </c>
-      <c r="C1" s="6"/>
+      <c r="C1" s="19"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
@@ -5476,145 +5476,145 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="6" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="6" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="D5" s="16" t="s">
+      <c r="D5" s="20" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="D6" s="17"/>
+      <c r="D6" s="21"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="7"/>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
+      <c r="A7" s="6"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="7"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7" t="s">
+      <c r="A8" s="6"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="7"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
+      <c r="A9" s="6"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="7"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="18"/>
+      <c r="A10" s="6"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="15"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="7"/>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
+      <c r="A11" s="6"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="7"/>
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
+      <c r="A12" s="6"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="7"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
+      <c r="A13" s="6"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="7"/>
-      <c r="B14" s="7"/>
-      <c r="C14" s="7"/>
+      <c r="A14" s="6"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="7"/>
-      <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
+      <c r="A15" s="6"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="7"/>
-      <c r="B16" s="7"/>
-      <c r="C16" s="7"/>
+      <c r="A16" s="6"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="7"/>
-      <c r="B17" s="7"/>
-      <c r="C17" s="7"/>
+      <c r="A17" s="6"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="7"/>
-      <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
+      <c r="A18" s="6"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="7"/>
-      <c r="B19" s="7"/>
-      <c r="C19" s="7"/>
+      <c r="A19" s="6"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="7"/>
-      <c r="B20" s="7"/>
-      <c r="C20" s="7"/>
+      <c r="A20" s="6"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="7"/>
-      <c r="B21" s="7"/>
-      <c r="C21" s="7"/>
+      <c r="A21" s="6"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" s="7"/>
-      <c r="B22" s="7"/>
-      <c r="C22" s="7"/>
+      <c r="A22" s="6"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="6"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" s="7"/>
-      <c r="B23" s="7"/>
-      <c r="C23" s="7"/>
+      <c r="A23" s="6"/>
+      <c r="B23" s="6"/>
+      <c r="C23" s="6"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" s="7"/>
-      <c r="B24" s="7"/>
-      <c r="C24" s="7"/>
+      <c r="A24" s="6"/>
+      <c r="B24" s="6"/>
+      <c r="C24" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -5642,13 +5642,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="16" t="s">
         <v>232</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="18" t="s">
         <v>118</v>
       </c>
-      <c r="C1" s="20"/>
+      <c r="C1" s="18"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
@@ -5662,163 +5662,163 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="6" t="s">
         <v>229</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="6" t="s">
         <v>229</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="6" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="6" t="s">
         <v>234</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="6" t="s">
         <v>235</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="6" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="6" t="s">
         <v>233</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="6" t="s">
         <v>233</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="6" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="6" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="6" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="6" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="6" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="7"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7" t="s">
+      <c r="A10" s="6"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="7"/>
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
+      <c r="A12" s="6"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" s="7"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
+      <c r="A13" s="6"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" s="7"/>
-      <c r="B14" s="7"/>
-      <c r="C14" s="7"/>
+      <c r="A14" s="6"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" s="7"/>
-      <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
+      <c r="A15" s="6"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" s="7"/>
-      <c r="B16" s="7"/>
-      <c r="C16" s="7"/>
+      <c r="A16" s="6"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="7"/>
-      <c r="B17" s="7"/>
-      <c r="C17" s="7"/>
+      <c r="A17" s="6"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="7"/>
-      <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
+      <c r="A18" s="6"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="7"/>
-      <c r="B19" s="7"/>
-      <c r="C19" s="7"/>
+      <c r="A19" s="6"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="7"/>
-      <c r="B20" s="7"/>
-      <c r="C20" s="7"/>
+      <c r="A20" s="6"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="7"/>
-      <c r="B21" s="7"/>
-      <c r="C21" s="7"/>
+      <c r="A21" s="6"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" s="7"/>
-      <c r="B22" s="7"/>
-      <c r="C22" s="7"/>
+      <c r="A22" s="6"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="6"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" s="7"/>
-      <c r="B23" s="7"/>
-      <c r="C23" s="7"/>
+      <c r="A23" s="6"/>
+      <c r="B23" s="6"/>
+      <c r="C23" s="6"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" s="7"/>
-      <c r="B24" s="7"/>
-      <c r="C24" s="7"/>
+      <c r="A24" s="6"/>
+      <c r="B24" s="6"/>
+      <c r="C24" s="6"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25" s="7"/>
-      <c r="B25" s="7"/>
-      <c r="C25" s="7"/>
+      <c r="A25" s="6"/>
+      <c r="B25" s="6"/>
+      <c r="C25" s="6"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26" s="7"/>
-      <c r="B26" s="7"/>
-      <c r="C26" s="7"/>
+      <c r="A26" s="6"/>
+      <c r="B26" s="6"/>
+      <c r="C26" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/tools-core/model/业务字典.xlsx
+++ b/tools-core/model/业务字典.xlsx
@@ -9,27 +9,28 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14800" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14740" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="业务字典" sheetId="1" r:id="rId1"/>
-    <sheet name="DICT_PROMOTING_ORIGIN" sheetId="18" r:id="rId2"/>
-    <sheet name="DICT_TRANS_ORIGIN" sheetId="17" r:id="rId3"/>
-    <sheet name="DICT_PROMOTING_FEEDBACK" sheetId="16" r:id="rId4"/>
-    <sheet name="DICT_PROMOTING_BIZ_TYPE" sheetId="15" r:id="rId5"/>
-    <sheet name="DICT_PREFILL_STATUS" sheetId="14" r:id="rId6"/>
-    <sheet name="DICT_QUEUE_BIZ_TYPE" sheetId="13" r:id="rId7"/>
-    <sheet name="DICT_TRANS_PHASE" sheetId="12" r:id="rId8"/>
-    <sheet name="DICT_ACTION_TYPE" sheetId="11" r:id="rId9"/>
-    <sheet name="DICT_BIZ_TYPE" sheetId="3" r:id="rId10"/>
-    <sheet name="DICT_TRANS_STATUS" sheetId="10" r:id="rId11"/>
-    <sheet name="DICT_CONTACT_MODE" sheetId="2" r:id="rId12"/>
-    <sheet name="DICT_SERVICE_STATUS" sheetId="4" r:id="rId13"/>
-    <sheet name="DICT_SERVICE_APPRAISE" sheetId="5" r:id="rId14"/>
-    <sheet name="DICT_SERVICE_TYPE" sheetId="6" r:id="rId15"/>
-    <sheet name="DICT_PAPER_TYPE" sheetId="7" r:id="rId16"/>
-    <sheet name="DICT_HSOTTRANS_STATUS" sheetId="8" r:id="rId17"/>
-    <sheet name="DICT_MSG_TYPE" sheetId="9" r:id="rId18"/>
+    <sheet name="DICT_YON" sheetId="19" r:id="rId2"/>
+    <sheet name="DICT_PROMOTING_ORIGIN" sheetId="18" r:id="rId3"/>
+    <sheet name="DICT_TRANS_ORIGIN" sheetId="17" r:id="rId4"/>
+    <sheet name="DICT_PROMOTING_FEEDBACK" sheetId="16" r:id="rId5"/>
+    <sheet name="DICT_PROMOTING_BIZ_TYPE" sheetId="15" r:id="rId6"/>
+    <sheet name="DICT_PREFILL_STATUS" sheetId="14" r:id="rId7"/>
+    <sheet name="DICT_QUEUE_BIZ_TYPE" sheetId="13" r:id="rId8"/>
+    <sheet name="DICT_TRANS_PHASE" sheetId="12" r:id="rId9"/>
+    <sheet name="DICT_ACTION_TYPE" sheetId="11" r:id="rId10"/>
+    <sheet name="DICT_BIZ_TYPE" sheetId="3" r:id="rId11"/>
+    <sheet name="DICT_TRANS_STATUS" sheetId="10" r:id="rId12"/>
+    <sheet name="DICT_CONTACT_MODE" sheetId="2" r:id="rId13"/>
+    <sheet name="DICT_SERVICE_STATUS" sheetId="4" r:id="rId14"/>
+    <sheet name="DICT_SERVICE_APPRAISE" sheetId="5" r:id="rId15"/>
+    <sheet name="DICT_SERVICE_TYPE" sheetId="6" r:id="rId16"/>
+    <sheet name="DICT_PAPER_TYPE" sheetId="7" r:id="rId17"/>
+    <sheet name="DICT_HSOTTRANS_STATUS" sheetId="8" r:id="rId18"/>
+    <sheet name="DICT_MSG_TYPE" sheetId="9" r:id="rId19"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -44,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="267">
   <si>
     <t>银行业务的类型划分</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2301,6 +2302,199 @@
   </si>
   <si>
     <t>。。。。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型</t>
+    <rPh sb="0" eb="1">
+      <t>lei xing</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>应用</t>
+    <rPh sb="0" eb="1">
+      <t>ying yong</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统</t>
+  </si>
+  <si>
+    <t>&lt;&lt; 返回</t>
+    <rPh sb="3" eb="4">
+      <t>fan hui</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型＝系统，表示该业务字典是技术平台自己的特性</t>
+    <rPh sb="0" eb="1">
+      <t>lei xing</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>xi tong</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>biao shi</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>gai</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>y wu</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>zi d</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ji shu</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ping tai</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>zi ji</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>de</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>te xing</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型＝应用，表示该业务字典是应用特性</t>
+    <rPh sb="0" eb="1">
+      <t>lei xing</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ying yong</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>biao shi</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>gai</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>y wu</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>zi d</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ying yong</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>te xing</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>营销业务类型可随业务而扩展增加</t>
+    <rPh sb="0" eb="1">
+      <t>ying xiao</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>y wu</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>lei xing</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ke</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>sui</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>y wu</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>er</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>kuo z</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>zhan</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>zeng jia</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是或否</t>
+    <rPh sb="0" eb="1">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>huo</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>fou</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表达是、否</t>
+    <rPh sb="0" eb="1">
+      <t>biao da</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>fou</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DICT_YON</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DICT_YON</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>YES</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <rPh sb="0" eb="1">
+      <t>shi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <rPh sb="0" eb="1">
+      <t>fou</t>
+    </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2308,7 +2502,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2355,8 +2549,13 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Abadi MT Condensed Extra Bold"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2366,6 +2565,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2416,16 +2627,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2462,6 +2670,21 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2741,32 +2964,35 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="32" customWidth="1"/>
     <col min="2" max="2" width="13.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="33.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.83203125" style="21"/>
+    <col min="5" max="5" width="47.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="22" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
+      <c r="D1" s="23" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
         <v>15</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -2775,9 +3001,15 @@
       <c r="C2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
+      <c r="D2" s="21" t="s">
+        <v>251</v>
+      </c>
+      <c r="E2" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -2786,12 +3018,15 @@
       <c r="C3" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D3" s="21" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B4" s="2"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="4" t="s">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
         <v>99</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -2800,12 +3035,18 @@
       <c r="C5" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D5" s="21" t="s">
+        <v>252</v>
+      </c>
+      <c r="E5" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B6" s="2"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="4" t="s">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
         <v>118</v>
       </c>
       <c r="B7" s="2" t="s">
@@ -2814,9 +3055,12 @@
       <c r="C7" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="4" t="s">
+      <c r="D7" s="21" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
         <v>130</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -2825,9 +3069,12 @@
       <c r="C8" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="4" t="s">
+      <c r="D8" s="21" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
         <v>217</v>
       </c>
       <c r="B9" s="2" t="s">
@@ -2836,9 +3083,12 @@
       <c r="C9" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="4" t="s">
+      <c r="D9" s="21" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
         <v>34</v>
       </c>
       <c r="B10" s="2" t="s">
@@ -2847,9 +3097,12 @@
       <c r="C10" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="4" t="s">
+      <c r="D10" s="21" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="3" t="s">
         <v>24</v>
       </c>
       <c r="B11" s="2" t="s">
@@ -2858,9 +3111,12 @@
       <c r="C11" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="4" t="s">
+      <c r="D11" s="21" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="3" t="s">
         <v>61</v>
       </c>
       <c r="B12" s="2" t="s">
@@ -2869,17 +3125,23 @@
       <c r="C12" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" s="4" t="s">
+      <c r="D12" s="21" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="3" t="s">
         <v>60</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" s="4" t="s">
+      <c r="D13" s="21" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="3" t="s">
         <v>74</v>
       </c>
       <c r="B14" s="2" t="s">
@@ -2888,9 +3150,12 @@
       <c r="C14" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" s="4" t="s">
+      <c r="D14" s="21" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="3" t="s">
         <v>88</v>
       </c>
       <c r="B15" s="2" t="s">
@@ -2899,9 +3164,12 @@
       <c r="C15" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="4" t="s">
+      <c r="D15" s="21" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="3" t="s">
         <v>149</v>
       </c>
       <c r="B17" s="2" t="s">
@@ -2910,25 +3178,37 @@
       <c r="C17" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="4" t="s">
+      <c r="D17" s="21" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="3" t="s">
         <v>183</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="4" t="s">
+      <c r="D18" s="21" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="3" t="s">
         <v>189</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="4" t="s">
+      <c r="C19" t="s">
+        <v>256</v>
+      </c>
+      <c r="D19" s="21" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="3" t="s">
         <v>209</v>
       </c>
       <c r="B20" s="2" t="s">
@@ -2937,9 +3217,12 @@
       <c r="C20" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="4" t="s">
+      <c r="D20" s="21" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" s="3" t="s">
         <v>240</v>
       </c>
       <c r="B21" s="2" t="s">
@@ -2948,9 +3231,31 @@
       <c r="C21" t="s">
         <v>238</v>
       </c>
+      <c r="D21" s="21" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="C23" t="s">
+        <v>258</v>
+      </c>
+      <c r="D23" s="21" t="s">
+        <v>252</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D21 D23">
+      <formula1>"应用,系统"</formula1>
+    </dataValidation>
+  </dataValidations>
   <hyperlinks>
     <hyperlink ref="A3" location="DICT_CONTACT_MODE!A1" display="DICT_CONTACT_MODE"/>
     <hyperlink ref="A2" location="DICT_BIZ_TYPE!A1" display="DICT_BIZ_TYPE"/>
@@ -2969,6 +3274,7 @@
     <hyperlink ref="A20" location="DICT_PROMOTING_FEEDBACK!A1" display="DICT_PROMOTING_FEEDBACK"/>
     <hyperlink ref="A9" location="DICT_TRANS_ORIGIN!A1" display="DICT_TRANS_ORIGIN"/>
     <hyperlink ref="A21" location="DICT_PROMOTING_ORIGIN!A1" display="DICT_PROMOTING_FROM"/>
+    <hyperlink ref="A23" location="DICT_YON!A1" display="DICT_YON"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2976,9 +3282,220 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C24"/>
+  <dimension ref="A1:C27"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="18.5" customWidth="1"/>
+    <col min="2" max="2" width="17.5" customWidth="1"/>
+    <col min="3" max="3" width="24.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="24" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="15" t="s">
+        <v>232</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>118</v>
+      </c>
+      <c r="C2" s="17"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" s="5"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" s="5"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" s="5"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" s="5"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" s="5"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="5"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" s="5"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" s="5"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" s="5"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" s="5"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" s="5"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" s="5"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" s="5"/>
+      <c r="B24" s="5"/>
+      <c r="C24" s="5"/>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" s="5"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="5"/>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" s="5"/>
+      <c r="B26" s="5"/>
+      <c r="C26" s="5"/>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" s="5"/>
+      <c r="B27" s="5"/>
+      <c r="C27" s="5"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B2:C2"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="A1" location="业务字典!A1" display="&lt;&lt; 返回"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -2987,163 +3504,172 @@
     <col min="3" max="3" width="24.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="24" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B2" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="19"/>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="5" t="s">
+      <c r="C2" s="18"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C3" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="6" t="s">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B4" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C4" s="5" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="6" t="s">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B5" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C5" s="5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="6"/>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="6"/>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="6"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="6"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="6"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="6"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="6"/>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="6"/>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" s="6"/>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" s="6"/>
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" s="6"/>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" s="6"/>
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="5"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="5"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="5"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="5"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="12"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="7"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="5"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="5"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="5"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="5"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="5"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="5"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="6"/>
-      <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
+      <c r="A17" s="5"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="6"/>
-      <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
+      <c r="A18" s="5"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="6"/>
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
+      <c r="A19" s="5"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="6"/>
-      <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
+      <c r="A20" s="5"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="6"/>
-      <c r="B21" s="6"/>
-      <c r="C21" s="6"/>
+      <c r="A21" s="5"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" s="6"/>
-      <c r="B22" s="6"/>
-      <c r="C22" s="6"/>
+      <c r="A22" s="5"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" s="6"/>
-      <c r="B23" s="6"/>
-      <c r="C23" s="6"/>
+      <c r="A23" s="5"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" s="6"/>
-      <c r="B24" s="6"/>
-      <c r="C24" s="6"/>
+      <c r="A24" s="5"/>
+      <c r="B24" s="5"/>
+      <c r="C24" s="5"/>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" s="5"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B2:C2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="A1" location="业务字典!A1" display="&lt;&lt; 返回"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C26"/>
+  <dimension ref="A1:C27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:C6"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3153,191 +3679,199 @@
     <col min="3" max="3" width="63.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="24" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B2" s="18" t="s">
         <v>102</v>
       </c>
-      <c r="C1" s="19"/>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="5" t="s">
+      <c r="C2" s="18"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C3" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="6" t="s">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B4" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C4" s="5" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="6" t="s">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B5" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C5" s="5" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="6" t="s">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B6" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C6" s="5" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="6" t="s">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B7" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C7" s="5" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="6" t="s">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B8" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C8" s="5" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="6"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-    </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="6"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
+      <c r="A9" s="5"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="6"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
+      <c r="A10" s="5"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="6"/>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
+      <c r="A11" s="5"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="6"/>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
+      <c r="A12" s="5"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" s="6"/>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
+      <c r="A13" s="5"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" s="6"/>
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
+      <c r="A14" s="5"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" s="6"/>
-      <c r="B15" s="6"/>
-      <c r="C15" s="14"/>
+      <c r="A15" s="5"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" s="6"/>
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
+      <c r="A16" s="5"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="13"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="6"/>
-      <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
+      <c r="A17" s="5"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="6"/>
-      <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
+      <c r="A18" s="5"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="6"/>
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
+      <c r="A19" s="5"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="6"/>
-      <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
+      <c r="A20" s="5"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="6"/>
-      <c r="B21" s="6"/>
-      <c r="C21" s="6"/>
+      <c r="A21" s="5"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" s="6"/>
-      <c r="B22" s="6"/>
-      <c r="C22" s="6"/>
+      <c r="A22" s="5"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" s="6"/>
-      <c r="B23" s="6"/>
-      <c r="C23" s="6"/>
+      <c r="A23" s="5"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" s="6"/>
-      <c r="B24" s="6"/>
-      <c r="C24" s="6"/>
+      <c r="A24" s="5"/>
+      <c r="B24" s="5"/>
+      <c r="C24" s="5"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25" s="6"/>
-      <c r="B25" s="6"/>
-      <c r="C25" s="6"/>
+      <c r="A25" s="5"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="5"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26" s="6"/>
-      <c r="B26" s="6"/>
-      <c r="C26" s="6"/>
+      <c r="A26" s="5"/>
+      <c r="B26" s="5"/>
+      <c r="C26" s="5"/>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" s="5"/>
+      <c r="B27" s="5"/>
+      <c r="C27" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B2:C2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="A1" location="业务字典!A1" display="&lt;&lt; 返回"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3347,751 +3881,82 @@
     <col min="3" max="3" width="22.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="24" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B2" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="19"/>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="5" t="s">
+      <c r="C2" s="18"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C3" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="10" t="s">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B4" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C4" s="10" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="10" t="s">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B5" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C5" s="10" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="10" t="s">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B6" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C6" s="10" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C7" s="8"/>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C8" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B2:C2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C22"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="15.6640625" customWidth="1"/>
-    <col min="2" max="2" width="20.33203125" customWidth="1"/>
-    <col min="3" max="3" width="22.83203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B1" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="C1" s="19"/>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="6"/>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="6"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="6"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="6"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="6"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="6"/>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="6"/>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" s="6"/>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" s="6"/>
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" s="6"/>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" s="6"/>
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="6"/>
-      <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="6"/>
-      <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="6"/>
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="6"/>
-      <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="6"/>
-      <c r="B21" s="6"/>
-      <c r="C21" s="6"/>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" s="6"/>
-      <c r="B22" s="6"/>
-      <c r="C22" s="6"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B1:C1"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="A1" location="业务字典!A1" display="&lt;&lt; 返回"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C22"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="15.6640625" customWidth="1"/>
-    <col min="2" max="2" width="20.33203125" customWidth="1"/>
-    <col min="3" max="3" width="22.83203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B1" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="C1" s="19"/>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="6"/>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="6"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="6"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="6"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="6"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="6"/>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="6"/>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" s="6"/>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" s="6"/>
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" s="6"/>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" s="6"/>
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="6"/>
-      <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="6"/>
-      <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="6"/>
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="6"/>
-      <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="6"/>
-      <c r="B21" s="6"/>
-      <c r="C21" s="6"/>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" s="6"/>
-      <c r="B22" s="6"/>
-      <c r="C22" s="6"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B1:C1"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C22"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:C1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="15.6640625" customWidth="1"/>
-    <col min="2" max="2" width="20.33203125" customWidth="1"/>
-    <col min="3" max="3" width="22.83203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B1" s="19" t="s">
-        <v>53</v>
-      </c>
-      <c r="C1" s="19"/>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="6"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="6"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="6"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="6"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="6"/>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="6"/>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" s="6"/>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" s="6"/>
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" s="6"/>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" s="6"/>
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="6"/>
-      <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="6"/>
-      <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="6"/>
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="6"/>
-      <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="6"/>
-      <c r="B21" s="6"/>
-      <c r="C21" s="6"/>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" s="6"/>
-      <c r="B22" s="6"/>
-      <c r="C22" s="6"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B1:C1"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C23"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="15.6640625" customWidth="1"/>
-    <col min="2" max="2" width="20.33203125" customWidth="1"/>
-    <col min="3" max="3" width="22.83203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B1" s="19" t="s">
-        <v>62</v>
-      </c>
-      <c r="C1" s="19"/>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="6"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="6"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="6"/>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="6"/>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" s="6"/>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" s="6"/>
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" s="6"/>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" s="6"/>
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="6"/>
-      <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="6"/>
-      <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="6"/>
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="6"/>
-      <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="6"/>
-      <c r="B21" s="6"/>
-      <c r="C21" s="6"/>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" s="6"/>
-      <c r="B22" s="6"/>
-      <c r="C22" s="6"/>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" s="6"/>
-      <c r="B23" s="6"/>
-      <c r="C23" s="6"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B1:C1"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4102,175 +3967,509 @@
     <col min="3" max="3" width="22.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="B1" s="19" t="s">
-        <v>76</v>
-      </c>
-      <c r="C1" s="19"/>
+    <row r="1" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="24" t="s">
+        <v>253</v>
+      </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="18"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C3" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>81</v>
-      </c>
-    </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>79</v>
+      <c r="A4" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>87</v>
+      <c r="A5" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="B6" s="6">
-        <v>3</v>
-      </c>
-      <c r="C6" s="12" t="s">
-        <v>86</v>
+      <c r="A6" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="6"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
+      <c r="A7" s="5"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="6"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
+      <c r="A8" s="5"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="6"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
+      <c r="A9" s="5"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="6"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
+      <c r="A10" s="5"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="6"/>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
+      <c r="A11" s="5"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="6"/>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
+      <c r="A12" s="5"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" s="6"/>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
+      <c r="A13" s="5"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" s="6"/>
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
+      <c r="A14" s="5"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" s="6"/>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
+      <c r="A15" s="5"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" s="6"/>
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
+      <c r="A16" s="5"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="6"/>
-      <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
+      <c r="A17" s="5"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="6"/>
-      <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
+      <c r="A18" s="5"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="6"/>
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
+      <c r="A19" s="5"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="6"/>
-      <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
+      <c r="A20" s="5"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="6"/>
-      <c r="B21" s="6"/>
-      <c r="C21" s="6"/>
+      <c r="A21" s="5"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" s="6"/>
-      <c r="B22" s="6"/>
-      <c r="C22" s="6"/>
+      <c r="A22" s="5"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" s="6"/>
-      <c r="B23" s="6"/>
-      <c r="C23" s="6"/>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" s="6"/>
-      <c r="B24" s="6"/>
-      <c r="C24" s="6"/>
+      <c r="A23" s="5"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B2:C2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="A1" location="业务字典!A1" display="&lt;&lt; 返回"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="15.6640625" customWidth="1"/>
+    <col min="2" max="2" width="20.33203125" customWidth="1"/>
+    <col min="3" max="3" width="22.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="24" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" s="18"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="5"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="5"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="5"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="5"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" s="5"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" s="5"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" s="5"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" s="5"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" s="5"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" s="5"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="5"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" s="5"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" s="5"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" s="5"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" s="5"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" s="5"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" s="5"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B2:C2"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="A1" location="业务字典!A1" display="&lt;&lt; 返回"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="15.6640625" customWidth="1"/>
+    <col min="2" max="2" width="20.33203125" customWidth="1"/>
+    <col min="3" max="3" width="22.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="24" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="C2" s="18"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="5"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="5"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="5"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" s="5"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" s="5"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" s="5"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" s="5"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" s="5"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" s="5"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="5"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" s="5"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" s="5"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" s="5"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" s="5"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" s="5"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" s="5"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B2:C2"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="A1" location="业务字典!A1" display="&lt;&lt; 返回"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4280,164 +4479,547 @@
     <col min="3" max="3" width="22.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="B1" s="19" t="s">
-        <v>96</v>
-      </c>
-      <c r="C1" s="19"/>
+    <row r="1" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="24" t="s">
+        <v>253</v>
+      </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="C2" s="18"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C3" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>94</v>
-      </c>
-    </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>95</v>
+      <c r="A4" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="6"/>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
+      <c r="A5" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="12"/>
-      <c r="B6" s="6"/>
-      <c r="C6" s="12"/>
+      <c r="A6" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="6"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
+      <c r="A7" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="6"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
+      <c r="A8" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="6"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
+      <c r="A9" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="6"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
+      <c r="A10" s="5"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="6"/>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
+      <c r="A11" s="5"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="6"/>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
+      <c r="A12" s="5"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" s="6"/>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
+      <c r="A13" s="5"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" s="6"/>
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
+      <c r="A14" s="5"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" s="6"/>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
+      <c r="A15" s="5"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" s="6"/>
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
+      <c r="A16" s="5"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="6"/>
-      <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
+      <c r="A17" s="5"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="6"/>
-      <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
+      <c r="A18" s="5"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="6"/>
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
+      <c r="A19" s="5"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="6"/>
-      <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
+      <c r="A20" s="5"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="6"/>
-      <c r="B21" s="6"/>
-      <c r="C21" s="6"/>
+      <c r="A21" s="5"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" s="6"/>
-      <c r="B22" s="6"/>
-      <c r="C22" s="6"/>
+      <c r="A22" s="5"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" s="6"/>
-      <c r="B23" s="6"/>
-      <c r="C23" s="6"/>
+      <c r="A23" s="5"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" s="6"/>
-      <c r="B24" s="6"/>
-      <c r="C24" s="6"/>
+      <c r="A24" s="5"/>
+      <c r="B24" s="5"/>
+      <c r="C24" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B2:C2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="A1" location="业务字典!A1" display="&lt;&lt; 返回"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="15.6640625" customWidth="1"/>
+    <col min="2" max="2" width="20.33203125" customWidth="1"/>
+    <col min="3" max="3" width="22.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="24" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="C2" s="18"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="B7" s="5">
+        <v>3</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="5"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="5"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="5"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" s="5"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" s="5"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" s="5"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" s="5"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" s="5"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" s="5"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="5"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" s="5"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" s="5"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" s="5"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" s="5"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" s="5"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" s="5"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" s="5"/>
+      <c r="B24" s="5"/>
+      <c r="C24" s="5"/>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" s="5"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="5"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B2:C2"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="A1" location="业务字典!A1" display="&lt;&lt; 返回"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="15.6640625" customWidth="1"/>
+    <col min="2" max="2" width="20.33203125" customWidth="1"/>
+    <col min="3" max="3" width="22.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="24" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="C2" s="18"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="5"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="11"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="11"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="5"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="5"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="5"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" s="5"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" s="5"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" s="5"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" s="5"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" s="5"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" s="5"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="5"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" s="5"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" s="5"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" s="5"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" s="5"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" s="5"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" s="5"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" s="5"/>
+      <c r="B24" s="5"/>
+      <c r="C24" s="5"/>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" s="5"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="5"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B2:C2"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="A1" location="业务字典!A1" display="&lt;&lt; 返回"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -4447,158 +5029,156 @@
     <col min="4" max="4" width="31.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="16" t="s">
-        <v>237</v>
-      </c>
-      <c r="B1" s="18" t="s">
-        <v>239</v>
-      </c>
-      <c r="C1" s="18"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="5" t="s">
+    <row r="1" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="24" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="15" t="s">
+        <v>257</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>260</v>
+      </c>
+      <c r="C2" s="17"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C3" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="6" t="s">
-        <v>245</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>243</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>244</v>
-      </c>
-    </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="6" t="s">
-        <v>241</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>241</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>242</v>
+      <c r="A4" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>265</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="6" t="s">
-        <v>246</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>247</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A6" s="9"/>
-      <c r="B6" s="9"/>
-      <c r="C6" s="6" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="6"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="15"/>
+      <c r="A5" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="5"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+    </row>
+    <row r="7" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A7" s="8"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="5"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="6"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
+      <c r="A8" s="5"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="14"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="6"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
+      <c r="A9" s="5"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="6"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
+      <c r="A10" s="5"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="6"/>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
+      <c r="A11" s="5"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="6"/>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
+      <c r="A12" s="5"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="6"/>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
+      <c r="A13" s="5"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="6"/>
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
+      <c r="A14" s="5"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="6"/>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
+      <c r="A15" s="5"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="6"/>
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
+      <c r="A16" s="5"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="6"/>
-      <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
+      <c r="A17" s="5"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="6"/>
-      <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
+      <c r="A18" s="5"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="6"/>
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
+      <c r="A19" s="5"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="6"/>
-      <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
+      <c r="A20" s="5"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="6"/>
-      <c r="B21" s="6"/>
-      <c r="C21" s="6"/>
+      <c r="A21" s="5"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" s="5"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B2:C2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="A1" location="业务字典!A1" display="&lt;&lt; 返回"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -4608,158 +5188,333 @@
     <col min="4" max="4" width="31.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="16" t="s">
-        <v>215</v>
-      </c>
-      <c r="B1" s="18" t="s">
-        <v>218</v>
-      </c>
-      <c r="C1" s="18"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="5" t="s">
+    <row r="1" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="24" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="15" t="s">
+        <v>237</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>239</v>
+      </c>
+      <c r="C2" s="17"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C3" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="6" t="s">
-        <v>219</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>220</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>225</v>
-      </c>
-    </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="6" t="s">
-        <v>221</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>221</v>
-      </c>
-      <c r="C4" s="13" t="s">
-        <v>226</v>
+      <c r="A4" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="6" t="s">
-        <v>222</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>222</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A6" s="9" t="s">
-        <v>223</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>224</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="6"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="15"/>
+      <c r="A5" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A7" s="8"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="5" t="s">
+        <v>249</v>
+      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="6"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
+      <c r="A8" s="5"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="14"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="6"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
+      <c r="A9" s="5"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="6"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
+      <c r="A10" s="5"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="6"/>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
+      <c r="A11" s="5"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="6"/>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
+      <c r="A12" s="5"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="6"/>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
+      <c r="A13" s="5"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="6"/>
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
+      <c r="A14" s="5"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="6"/>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
+      <c r="A15" s="5"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="6"/>
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
+      <c r="A16" s="5"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="6"/>
-      <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
+      <c r="A17" s="5"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="6"/>
-      <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
+      <c r="A18" s="5"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="6"/>
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
+      <c r="A19" s="5"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="6"/>
-      <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
+      <c r="A20" s="5"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="6"/>
-      <c r="B21" s="6"/>
-      <c r="C21" s="6"/>
+      <c r="A21" s="5"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" s="5"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B2:C2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="A1" location="业务字典!A1" display="&lt;&lt; 返回"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:D22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="16.5" customWidth="1"/>
+    <col min="2" max="2" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="49.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="24" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="15" t="s">
+        <v>215</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>218</v>
+      </c>
+      <c r="C2" s="17"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A7" s="8" t="s">
+        <v>223</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>224</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="5"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="14"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="5"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="5"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="5"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="5"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="5"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="5"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="5"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="5"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="5"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" s="5"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" s="5"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" s="5"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" s="5"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" s="5"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B2:C2"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="A1" location="业务字典!A1" display="&lt;&lt; 返回"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4771,164 +5526,172 @@
     <col min="4" max="4" width="31.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="17" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="25" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="16" t="s">
         <v>211</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B2" s="17" t="s">
         <v>209</v>
       </c>
-      <c r="C1" s="18"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="5" t="s">
+      <c r="C2" s="17"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C3" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="6" t="s">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="5" t="s">
         <v>199</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B4" s="5" t="s">
         <v>199</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C4" s="5" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="6" t="s">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="5" t="s">
         <v>200</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B5" s="5" t="s">
         <v>200</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C5" s="5" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="6" t="s">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="5" t="s">
         <v>201</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B6" s="5" t="s">
         <v>201</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C6" s="5" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A6" s="9" t="s">
+    <row r="7" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A7" s="8" t="s">
         <v>202</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B7" s="8" t="s">
         <v>202</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C7" s="5" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="6" t="s">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="5" t="s">
         <v>203</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B8" s="5" t="s">
         <v>203</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C8" s="5" t="s">
         <v>204</v>
       </c>
-      <c r="D7" s="15"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="6"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
+      <c r="D8" s="14"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="6"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
+      <c r="A9" s="5"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="6"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
+      <c r="A10" s="5"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="6"/>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
+      <c r="A11" s="5"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="6"/>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
+      <c r="A12" s="5"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="6"/>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
+      <c r="A13" s="5"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="6"/>
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
+      <c r="A14" s="5"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="6"/>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
+      <c r="A15" s="5"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="6"/>
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
+      <c r="A16" s="5"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="6"/>
-      <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
+      <c r="A17" s="5"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="6"/>
-      <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
+      <c r="A18" s="5"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="6"/>
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
+      <c r="A19" s="5"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="6"/>
-      <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
+      <c r="A20" s="5"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="6"/>
-      <c r="B21" s="6"/>
-      <c r="C21" s="6"/>
+      <c r="A21" s="5"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" s="5"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B2:C2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="A1" location="业务字典!A1" display="&lt;&lt; 返回"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4940,152 +5703,158 @@
     <col min="4" max="4" width="31.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="24" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B2" s="18" t="s">
         <v>190</v>
       </c>
-      <c r="C1" s="19"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="5" t="s">
+      <c r="C2" s="18"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C3" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="6" t="s">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="5" t="s">
         <v>192</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B4" s="5" t="s">
         <v>196</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C4" s="5" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="6" t="s">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="5" t="s">
         <v>195</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B5" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C5" s="5" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="6"/>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6" t="s">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="5"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="6"/>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-    </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="6"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="15"/>
+      <c r="A7" s="5"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="6"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
+      <c r="A8" s="5"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="14"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="6"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
+      <c r="A9" s="5"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="6"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
+      <c r="A10" s="5"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="6"/>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
+      <c r="A11" s="5"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="6"/>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
+      <c r="A12" s="5"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="6"/>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
+      <c r="A13" s="5"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="6"/>
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
+      <c r="A14" s="5"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="6"/>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
+      <c r="A15" s="5"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="6"/>
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
+      <c r="A16" s="5"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="6"/>
-      <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
+      <c r="A17" s="5"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="6"/>
-      <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
+      <c r="A18" s="5"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="6"/>
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
+      <c r="A19" s="5"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="6"/>
-      <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
+      <c r="A20" s="5"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="6"/>
-      <c r="B21" s="6"/>
-      <c r="C21" s="6"/>
+      <c r="A21" s="5"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" s="5"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B2:C2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="A1" location="业务字典!A1" display="&lt;&lt; 返回"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -5095,156 +5864,162 @@
     <col min="4" max="4" width="31.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="24" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="6" t="s">
         <v>184</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B2" s="18" t="s">
         <v>181</v>
       </c>
-      <c r="C1" s="19"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="5" t="s">
+      <c r="C2" s="18"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C3" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="6" t="s">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="5" t="s">
         <v>185</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B4" s="5" t="s">
         <v>185</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C4" s="5" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="6" t="s">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="5" t="s">
         <v>186</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B5" s="5" t="s">
         <v>186</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C5" s="5" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="6" t="s">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="5" t="s">
         <v>188</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B6" s="5" t="s">
         <v>188</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C6" s="5" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="6"/>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-    </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="6"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="15"/>
+      <c r="A7" s="5"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="6"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
+      <c r="A8" s="5"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="14"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="6"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
+      <c r="A9" s="5"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="6"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
+      <c r="A10" s="5"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="6"/>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
+      <c r="A11" s="5"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="6"/>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
+      <c r="A12" s="5"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="6"/>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
+      <c r="A13" s="5"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="6"/>
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
+      <c r="A14" s="5"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="6"/>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
+      <c r="A15" s="5"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="6"/>
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
+      <c r="A16" s="5"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="6"/>
-      <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
+      <c r="A17" s="5"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="6"/>
-      <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
+      <c r="A18" s="5"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="6"/>
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
+      <c r="A19" s="5"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="6"/>
-      <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
+      <c r="A20" s="5"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="6"/>
-      <c r="B21" s="6"/>
-      <c r="C21" s="6"/>
+      <c r="A21" s="5"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" s="5"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B2:C2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="A1" location="业务字典!A1" display="&lt;&lt; 返回"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -5254,198 +6029,204 @@
     <col min="4" max="4" width="31.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="24" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B2" s="18" t="s">
         <v>150</v>
       </c>
-      <c r="C1" s="19"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="5" t="s">
+      <c r="C2" s="18"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C3" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="6" t="s">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="5" t="s">
         <v>171</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B4" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C4" s="5" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="6" t="s">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="5" t="s">
         <v>172</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B5" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C5" s="5" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="6" t="s">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="5" t="s">
         <v>173</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B6" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C6" s="5" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="6" t="s">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B7" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C7" s="5" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="6" t="s">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="5" t="s">
         <v>175</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B8" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C8" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="D7" s="15"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="6" t="s">
+      <c r="D8" s="14"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B9" s="5" t="s">
         <v>166</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C9" s="5" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="6" t="s">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B10" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C10" s="5" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="6" t="s">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="5" t="s">
         <v>179</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B11" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C11" s="5" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="6" t="s">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="5" t="s">
         <v>178</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B12" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C12" s="5" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="6" t="s">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B13" s="5" t="s">
         <v>170</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C13" s="5" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="6"/>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-    </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="6"/>
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
+      <c r="A14" s="5"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="6"/>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
+      <c r="A15" s="5"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="6"/>
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
+      <c r="A16" s="5"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="6"/>
-      <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
+      <c r="A17" s="5"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="6"/>
-      <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
+      <c r="A18" s="5"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="6"/>
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
+      <c r="A19" s="5"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="6"/>
-      <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
+      <c r="A20" s="5"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="6"/>
-      <c r="B21" s="6"/>
-      <c r="C21" s="6"/>
+      <c r="A21" s="5"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" s="5"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B2:C2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="A1" location="业务字典!A1" display="&lt;&lt; 返回"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D24"/>
+  <dimension ref="A1:D25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -5455,376 +6236,181 @@
     <col min="4" max="4" width="31.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="24" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B2" s="18" t="s">
         <v>131</v>
       </c>
-      <c r="C1" s="19"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="5" t="s">
+      <c r="C2" s="18"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C3" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="6" t="s">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B4" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C4" s="5" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="6" t="s">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B5" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C5" s="5" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="6" t="s">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B6" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C6" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="D5" s="20" t="s">
+      <c r="D6" s="19" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="6" t="s">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B7" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C7" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="D6" s="21"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="6"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
+      <c r="D7" s="20"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="6"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6" t="s">
+      <c r="A8" s="5"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="5"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="6"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-    </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="6"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="15"/>
+      <c r="A10" s="5"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="6"/>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
+      <c r="A11" s="5"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="14"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="6"/>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
+      <c r="A12" s="5"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="6"/>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
+      <c r="A13" s="5"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="6"/>
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
+      <c r="A14" s="5"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="6"/>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
+      <c r="A15" s="5"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="6"/>
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
+      <c r="A16" s="5"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="6"/>
-      <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
+      <c r="A17" s="5"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="6"/>
-      <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
+      <c r="A18" s="5"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="6"/>
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
+      <c r="A19" s="5"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="6"/>
-      <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
+      <c r="A20" s="5"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="6"/>
-      <c r="B21" s="6"/>
-      <c r="C21" s="6"/>
+      <c r="A21" s="5"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" s="6"/>
-      <c r="B22" s="6"/>
-      <c r="C22" s="6"/>
+      <c r="A22" s="5"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" s="6"/>
-      <c r="B23" s="6"/>
-      <c r="C23" s="6"/>
+      <c r="A23" s="5"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" s="6"/>
-      <c r="B24" s="6"/>
-      <c r="C24" s="6"/>
+      <c r="A24" s="5"/>
+      <c r="B24" s="5"/>
+      <c r="C24" s="5"/>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" s="5"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D6:D7"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C26"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="18.5" customWidth="1"/>
-    <col min="2" max="2" width="17.5" customWidth="1"/>
-    <col min="3" max="3" width="24.5" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="16" t="s">
-        <v>232</v>
-      </c>
-      <c r="B1" s="18" t="s">
-        <v>118</v>
-      </c>
-      <c r="C1" s="18"/>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="6" t="s">
-        <v>229</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>229</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="6" t="s">
-        <v>234</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>235</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="6" t="s">
-        <v>233</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>233</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="6"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="6"/>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" s="6"/>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" s="6"/>
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" s="6"/>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" s="6"/>
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="6"/>
-      <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="6"/>
-      <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="6"/>
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="6"/>
-      <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="6"/>
-      <c r="B21" s="6"/>
-      <c r="C21" s="6"/>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" s="6"/>
-      <c r="B22" s="6"/>
-      <c r="C22" s="6"/>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" s="6"/>
-      <c r="B23" s="6"/>
-      <c r="C23" s="6"/>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" s="6"/>
-      <c r="B24" s="6"/>
-      <c r="C24" s="6"/>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25" s="6"/>
-      <c r="B25" s="6"/>
-      <c r="C25" s="6"/>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26" s="6"/>
-      <c r="B26" s="6"/>
-      <c r="C26" s="6"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B1:C1"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="A1" location="业务字典!A1" display="&lt;&lt; 返回"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/tools-core/model/业务字典.xlsx
+++ b/tools-core/model/业务字典.xlsx
@@ -9,56 +9,57 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25560" windowHeight="14740" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25560" windowHeight="14740" tabRatio="500" firstSheet="11" activeTab="19"/>
   </bookViews>
   <sheets>
     <sheet name="业务字典" sheetId="1" r:id="rId1"/>
-    <sheet name="DICT_AC_RESOURCETYPE" sheetId="47" r:id="rId2"/>
-    <sheet name="DICT_AC_CONFIGTYPE" sheetId="46" r:id="rId3"/>
-    <sheet name="DICT_OM_NODETYPE" sheetId="45" r:id="rId4"/>
-    <sheet name="DICT_OM_POSISTATUS" sheetId="44" r:id="rId5"/>
-    <sheet name="DICT_OM_POSITYPE" sheetId="43" r:id="rId6"/>
-    <sheet name="DICT_OM_DUTYTYPE" sheetId="42" r:id="rId7"/>
-    <sheet name="DICT_OM_GROUPSTATUS" sheetId="41" r:id="rId8"/>
-    <sheet name="DICT_OM_GROUPTYPE" sheetId="40" r:id="rId9"/>
-    <sheet name="DICT_OM_EMPDEGREE" sheetId="39" r:id="rId10"/>
-    <sheet name="DICT_OM_EMPSTATUS" sheetId="37" r:id="rId11"/>
-    <sheet name="DICT_SD_PARTY" sheetId="38" r:id="rId12"/>
-    <sheet name="DICT_OM_BUSIDOMAIN" sheetId="36" r:id="rId13"/>
-    <sheet name="DICT_SD_ZIPCODE" sheetId="34" r:id="rId14"/>
-    <sheet name="DICT_SD_AREA" sheetId="35" r:id="rId15"/>
-    <sheet name="DICT_OM_ORGTYPE" sheetId="33" r:id="rId16"/>
-    <sheet name="DICT_OM_ORGDEGREE" sheetId="32" r:id="rId17"/>
-    <sheet name="DICT_OM_ORGSTATUS" sheetId="31" r:id="rId18"/>
-    <sheet name="DICT_AC_MENUTYPE" sheetId="30" r:id="rId19"/>
-    <sheet name="DICT_AC_OPERATOR_STATUS" sheetId="29" r:id="rId20"/>
-    <sheet name="DICT_AC_AUTHMODE" sheetId="28" r:id="rId21"/>
-    <sheet name="DICT_AC_DATAOPTYPE" sheetId="27" r:id="rId22"/>
-    <sheet name="DICT_AC_ENTITYTYPE" sheetId="26" r:id="rId23"/>
-    <sheet name="DICT_AC_AUTHTYP" sheetId="25" r:id="rId24"/>
-    <sheet name="DICT_AC_OPENMODE" sheetId="24" r:id="rId25"/>
-    <sheet name="DICT_AC_FUNCTYPE" sheetId="23" r:id="rId26"/>
-    <sheet name="DICT_AC_APPTYPE" sheetId="22" r:id="rId27"/>
-    <sheet name="DICT_AC_ROLETYPE" sheetId="21" r:id="rId28"/>
-    <sheet name="DICT_OM_PARTYTYPE" sheetId="20" r:id="rId29"/>
-    <sheet name="DICT_YON" sheetId="19" r:id="rId30"/>
-    <sheet name="DICT_PROMOTING_ORIGIN" sheetId="18" r:id="rId31"/>
-    <sheet name="DICT_TRANS_ORIGIN" sheetId="17" r:id="rId32"/>
-    <sheet name="DICT_PROMOTING_FEEDBACK" sheetId="16" r:id="rId33"/>
-    <sheet name="DICT_PROMOTING_BIZ_TYPE" sheetId="15" r:id="rId34"/>
-    <sheet name="DICT_PREFILL_STATUS" sheetId="14" r:id="rId35"/>
-    <sheet name="DICT_QUEUE_BIZ_TYPE" sheetId="13" r:id="rId36"/>
-    <sheet name="DICT_TRANS_PHASE" sheetId="12" r:id="rId37"/>
-    <sheet name="DICT_ACTION_TYPE" sheetId="11" r:id="rId38"/>
-    <sheet name="DICT_BIZ_TYPE" sheetId="3" r:id="rId39"/>
-    <sheet name="DICT_TRANS_STATUS" sheetId="10" r:id="rId40"/>
-    <sheet name="DICT_CONTACT_MODE" sheetId="2" r:id="rId41"/>
-    <sheet name="DICT_SERVICE_STATUS" sheetId="4" r:id="rId42"/>
-    <sheet name="DICT_SERVICE_APPRAISE" sheetId="5" r:id="rId43"/>
-    <sheet name="DICT_SERVICE_TYPE" sheetId="6" r:id="rId44"/>
-    <sheet name="DICT_PAPER_TYPE" sheetId="7" r:id="rId45"/>
-    <sheet name="DICT_HSOTTRANS_STATUS" sheetId="8" r:id="rId46"/>
-    <sheet name="DICT_MSG_TYPE" sheetId="9" r:id="rId47"/>
+    <sheet name="DICT_AC_FUNCRESTYPE" sheetId="48" r:id="rId2"/>
+    <sheet name="DICT_AC_RESOURCETYPE" sheetId="47" r:id="rId3"/>
+    <sheet name="DICT_AC_CONFIGTYPE" sheetId="46" r:id="rId4"/>
+    <sheet name="DICT_OM_NODETYPE" sheetId="45" r:id="rId5"/>
+    <sheet name="DICT_OM_POSISTATUS" sheetId="44" r:id="rId6"/>
+    <sheet name="DICT_OM_POSITYPE" sheetId="43" r:id="rId7"/>
+    <sheet name="DICT_OM_DUTYTYPE" sheetId="42" r:id="rId8"/>
+    <sheet name="DICT_OM_GROUPSTATUS" sheetId="41" r:id="rId9"/>
+    <sheet name="DICT_OM_GROUPTYPE" sheetId="40" r:id="rId10"/>
+    <sheet name="DICT_OM_EMPDEGREE" sheetId="39" r:id="rId11"/>
+    <sheet name="DICT_OM_EMPSTATUS" sheetId="37" r:id="rId12"/>
+    <sheet name="DICT_SD_PARTY" sheetId="38" r:id="rId13"/>
+    <sheet name="DICT_OM_BUSIDOMAIN" sheetId="36" r:id="rId14"/>
+    <sheet name="DICT_SD_ZIPCODE" sheetId="34" r:id="rId15"/>
+    <sheet name="DICT_SD_AREA" sheetId="35" r:id="rId16"/>
+    <sheet name="DICT_OM_ORGTYPE" sheetId="33" r:id="rId17"/>
+    <sheet name="DICT_OM_ORGDEGREE" sheetId="32" r:id="rId18"/>
+    <sheet name="DICT_OM_ORGSTATUS" sheetId="31" r:id="rId19"/>
+    <sheet name="DICT_AC_MENUTYPE" sheetId="30" r:id="rId20"/>
+    <sheet name="DICT_AC_OPERATOR_STATUS" sheetId="29" r:id="rId21"/>
+    <sheet name="DICT_AC_AUTHMODE" sheetId="28" r:id="rId22"/>
+    <sheet name="DICT_AC_DATAOPTYPE" sheetId="27" r:id="rId23"/>
+    <sheet name="DICT_AC_ENTITYTYPE" sheetId="26" r:id="rId24"/>
+    <sheet name="DICT_AC_AUTHTYP" sheetId="25" r:id="rId25"/>
+    <sheet name="DICT_AC_OPENMODE" sheetId="24" r:id="rId26"/>
+    <sheet name="DICT_AC_FUNCTYPE" sheetId="23" r:id="rId27"/>
+    <sheet name="DICT_AC_APPTYPE" sheetId="22" r:id="rId28"/>
+    <sheet name="DICT_AC_ROLETYPE" sheetId="21" r:id="rId29"/>
+    <sheet name="DICT_OM_PARTYTYPE" sheetId="20" r:id="rId30"/>
+    <sheet name="DICT_YON" sheetId="19" r:id="rId31"/>
+    <sheet name="DICT_PROMOTING_ORIGIN" sheetId="18" r:id="rId32"/>
+    <sheet name="DICT_TRANS_ORIGIN" sheetId="17" r:id="rId33"/>
+    <sheet name="DICT_PROMOTING_FEEDBACK" sheetId="16" r:id="rId34"/>
+    <sheet name="DICT_PROMOTING_BIZ_TYPE" sheetId="15" r:id="rId35"/>
+    <sheet name="DICT_PREFILL_STATUS" sheetId="14" r:id="rId36"/>
+    <sheet name="DICT_QUEUE_BIZ_TYPE" sheetId="13" r:id="rId37"/>
+    <sheet name="DICT_TRANS_PHASE" sheetId="12" r:id="rId38"/>
+    <sheet name="DICT_ACTION_TYPE" sheetId="11" r:id="rId39"/>
+    <sheet name="DICT_BIZ_TYPE" sheetId="3" r:id="rId40"/>
+    <sheet name="DICT_TRANS_STATUS" sheetId="10" r:id="rId41"/>
+    <sheet name="DICT_CONTACT_MODE" sheetId="2" r:id="rId42"/>
+    <sheet name="DICT_SERVICE_STATUS" sheetId="4" r:id="rId43"/>
+    <sheet name="DICT_SERVICE_APPRAISE" sheetId="5" r:id="rId44"/>
+    <sheet name="DICT_SERVICE_TYPE" sheetId="6" r:id="rId45"/>
+    <sheet name="DICT_PAPER_TYPE" sheetId="7" r:id="rId46"/>
+    <sheet name="DICT_HSOTTRANS_STATUS" sheetId="8" r:id="rId47"/>
+    <sheet name="DICT_MSG_TYPE" sheetId="9" r:id="rId48"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">业务字典!$A$1:$F$18</definedName>
@@ -113,7 +114,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1161" uniqueCount="694">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1185" uniqueCount="708">
   <si>
     <t>银行业务的类型划分</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -6411,6 +6412,146 @@
     </rPh>
     <rPh sb="18" eb="19">
       <t>quan x</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DICT_AC_FUNCRESTYPE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DICT_AC_FUNCRESTYPE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>功能对应资源类型</t>
+    <rPh sb="0" eb="1">
+      <t>gong n</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>dui ying</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>zi y</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>lei xing</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如：工作流，JSP，表示功能触发后实际执行的资源种类</t>
+    <rPh sb="0" eb="1">
+      <t>ru</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>gong zuo liu</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>biao shi</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>gong n</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>chu fa</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>hou</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>shi ji</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>zhi xing</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>de</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>zi y</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>zhogn lei</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jsp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pageflow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>workflow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jsp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pageflow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>workflow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JSP页面</t>
+    <rPh sb="3" eb="4">
+      <t>ye mian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工作流</t>
+    <rPh sb="0" eb="1">
+      <t>gong zuo liu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>….</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更多资源类型，根据功能对应的代码实现整理扩充</t>
+    <rPh sb="0" eb="1">
+      <t>geng duo</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>zi y</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>lei xing</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>gen j</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>gong n</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>dui ying</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>de</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>dai ma</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>shi xian</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>zhegn li</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>kuo c</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -6618,6 +6759,11 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -6630,11 +6776,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -10315,10 +10456,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G65"/>
+  <dimension ref="A1:G66"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A48" sqref="A48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11077,13 +11218,13 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
-        <v>312</v>
+        <v>694</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>310</v>
+        <v>696</v>
       </c>
       <c r="C39" t="s">
-        <v>311</v>
+        <v>697</v>
       </c>
       <c r="D39" s="17" t="s">
         <v>446</v>
@@ -11097,13 +11238,13 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
-        <v>320</v>
-      </c>
-      <c r="B40" t="s">
-        <v>321</v>
+        <v>312</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>310</v>
       </c>
       <c r="C40" t="s">
-        <v>322</v>
+        <v>311</v>
       </c>
       <c r="D40" s="17" t="s">
         <v>446</v>
@@ -11117,13 +11258,13 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
-        <v>335</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>336</v>
+        <v>320</v>
+      </c>
+      <c r="B41" t="s">
+        <v>321</v>
       </c>
       <c r="C41" t="s">
-        <v>337</v>
+        <v>322</v>
       </c>
       <c r="D41" s="17" t="s">
         <v>446</v>
@@ -11137,19 +11278,19 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
-        <v>354</v>
+        <v>335</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>355</v>
+        <v>336</v>
       </c>
       <c r="C42" t="s">
-        <v>373</v>
+        <v>337</v>
       </c>
       <c r="D42" s="17" t="s">
         <v>446</v>
       </c>
       <c r="E42" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="F42" s="17" t="s">
         <v>250</v>
@@ -11157,19 +11298,19 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
-        <v>374</v>
+        <v>354</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>375</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>376</v>
+        <v>355</v>
+      </c>
+      <c r="C43" t="s">
+        <v>373</v>
       </c>
       <c r="D43" s="17" t="s">
         <v>446</v>
       </c>
       <c r="E43" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="F43" s="17" t="s">
         <v>250</v>
@@ -11177,16 +11318,19 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
-        <v>394</v>
+        <v>374</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>395</v>
+        <v>375</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>376</v>
       </c>
       <c r="D44" s="17" t="s">
         <v>446</v>
       </c>
       <c r="E44" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="F44" s="17" t="s">
         <v>250</v>
@@ -11194,13 +11338,10 @@
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="s">
-        <v>665</v>
+        <v>394</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>663</v>
-      </c>
-      <c r="C45" t="s">
-        <v>664</v>
+        <v>395</v>
       </c>
       <c r="D45" s="17" t="s">
         <v>446</v>
@@ -11214,13 +11355,13 @@
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
-        <v>678</v>
+        <v>665</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>676</v>
+        <v>663</v>
       </c>
       <c r="C46" t="s">
-        <v>677</v>
+        <v>664</v>
       </c>
       <c r="D46" s="17" t="s">
         <v>446</v>
@@ -11234,23 +11375,40 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="s">
-        <v>416</v>
+        <v>678</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>417</v>
+        <v>676</v>
+      </c>
+      <c r="C47" t="s">
+        <v>677</v>
       </c>
       <c r="D47" s="17" t="s">
         <v>446</v>
       </c>
       <c r="E47" t="s">
-        <v>455</v>
+        <v>459</v>
       </c>
       <c r="F47" s="17" t="s">
         <v>250</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="E48"/>
+      <c r="A48" s="3" t="s">
+        <v>416</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="D48" s="17" t="s">
+        <v>446</v>
+      </c>
+      <c r="E48" t="s">
+        <v>455</v>
+      </c>
+      <c r="F48" s="17" t="s">
+        <v>250</v>
+      </c>
     </row>
     <row r="49" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E49"/>
@@ -11302,15 +11460,18 @@
     </row>
     <row r="65" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E65"/>
+    </row>
+    <row r="66" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E66"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:F18"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F47">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F48">
       <formula1>"应用,系统"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D47">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D48">
       <formula1>"平台定义,需求提供,标准数据同步"</formula1>
     </dataValidation>
   </dataValidations>
@@ -11337,13 +11498,13 @@
     <hyperlink ref="A36" location="DICT_AC_ROLETYPE!A1" display="DICT_AC_ROLETYPE"/>
     <hyperlink ref="A37" location="DICT_AC_APPTYPE!A1" display="DICT_AC_APPTYPE"/>
     <hyperlink ref="A38" location="DICT_AC_FUNCTYPE!A1" display="DICT_AC_FUNCTYPE"/>
-    <hyperlink ref="A39" location="DICT_AC_OPENMODE!A1" display="DICT_AC_OPENMODE"/>
-    <hyperlink ref="A40" location="DICT_AC_AUTHTYP!A1" display="DICT_AC_AUTHTYP"/>
-    <hyperlink ref="A41" location="DICT_AC_ENTITYTYPE!A1" display="DICT_AC_ENTITYTYPE"/>
-    <hyperlink ref="A42" location="DICT_AC_DATAOPTYPE!A1" display="DICT_AC_DATAOPTYPE"/>
-    <hyperlink ref="A43" location="DICT_AC_AUTHMODE!A1" display="DICT_AC_AUTHMODE"/>
-    <hyperlink ref="A44" location="DICT_AC_OPERATOR_STATUS!A1" display="DICT_AC_OPERATOR_STATUS"/>
-    <hyperlink ref="A47" location="DICT_AC_MENUTYPE!A1" display="DICT_AC_MENUTYPE"/>
+    <hyperlink ref="A40" location="DICT_AC_OPENMODE!A1" display="DICT_AC_OPENMODE"/>
+    <hyperlink ref="A41" location="DICT_AC_AUTHTYP!A1" display="DICT_AC_AUTHTYP"/>
+    <hyperlink ref="A42" location="DICT_AC_ENTITYTYPE!A1" display="DICT_AC_ENTITYTYPE"/>
+    <hyperlink ref="A43" location="DICT_AC_DATAOPTYPE!A1" display="DICT_AC_DATAOPTYPE"/>
+    <hyperlink ref="A44" location="DICT_AC_AUTHMODE!A1" display="DICT_AC_AUTHMODE"/>
+    <hyperlink ref="A45" location="DICT_AC_OPERATOR_STATUS!A1" display="DICT_AC_OPERATOR_STATUS"/>
+    <hyperlink ref="A48" location="DICT_AC_MENUTYPE!A1" display="DICT_AC_MENUTYPE"/>
     <hyperlink ref="A21" location="DICT_OM_ORGSTATUS!A1" display="DICT_OM_ORGSTATUS"/>
     <hyperlink ref="A23" location="DICT_OM_ORGDEGREE!A1" display="DICT_OM_ORGDEGREE"/>
     <hyperlink ref="A24" location="DICT_OM_ORGTYPE!A1" display="DICT_OM_ORGTYPE"/>
@@ -11358,8 +11519,9 @@
     <hyperlink ref="A34" location="DICT_OM_POSITYPE!A1" display="DICT_OM_POSITYPE"/>
     <hyperlink ref="A33" location="DICT_OM_DUTYTYPE!A1" display="DICT_OM_DUTYTYPE"/>
     <hyperlink ref="A35" location="DICT_OM_POSISTATUS!A1" display="DICT_OM_POSISTATUS"/>
-    <hyperlink ref="A45" location="DICT_AC_CONFIGTYPE!A1" display="DICT_AC_CONFIGTYPE"/>
-    <hyperlink ref="A46" location="DICT_AC_RESOURCETYPE!A1" display="DICT_AC_RESOURCETYPE"/>
+    <hyperlink ref="A46" location="DICT_AC_CONFIGTYPE!A1" display="DICT_AC_CONFIGTYPE"/>
+    <hyperlink ref="A47" location="DICT_AC_RESOURCETYPE!A1" display="DICT_AC_RESOURCETYPE"/>
+    <hyperlink ref="A39" location="DICT_AC_FUNCRESTYPE!A1" display="DICT_AC_FUNCRESTYPE"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -11387,14 +11549,14 @@
     </row>
     <row r="2" spans="1:4" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
-        <v>562</v>
-      </c>
-      <c r="B2" s="24" t="s">
-        <v>561</v>
-      </c>
-      <c r="C2" s="24"/>
-      <c r="D2" s="28" t="s">
-        <v>596</v>
+        <v>601</v>
+      </c>
+      <c r="B2" s="27" t="s">
+        <v>599</v>
+      </c>
+      <c r="C2" s="27"/>
+      <c r="D2" s="24" t="s">
+        <v>600</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -11412,193 +11574,121 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="29" t="s">
-        <v>565</v>
-      </c>
-      <c r="B4" s="29" t="s">
-        <v>565</v>
-      </c>
-      <c r="C4" s="29" t="s">
-        <v>566</v>
-      </c>
-      <c r="D4" s="29"/>
+      <c r="A4" s="25" t="s">
+        <v>604</v>
+      </c>
+      <c r="B4" s="25" t="s">
+        <v>605</v>
+      </c>
+      <c r="C4" s="25" t="s">
+        <v>606</v>
+      </c>
+      <c r="D4" s="25" t="s">
+        <v>611</v>
+      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="29" t="s">
-        <v>582</v>
-      </c>
-      <c r="B5" s="29" t="s">
-        <v>582</v>
-      </c>
-      <c r="C5" s="29" t="s">
-        <v>567</v>
-      </c>
-      <c r="D5" s="29"/>
+      <c r="A5" s="25" t="s">
+        <v>602</v>
+      </c>
+      <c r="B5" s="25" t="s">
+        <v>602</v>
+      </c>
+      <c r="C5" s="25" t="s">
+        <v>607</v>
+      </c>
+      <c r="D5" s="25" t="s">
+        <v>609</v>
+      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="29" t="s">
-        <v>583</v>
-      </c>
-      <c r="B6" s="29" t="s">
-        <v>583</v>
-      </c>
-      <c r="C6" s="29" t="s">
-        <v>568</v>
-      </c>
-      <c r="D6" s="29"/>
+      <c r="A6" s="25" t="s">
+        <v>603</v>
+      </c>
+      <c r="B6" s="25" t="s">
+        <v>603</v>
+      </c>
+      <c r="C6" s="25" t="s">
+        <v>608</v>
+      </c>
+      <c r="D6" s="25" t="s">
+        <v>610</v>
+      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="29" t="s">
-        <v>584</v>
-      </c>
-      <c r="B7" s="29" t="s">
-        <v>584</v>
-      </c>
-      <c r="C7" s="29" t="s">
-        <v>569</v>
-      </c>
-      <c r="D7" s="29"/>
+      <c r="A7" s="25"/>
+      <c r="B7" s="25"/>
+      <c r="C7" s="25"/>
+      <c r="D7" s="25"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="29" t="s">
-        <v>585</v>
-      </c>
-      <c r="B8" s="29" t="s">
-        <v>585</v>
-      </c>
-      <c r="C8" s="29" t="s">
-        <v>570</v>
-      </c>
-      <c r="D8" s="29"/>
+      <c r="A8" s="25"/>
+      <c r="B8" s="25"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="25"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="29" t="s">
-        <v>586</v>
-      </c>
-      <c r="B9" s="29" t="s">
-        <v>586</v>
-      </c>
-      <c r="C9" s="29" t="s">
-        <v>571</v>
-      </c>
-      <c r="D9" s="29"/>
+      <c r="A9" s="25"/>
+      <c r="B9" s="25"/>
+      <c r="C9" s="25"/>
+      <c r="D9" s="25"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="29" t="s">
-        <v>587</v>
-      </c>
-      <c r="B10" s="29" t="s">
-        <v>587</v>
-      </c>
-      <c r="C10" s="29" t="s">
-        <v>572</v>
-      </c>
+      <c r="A10" s="25"/>
+      <c r="B10" s="25"/>
+      <c r="C10" s="25"/>
       <c r="D10" s="11"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="29" t="s">
-        <v>588</v>
-      </c>
-      <c r="B11" s="29" t="s">
-        <v>588</v>
-      </c>
-      <c r="C11" s="29" t="s">
-        <v>573</v>
-      </c>
+      <c r="A11" s="25"/>
+      <c r="B11" s="25"/>
+      <c r="C11" s="25"/>
       <c r="D11" s="14"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="29" t="s">
-        <v>589</v>
-      </c>
-      <c r="B12" s="29" t="s">
-        <v>589</v>
-      </c>
-      <c r="C12" s="29" t="s">
-        <v>574</v>
-      </c>
+      <c r="A12" s="25"/>
+      <c r="B12" s="25"/>
+      <c r="C12" s="25"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="29" t="s">
-        <v>590</v>
-      </c>
-      <c r="B13" s="29" t="s">
-        <v>590</v>
-      </c>
-      <c r="C13" s="29" t="s">
-        <v>575</v>
-      </c>
+      <c r="A13" s="25"/>
+      <c r="B13" s="25"/>
+      <c r="C13" s="25"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="29" t="s">
-        <v>564</v>
-      </c>
-      <c r="B14" s="29" t="s">
-        <v>564</v>
-      </c>
-      <c r="C14" s="29" t="s">
-        <v>576</v>
-      </c>
+      <c r="A14" s="25"/>
+      <c r="B14" s="25"/>
+      <c r="C14" s="25"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="29" t="s">
-        <v>591</v>
-      </c>
-      <c r="B15" s="29" t="s">
-        <v>591</v>
-      </c>
-      <c r="C15" s="29" t="s">
-        <v>577</v>
-      </c>
+      <c r="A15" s="25"/>
+      <c r="B15" s="25"/>
+      <c r="C15" s="25"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="29" t="s">
-        <v>592</v>
-      </c>
-      <c r="B16" s="29" t="s">
-        <v>592</v>
-      </c>
-      <c r="C16" s="29" t="s">
-        <v>578</v>
-      </c>
+      <c r="A16" s="25"/>
+      <c r="B16" s="25"/>
+      <c r="C16" s="25"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="29" t="s">
-        <v>593</v>
-      </c>
-      <c r="B17" s="29" t="s">
-        <v>593</v>
-      </c>
-      <c r="C17" s="29" t="s">
-        <v>579</v>
-      </c>
+      <c r="A17" s="25"/>
+      <c r="B17" s="25"/>
+      <c r="C17" s="25"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="29" t="s">
-        <v>594</v>
-      </c>
-      <c r="B18" s="29" t="s">
-        <v>594</v>
-      </c>
-      <c r="C18" s="29" t="s">
-        <v>580</v>
-      </c>
+      <c r="A18" s="25"/>
+      <c r="B18" s="25"/>
+      <c r="C18" s="25"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="29" t="s">
-        <v>595</v>
-      </c>
-      <c r="B19" s="29" t="s">
-        <v>595</v>
-      </c>
-      <c r="C19" s="29" t="s">
-        <v>581</v>
-      </c>
+      <c r="A19" s="25"/>
+      <c r="B19" s="25"/>
+      <c r="C19" s="25"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="29"/>
-      <c r="B20" s="29"/>
-      <c r="C20" s="29"/>
+      <c r="A20" s="25"/>
+      <c r="B20" s="25"/>
+      <c r="C20" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -11614,7 +11704,7 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView zoomScale="125" workbookViewId="0"/>
   </sheetViews>
@@ -11633,14 +11723,14 @@
     </row>
     <row r="2" spans="1:4" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
-        <v>532</v>
-      </c>
-      <c r="B2" s="24" t="s">
-        <v>534</v>
-      </c>
-      <c r="C2" s="24"/>
-      <c r="D2" s="28" t="s">
-        <v>535</v>
+        <v>562</v>
+      </c>
+      <c r="B2" s="27" t="s">
+        <v>561</v>
+      </c>
+      <c r="C2" s="27"/>
+      <c r="D2" s="24" t="s">
+        <v>596</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -11658,110 +11748,193 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="5" t="s">
-        <v>538</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>538</v>
-      </c>
-      <c r="C4" s="29" t="s">
-        <v>544</v>
-      </c>
-      <c r="D4" s="29" t="s">
-        <v>541</v>
-      </c>
+      <c r="A4" s="25" t="s">
+        <v>565</v>
+      </c>
+      <c r="B4" s="25" t="s">
+        <v>565</v>
+      </c>
+      <c r="C4" s="25" t="s">
+        <v>566</v>
+      </c>
+      <c r="D4" s="25"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="5" t="s">
-        <v>536</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>536</v>
-      </c>
-      <c r="C5" s="29" t="s">
-        <v>539</v>
-      </c>
-      <c r="D5" s="29" t="s">
-        <v>542</v>
-      </c>
+      <c r="A5" s="25" t="s">
+        <v>582</v>
+      </c>
+      <c r="B5" s="25" t="s">
+        <v>582</v>
+      </c>
+      <c r="C5" s="25" t="s">
+        <v>567</v>
+      </c>
+      <c r="D5" s="25"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="5" t="s">
-        <v>537</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>537</v>
-      </c>
-      <c r="C6" s="29" t="s">
-        <v>540</v>
-      </c>
-      <c r="D6" s="29" t="s">
-        <v>543</v>
-      </c>
+      <c r="A6" s="25" t="s">
+        <v>583</v>
+      </c>
+      <c r="B6" s="25" t="s">
+        <v>583</v>
+      </c>
+      <c r="C6" s="25" t="s">
+        <v>568</v>
+      </c>
+      <c r="D6" s="25"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="5"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="29"/>
-      <c r="D7" s="29"/>
+      <c r="A7" s="25" t="s">
+        <v>584</v>
+      </c>
+      <c r="B7" s="25" t="s">
+        <v>584</v>
+      </c>
+      <c r="C7" s="25" t="s">
+        <v>569</v>
+      </c>
+      <c r="D7" s="25"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="5"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="29"/>
-      <c r="D8" s="29"/>
+      <c r="A8" s="25" t="s">
+        <v>585</v>
+      </c>
+      <c r="B8" s="25" t="s">
+        <v>585</v>
+      </c>
+      <c r="C8" s="25" t="s">
+        <v>570</v>
+      </c>
+      <c r="D8" s="25"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="5"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="11"/>
+      <c r="A9" s="25" t="s">
+        <v>586</v>
+      </c>
+      <c r="B9" s="25" t="s">
+        <v>586</v>
+      </c>
+      <c r="C9" s="25" t="s">
+        <v>571</v>
+      </c>
+      <c r="D9" s="25"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="5"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="14"/>
+      <c r="A10" s="25" t="s">
+        <v>587</v>
+      </c>
+      <c r="B10" s="25" t="s">
+        <v>587</v>
+      </c>
+      <c r="C10" s="25" t="s">
+        <v>572</v>
+      </c>
+      <c r="D10" s="11"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="5"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
+      <c r="A11" s="25" t="s">
+        <v>588</v>
+      </c>
+      <c r="B11" s="25" t="s">
+        <v>588</v>
+      </c>
+      <c r="C11" s="25" t="s">
+        <v>573</v>
+      </c>
+      <c r="D11" s="14"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="5"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
+      <c r="A12" s="25" t="s">
+        <v>589</v>
+      </c>
+      <c r="B12" s="25" t="s">
+        <v>589</v>
+      </c>
+      <c r="C12" s="25" t="s">
+        <v>574</v>
+      </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="5"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
+      <c r="A13" s="25" t="s">
+        <v>590</v>
+      </c>
+      <c r="B13" s="25" t="s">
+        <v>590</v>
+      </c>
+      <c r="C13" s="25" t="s">
+        <v>575</v>
+      </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="5"/>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
+      <c r="A14" s="25" t="s">
+        <v>564</v>
+      </c>
+      <c r="B14" s="25" t="s">
+        <v>564</v>
+      </c>
+      <c r="C14" s="25" t="s">
+        <v>576</v>
+      </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="5"/>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
+      <c r="A15" s="25" t="s">
+        <v>591</v>
+      </c>
+      <c r="B15" s="25" t="s">
+        <v>591</v>
+      </c>
+      <c r="C15" s="25" t="s">
+        <v>577</v>
+      </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="5"/>
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
+      <c r="A16" s="25" t="s">
+        <v>592</v>
+      </c>
+      <c r="B16" s="25" t="s">
+        <v>592</v>
+      </c>
+      <c r="C16" s="25" t="s">
+        <v>578</v>
+      </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="5"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
+      <c r="A17" s="25" t="s">
+        <v>593</v>
+      </c>
+      <c r="B17" s="25" t="s">
+        <v>593</v>
+      </c>
+      <c r="C17" s="25" t="s">
+        <v>579</v>
+      </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="5"/>
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
+      <c r="A18" s="25" t="s">
+        <v>594</v>
+      </c>
+      <c r="B18" s="25" t="s">
+        <v>594</v>
+      </c>
+      <c r="C18" s="25" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" s="25" t="s">
+        <v>595</v>
+      </c>
+      <c r="B19" s="25" t="s">
+        <v>595</v>
+      </c>
+      <c r="C19" s="25" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" s="25"/>
+      <c r="B20" s="25"/>
+      <c r="C20" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -11772,7 +11945,6 @@
     <hyperlink ref="A1" location="业务字典!A1" display="&lt;&lt; 返回"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -11797,13 +11969,15 @@
     </row>
     <row r="2" spans="1:4" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
-        <v>550</v>
-      </c>
-      <c r="B2" s="24" t="s">
-        <v>548</v>
-      </c>
-      <c r="C2" s="24"/>
-      <c r="D2" s="28"/>
+        <v>532</v>
+      </c>
+      <c r="B2" s="27" t="s">
+        <v>534</v>
+      </c>
+      <c r="C2" s="27"/>
+      <c r="D2" s="24" t="s">
+        <v>535</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
@@ -11821,53 +11995,57 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
-        <v>555</v>
+        <v>538</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>555</v>
-      </c>
-      <c r="C4" s="29" t="s">
-        <v>551</v>
-      </c>
-      <c r="D4" s="29"/>
+        <v>538</v>
+      </c>
+      <c r="C4" s="25" t="s">
+        <v>544</v>
+      </c>
+      <c r="D4" s="25" t="s">
+        <v>541</v>
+      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
-        <v>556</v>
+        <v>536</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>556</v>
-      </c>
-      <c r="C5" s="29" t="s">
-        <v>552</v>
-      </c>
-      <c r="D5" s="29"/>
+        <v>536</v>
+      </c>
+      <c r="C5" s="25" t="s">
+        <v>539</v>
+      </c>
+      <c r="D5" s="25" t="s">
+        <v>542</v>
+      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
-        <v>558</v>
+        <v>537</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>558</v>
-      </c>
-      <c r="C6" s="29" t="s">
-        <v>553</v>
-      </c>
-      <c r="D6" s="29"/>
+        <v>537</v>
+      </c>
+      <c r="C6" s="25" t="s">
+        <v>540</v>
+      </c>
+      <c r="D6" s="25" t="s">
+        <v>543</v>
+      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="5"/>
       <c r="B7" s="5"/>
-      <c r="C7" s="29" t="s">
-        <v>554</v>
-      </c>
-      <c r="D7" s="29"/>
+      <c r="C7" s="25"/>
+      <c r="D7" s="25"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="5"/>
       <c r="B8" s="5"/>
-      <c r="C8" s="29"/>
-      <c r="D8" s="29"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="25"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="5"/>
@@ -11930,6 +12108,7 @@
     <hyperlink ref="A1" location="业务字典!A1" display="&lt;&lt; 返回"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -11954,15 +12133,13 @@
     </row>
     <row r="2" spans="1:4" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
-        <v>517</v>
-      </c>
-      <c r="B2" s="24" t="s">
-        <v>516</v>
-      </c>
-      <c r="C2" s="24"/>
-      <c r="D2" s="28" t="s">
-        <v>518</v>
-      </c>
+        <v>550</v>
+      </c>
+      <c r="B2" s="27" t="s">
+        <v>548</v>
+      </c>
+      <c r="C2" s="27"/>
+      <c r="D2" s="24"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
@@ -11980,68 +12157,56 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
-        <v>519</v>
+        <v>555</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>519</v>
-      </c>
-      <c r="C4" s="29" t="s">
-        <v>520</v>
-      </c>
-      <c r="D4" s="29"/>
+        <v>555</v>
+      </c>
+      <c r="C4" s="25" t="s">
+        <v>551</v>
+      </c>
+      <c r="D4" s="25"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
-        <v>521</v>
+        <v>556</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>521</v>
-      </c>
-      <c r="C5" s="29" t="s">
-        <v>523</v>
-      </c>
-      <c r="D5" s="29"/>
+        <v>556</v>
+      </c>
+      <c r="C5" s="25" t="s">
+        <v>552</v>
+      </c>
+      <c r="D5" s="25"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
-        <v>522</v>
+        <v>558</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>522</v>
-      </c>
-      <c r="C6" s="29" t="s">
-        <v>524</v>
-      </c>
-      <c r="D6" s="29"/>
+        <v>558</v>
+      </c>
+      <c r="C6" s="25" t="s">
+        <v>553</v>
+      </c>
+      <c r="D6" s="25"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="5" t="s">
-        <v>526</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>527</v>
-      </c>
-      <c r="C7" s="29" t="s">
-        <v>525</v>
-      </c>
-      <c r="D7" s="29"/>
+      <c r="A7" s="5"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="25" t="s">
+        <v>554</v>
+      </c>
+      <c r="D7" s="25"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="5" t="s">
-        <v>529</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>529</v>
-      </c>
-      <c r="C8" s="29" t="s">
-        <v>528</v>
-      </c>
-      <c r="D8" s="29"/>
+      <c r="A8" s="5"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="25"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="5" t="s">
-        <v>530</v>
-      </c>
+      <c r="A9" s="5"/>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
       <c r="D9" s="11"/>
@@ -12125,14 +12290,14 @@
     </row>
     <row r="2" spans="1:4" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
-        <v>494</v>
-      </c>
-      <c r="B2" s="24" t="s">
-        <v>496</v>
-      </c>
-      <c r="C2" s="24"/>
-      <c r="D2" s="28" t="s">
-        <v>505</v>
+        <v>517</v>
+      </c>
+      <c r="B2" s="27" t="s">
+        <v>516</v>
+      </c>
+      <c r="C2" s="27"/>
+      <c r="D2" s="24" t="s">
+        <v>518</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -12150,68 +12315,68 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="5">
-        <v>100036</v>
-      </c>
-      <c r="B4" s="5">
-        <v>100036</v>
-      </c>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29" t="s">
-        <v>506</v>
-      </c>
+      <c r="A4" s="5" t="s">
+        <v>519</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>519</v>
+      </c>
+      <c r="C4" s="25" t="s">
+        <v>520</v>
+      </c>
+      <c r="D4" s="25"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="5">
-        <v>100040</v>
-      </c>
-      <c r="B5" s="5">
-        <v>100040</v>
-      </c>
-      <c r="C5" s="29"/>
-      <c r="D5" s="29" t="s">
-        <v>507</v>
-      </c>
+      <c r="A5" s="5" t="s">
+        <v>521</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>521</v>
+      </c>
+      <c r="C5" s="25" t="s">
+        <v>523</v>
+      </c>
+      <c r="D5" s="25"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="5">
-        <v>100041</v>
-      </c>
-      <c r="B6" s="5">
-        <v>100041</v>
-      </c>
-      <c r="C6" s="29"/>
-      <c r="D6" s="29" t="s">
-        <v>508</v>
-      </c>
+      <c r="A6" s="5" t="s">
+        <v>522</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>522</v>
+      </c>
+      <c r="C6" s="25" t="s">
+        <v>524</v>
+      </c>
+      <c r="D6" s="25"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="5">
-        <v>100043</v>
-      </c>
-      <c r="B7" s="5">
-        <v>100043</v>
-      </c>
-      <c r="C7" s="29"/>
-      <c r="D7" s="29" t="s">
-        <v>509</v>
-      </c>
+      <c r="A7" s="5" t="s">
+        <v>526</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>527</v>
+      </c>
+      <c r="C7" s="25" t="s">
+        <v>525</v>
+      </c>
+      <c r="D7" s="25"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="5">
-        <v>100049</v>
-      </c>
-      <c r="B8" s="5">
-        <v>100049</v>
-      </c>
-      <c r="C8" s="29"/>
-      <c r="D8" s="29" t="s">
-        <v>510</v>
-      </c>
+      <c r="A8" s="5" t="s">
+        <v>529</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>529</v>
+      </c>
+      <c r="C8" s="25" t="s">
+        <v>528</v>
+      </c>
+      <c r="D8" s="25"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
-        <v>511</v>
+        <v>530</v>
       </c>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
@@ -12276,6 +12441,177 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D18"/>
+  <sheetViews>
+    <sheetView zoomScale="125" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.83203125" customWidth="1"/>
+    <col min="4" max="4" width="67" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="18" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="15" t="s">
+        <v>494</v>
+      </c>
+      <c r="B2" s="27" t="s">
+        <v>496</v>
+      </c>
+      <c r="C2" s="27"/>
+      <c r="D2" s="24" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>353</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="5">
+        <v>100036</v>
+      </c>
+      <c r="B4" s="5">
+        <v>100036</v>
+      </c>
+      <c r="C4" s="25"/>
+      <c r="D4" s="25" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="5">
+        <v>100040</v>
+      </c>
+      <c r="B5" s="5">
+        <v>100040</v>
+      </c>
+      <c r="C5" s="25"/>
+      <c r="D5" s="25" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="5">
+        <v>100041</v>
+      </c>
+      <c r="B6" s="5">
+        <v>100041</v>
+      </c>
+      <c r="C6" s="25"/>
+      <c r="D6" s="25" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="5">
+        <v>100043</v>
+      </c>
+      <c r="B7" s="5">
+        <v>100043</v>
+      </c>
+      <c r="C7" s="25"/>
+      <c r="D7" s="25" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="5">
+        <v>100049</v>
+      </c>
+      <c r="B8" s="5">
+        <v>100049</v>
+      </c>
+      <c r="C8" s="25"/>
+      <c r="D8" s="25" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="5" t="s">
+        <v>511</v>
+      </c>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="11"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="5"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="14"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="5"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="5"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="5"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="5"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="5"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="5"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="5"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" s="5"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B2:C2"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="A1" location="业务字典!A1" display="&lt;&lt; 返回"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D24"/>
   <sheetViews>
@@ -12300,11 +12636,11 @@
       <c r="A2" s="15" t="s">
         <v>498</v>
       </c>
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="27" t="s">
         <v>497</v>
       </c>
-      <c r="C2" s="24"/>
-      <c r="D2" s="28" t="s">
+      <c r="C2" s="27"/>
+      <c r="D2" s="24" t="s">
         <v>505</v>
       </c>
     </row>
@@ -12358,199 +12694,6 @@
       <c r="A7" s="5"/>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="5"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="5"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="11"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="5"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="14"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="5"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="5"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="5"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="5"/>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="5"/>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="5"/>
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="5"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="5"/>
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="5"/>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="5"/>
-      <c r="B20" s="5"/>
-      <c r="C20" s="5"/>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="5"/>
-      <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" s="5"/>
-      <c r="B22" s="5"/>
-      <c r="C22" s="5"/>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" s="5"/>
-      <c r="B23" s="5"/>
-      <c r="C23" s="5"/>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" s="5"/>
-      <c r="B24" s="5"/>
-      <c r="C24" s="5"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B2:C2"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="A1" location="业务字典!A1" display="&lt;&lt; 返回"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D24"/>
-  <sheetViews>
-    <sheetView zoomScale="125" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="21.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.83203125" customWidth="1"/>
-    <col min="4" max="4" width="39.33203125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="18" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="15" t="s">
-        <v>476</v>
-      </c>
-      <c r="B2" s="24" t="s">
-        <v>480</v>
-      </c>
-      <c r="C2" s="24"/>
-      <c r="D2" s="28" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>353</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="5" t="s">
-        <v>483</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>483</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>481</v>
-      </c>
-      <c r="D4" s="5"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="5" t="s">
-        <v>484</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>484</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>482</v>
-      </c>
-      <c r="D5" s="5"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="5" t="s">
-        <v>485</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>485</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>487</v>
-      </c>
-      <c r="D6" s="5"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="5" t="s">
-        <v>486</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>486</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>488</v>
-      </c>
       <c r="D7" s="5"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -12674,12 +12817,15 @@
     </row>
     <row r="2" spans="1:4" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
-        <v>462</v>
-      </c>
-      <c r="B2" s="24" t="s">
-        <v>461</v>
-      </c>
-      <c r="C2" s="24"/>
+        <v>476</v>
+      </c>
+      <c r="B2" s="27" t="s">
+        <v>480</v>
+      </c>
+      <c r="C2" s="27"/>
+      <c r="D2" s="24" t="s">
+        <v>489</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
@@ -12697,49 +12843,49 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
-        <v>472</v>
+        <v>483</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>464</v>
+        <v>483</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>467</v>
+        <v>481</v>
       </c>
       <c r="D4" s="5"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
-        <v>473</v>
+        <v>484</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>465</v>
+        <v>484</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>468</v>
+        <v>482</v>
       </c>
       <c r="D5" s="5"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
-        <v>474</v>
+        <v>485</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>466</v>
+        <v>485</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>469</v>
+        <v>487</v>
       </c>
       <c r="D6" s="5"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
-        <v>475</v>
+        <v>486</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>471</v>
+        <v>486</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>470</v>
+        <v>488</v>
       </c>
       <c r="D7" s="5"/>
     </row>
@@ -12864,12 +13010,202 @@
     </row>
     <row r="2" spans="1:4" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
+        <v>462</v>
+      </c>
+      <c r="B2" s="27" t="s">
+        <v>461</v>
+      </c>
+      <c r="C2" s="27"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>353</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="5" t="s">
+        <v>472</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>464</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>467</v>
+      </c>
+      <c r="D4" s="5"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="5" t="s">
+        <v>473</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>465</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>468</v>
+      </c>
+      <c r="D5" s="5"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="5" t="s">
+        <v>474</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>466</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>469</v>
+      </c>
+      <c r="D6" s="5"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="5" t="s">
+        <v>475</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>471</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>470</v>
+      </c>
+      <c r="D7" s="5"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="5"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="5"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="11"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="5"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="14"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="5"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="5"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="5"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="5"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="5"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="5"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="5"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" s="5"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" s="5"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" s="5"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" s="5"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" s="5"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" s="5"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" s="5"/>
+      <c r="B24" s="5"/>
+      <c r="C24" s="5"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B2:C2"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="A1" location="业务字典!A1" display="&lt;&lt; 返回"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D24"/>
+  <sheetViews>
+    <sheetView zoomScale="125" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.83203125" customWidth="1"/>
+    <col min="4" max="4" width="39.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="18" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="15" t="s">
         <v>428</v>
       </c>
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="27" t="s">
         <v>439</v>
       </c>
-      <c r="C2" s="24"/>
+      <c r="C2" s="27"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
@@ -13034,197 +13370,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D24"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="21.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.83203125" customWidth="1"/>
-    <col min="4" max="4" width="39.33203125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="18" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="15" t="s">
-        <v>417</v>
-      </c>
-      <c r="B2" s="24" t="s">
-        <v>418</v>
-      </c>
-      <c r="C2" s="24"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>353</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="5" t="s">
-        <v>419</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>422</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>425</v>
-      </c>
-      <c r="D4" s="5"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="5" t="s">
-        <v>420</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>423</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>426</v>
-      </c>
-      <c r="D5" s="5"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="5" t="s">
-        <v>421</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>424</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>427</v>
-      </c>
-      <c r="D6" s="5"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="5"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="5"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="5"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="11"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="5"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="14"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="5"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="5"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="5"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="5"/>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="5"/>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="5"/>
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="5"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="5"/>
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="5"/>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="5"/>
-      <c r="B20" s="5"/>
-      <c r="C20" s="5"/>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="5"/>
-      <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" s="5"/>
-      <c r="B22" s="5"/>
-      <c r="C22" s="5"/>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" s="5"/>
-      <c r="B23" s="5"/>
-      <c r="C23" s="5"/>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" s="5"/>
-      <c r="B24" s="5"/>
-      <c r="C24" s="5"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B2:C2"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="A1" location="业务字典!A1" display="&lt;&lt; 返回"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView zoomScale="125" workbookViewId="0"/>
+    <sheetView zoomScale="125" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -13241,13 +13393,15 @@
     </row>
     <row r="2" spans="1:4" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
-        <v>676</v>
-      </c>
-      <c r="B2" s="24" t="s">
-        <v>679</v>
-      </c>
-      <c r="C2" s="24"/>
-      <c r="D2" s="28"/>
+        <v>696</v>
+      </c>
+      <c r="B2" s="27" t="s">
+        <v>695</v>
+      </c>
+      <c r="C2" s="27"/>
+      <c r="D2" s="24" t="s">
+        <v>707</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
@@ -13264,145 +13418,117 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="30" t="s">
-        <v>684</v>
-      </c>
-      <c r="B4" s="30" t="s">
-        <v>684</v>
-      </c>
-      <c r="C4" s="29" t="s">
-        <v>686</v>
-      </c>
-      <c r="D4" s="29" t="s">
-        <v>688</v>
-      </c>
+      <c r="A4" s="26" t="s">
+        <v>698</v>
+      </c>
+      <c r="B4" s="26" t="s">
+        <v>701</v>
+      </c>
+      <c r="C4" s="25" t="s">
+        <v>704</v>
+      </c>
+      <c r="D4" s="25"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="29" t="s">
-        <v>680</v>
-      </c>
-      <c r="B5" s="29" t="s">
-        <v>680</v>
-      </c>
-      <c r="C5" s="29" t="s">
-        <v>687</v>
-      </c>
-      <c r="D5" s="29" t="s">
-        <v>691</v>
-      </c>
+      <c r="A5" s="25" t="s">
+        <v>699</v>
+      </c>
+      <c r="B5" s="25" t="s">
+        <v>702</v>
+      </c>
+      <c r="C5" s="25" t="s">
+        <v>299</v>
+      </c>
+      <c r="D5" s="25"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="30" t="s">
-        <v>682</v>
-      </c>
-      <c r="B6" s="30" t="s">
-        <v>682</v>
-      </c>
-      <c r="C6" s="29" t="s">
-        <v>269</v>
-      </c>
-      <c r="D6" s="29" t="s">
-        <v>690</v>
-      </c>
+      <c r="A6" s="26" t="s">
+        <v>700</v>
+      </c>
+      <c r="B6" s="26" t="s">
+        <v>703</v>
+      </c>
+      <c r="C6" s="25" t="s">
+        <v>705</v>
+      </c>
+      <c r="D6" s="25"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="30" t="s">
-        <v>685</v>
-      </c>
-      <c r="B7" s="30" t="s">
-        <v>685</v>
-      </c>
-      <c r="C7" s="29" t="s">
-        <v>270</v>
-      </c>
-      <c r="D7" s="29" t="s">
-        <v>689</v>
-      </c>
+      <c r="A7" s="26" t="s">
+        <v>706</v>
+      </c>
+      <c r="B7" s="26"/>
+      <c r="C7" s="25"/>
+      <c r="D7" s="25"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="30" t="s">
-        <v>683</v>
-      </c>
-      <c r="B8" s="30" t="s">
-        <v>683</v>
-      </c>
-      <c r="C8" s="29" t="s">
-        <v>268</v>
-      </c>
-      <c r="D8" s="29" t="s">
-        <v>692</v>
-      </c>
+      <c r="A8" s="26"/>
+      <c r="B8" s="26"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="25"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="29" t="s">
-        <v>681</v>
-      </c>
-      <c r="B9" s="29" t="s">
-        <v>681</v>
-      </c>
-      <c r="C9" s="29" t="s">
-        <v>267</v>
-      </c>
-      <c r="D9" s="29" t="s">
-        <v>693</v>
-      </c>
+      <c r="A9" s="25"/>
+      <c r="B9" s="25"/>
+      <c r="C9" s="25"/>
+      <c r="D9" s="25"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="30"/>
-      <c r="B10" s="30"/>
-      <c r="C10" s="29"/>
+      <c r="A10" s="26"/>
+      <c r="B10" s="26"/>
+      <c r="C10" s="25"/>
       <c r="D10" s="11"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="30"/>
-      <c r="B11" s="30"/>
-      <c r="C11" s="29"/>
+      <c r="A11" s="26"/>
+      <c r="B11" s="26"/>
+      <c r="C11" s="25"/>
       <c r="D11" s="14"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="30"/>
-      <c r="B12" s="30"/>
-      <c r="C12" s="29"/>
+      <c r="A12" s="26"/>
+      <c r="B12" s="26"/>
+      <c r="C12" s="25"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="30"/>
-      <c r="B13" s="30"/>
-      <c r="C13" s="29"/>
+      <c r="A13" s="26"/>
+      <c r="B13" s="26"/>
+      <c r="C13" s="25"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="30"/>
-      <c r="B14" s="30"/>
-      <c r="C14" s="29"/>
+      <c r="A14" s="26"/>
+      <c r="B14" s="26"/>
+      <c r="C14" s="25"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="30"/>
-      <c r="B15" s="30"/>
-      <c r="C15" s="29"/>
+      <c r="A15" s="26"/>
+      <c r="B15" s="26"/>
+      <c r="C15" s="25"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="30"/>
-      <c r="B16" s="30"/>
-      <c r="C16" s="29"/>
+      <c r="A16" s="26"/>
+      <c r="B16" s="26"/>
+      <c r="C16" s="25"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="30"/>
-      <c r="B17" s="30"/>
-      <c r="C17" s="29"/>
+      <c r="A17" s="26"/>
+      <c r="B17" s="26"/>
+      <c r="C17" s="25"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="29"/>
-      <c r="B18" s="29"/>
-      <c r="C18" s="29"/>
+      <c r="A18" s="25"/>
+      <c r="B18" s="25"/>
+      <c r="C18" s="25"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="29"/>
-      <c r="B19" s="29"/>
-      <c r="C19" s="29"/>
+      <c r="A19" s="25"/>
+      <c r="B19" s="25"/>
+      <c r="C19" s="25"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="29"/>
-      <c r="B20" s="29"/>
-      <c r="C20" s="29"/>
+      <c r="A20" s="25"/>
+      <c r="B20" s="25"/>
+      <c r="C20" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -13420,6 +13546,192 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D24"/>
   <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.83203125" customWidth="1"/>
+    <col min="4" max="4" width="39.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="18" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="15" t="s">
+        <v>417</v>
+      </c>
+      <c r="B2" s="27" t="s">
+        <v>418</v>
+      </c>
+      <c r="C2" s="27"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>353</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="5" t="s">
+        <v>419</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>422</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>425</v>
+      </c>
+      <c r="D4" s="5"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="5" t="s">
+        <v>420</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>423</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>426</v>
+      </c>
+      <c r="D5" s="5"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="5" t="s">
+        <v>421</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>424</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>427</v>
+      </c>
+      <c r="D6" s="5"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="5"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="5"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="5"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="11"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="5"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="14"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="5"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="5"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="5"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="5"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="5"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="5"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="5"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" s="5"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" s="5"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" s="5"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" s="5"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" s="5"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" s="5"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" s="5"/>
+      <c r="B24" s="5"/>
+      <c r="C24" s="5"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B2:C2"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="A1" location="业务字典!A1" display="&lt;&lt; 返回"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D24"/>
+  <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -13439,10 +13751,10 @@
       <c r="A2" s="15" t="s">
         <v>395</v>
       </c>
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="27" t="s">
         <v>396</v>
       </c>
-      <c r="C2" s="24"/>
+      <c r="C2" s="27"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
@@ -13631,7 +13943,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D24"/>
   <sheetViews>
@@ -13654,10 +13966,10 @@
       <c r="A2" s="15" t="s">
         <v>375</v>
       </c>
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="27" t="s">
         <v>377</v>
       </c>
-      <c r="C2" s="24"/>
+      <c r="C2" s="27"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
@@ -13841,7 +14153,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D22"/>
   <sheetViews>
@@ -13864,10 +14176,10 @@
       <c r="A2" s="15" t="s">
         <v>355</v>
       </c>
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="27" t="s">
         <v>356</v>
       </c>
-      <c r="C2" s="24"/>
+      <c r="C2" s="27"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
@@ -14027,7 +14339,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D22"/>
   <sheetViews>
@@ -14052,10 +14364,10 @@
       <c r="A2" s="15" t="s">
         <v>336</v>
       </c>
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="27" t="s">
         <v>348</v>
       </c>
-      <c r="C2" s="24"/>
+      <c r="C2" s="27"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
@@ -14206,7 +14518,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D22"/>
   <sheetViews>
@@ -14229,10 +14541,10 @@
       <c r="A2" s="15" t="s">
         <v>324</v>
       </c>
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="27" t="s">
         <v>323</v>
       </c>
-      <c r="C2" s="24"/>
+      <c r="C2" s="27"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
@@ -14365,7 +14677,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D22"/>
   <sheetViews>
@@ -14390,10 +14702,10 @@
       <c r="A2" s="15" t="s">
         <v>309</v>
       </c>
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="27" t="s">
         <v>313</v>
       </c>
-      <c r="C2" s="24"/>
+      <c r="C2" s="27"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
@@ -14526,7 +14838,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D22"/>
   <sheetViews>
@@ -14551,10 +14863,10 @@
       <c r="A2" s="15" t="s">
         <v>285</v>
       </c>
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="27" t="s">
         <v>308</v>
       </c>
-      <c r="C2" s="24"/>
+      <c r="C2" s="27"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
@@ -14699,7 +15011,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D22"/>
   <sheetViews>
@@ -14724,10 +15036,10 @@
       <c r="A2" s="15" t="s">
         <v>285</v>
       </c>
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="27" t="s">
         <v>284</v>
       </c>
-      <c r="C2" s="24"/>
+      <c r="C2" s="27"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
@@ -14760,165 +15072,6 @@
       </c>
       <c r="C5" s="5" t="s">
         <v>289</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="5"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-    </row>
-    <row r="7" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A7" s="8"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="5"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="5"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="14"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="5"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="5"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="5"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="5"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="5"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="5"/>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="5"/>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="5"/>
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="5"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="5"/>
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="5"/>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="5"/>
-      <c r="B20" s="5"/>
-      <c r="C20" s="5"/>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="5"/>
-      <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" s="5"/>
-      <c r="B22" s="5"/>
-      <c r="C22" s="5"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B2:C2"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="A1" location="业务字典!A1" display="&lt;&lt; 返回"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D22"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="16.5" customWidth="1"/>
-    <col min="2" max="2" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="49.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.1640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="18" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="15" t="s">
-        <v>258</v>
-      </c>
-      <c r="B2" s="24" t="s">
-        <v>275</v>
-      </c>
-      <c r="C2" s="24"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="5" t="s">
-        <v>278</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>280</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="5" t="s">
-        <v>279</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>281</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>277</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -15042,10 +15195,10 @@
       <c r="A2" s="15" t="s">
         <v>258</v>
       </c>
-      <c r="B2" s="24" t="s">
-        <v>259</v>
-      </c>
-      <c r="C2" s="24"/>
+      <c r="B2" s="27" t="s">
+        <v>275</v>
+      </c>
+      <c r="C2" s="27"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
@@ -15060,47 +15213,35 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
-        <v>260</v>
+        <v>278</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>261</v>
+        <v>280</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>267</v>
+        <v>276</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
-        <v>262</v>
+        <v>279</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>262</v>
+        <v>281</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>268</v>
+        <v>277</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="5" t="s">
-        <v>263</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>264</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>269</v>
-      </c>
+      <c r="A6" s="5"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
     </row>
     <row r="7" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A7" s="8" t="s">
-        <v>266</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>265</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>270</v>
-      </c>
+      <c r="A7" s="8"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="5"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="5"/>
@@ -15211,15 +15352,13 @@
     </row>
     <row r="2" spans="1:4" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
-        <v>667</v>
-      </c>
-      <c r="B2" s="24" t="s">
-        <v>666</v>
-      </c>
-      <c r="C2" s="24"/>
-      <c r="D2" s="28" t="s">
-        <v>671</v>
-      </c>
+        <v>676</v>
+      </c>
+      <c r="B2" s="27" t="s">
+        <v>679</v>
+      </c>
+      <c r="C2" s="27"/>
+      <c r="D2" s="24"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
@@ -15236,117 +15375,145 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="29" t="s">
-        <v>668</v>
-      </c>
-      <c r="B4" s="29" t="s">
-        <v>668</v>
-      </c>
-      <c r="C4" s="29" t="s">
-        <v>674</v>
-      </c>
-      <c r="D4" s="29"/>
+      <c r="A4" s="26" t="s">
+        <v>684</v>
+      </c>
+      <c r="B4" s="26" t="s">
+        <v>684</v>
+      </c>
+      <c r="C4" s="25" t="s">
+        <v>686</v>
+      </c>
+      <c r="D4" s="25" t="s">
+        <v>688</v>
+      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="29" t="s">
-        <v>669</v>
-      </c>
-      <c r="B5" s="29" t="s">
-        <v>669</v>
-      </c>
-      <c r="C5" s="29" t="s">
-        <v>672</v>
-      </c>
-      <c r="D5" s="29"/>
+      <c r="A5" s="25" t="s">
+        <v>680</v>
+      </c>
+      <c r="B5" s="25" t="s">
+        <v>680</v>
+      </c>
+      <c r="C5" s="25" t="s">
+        <v>687</v>
+      </c>
+      <c r="D5" s="25" t="s">
+        <v>691</v>
+      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="30" t="s">
-        <v>670</v>
-      </c>
-      <c r="B6" s="30" t="s">
-        <v>670</v>
-      </c>
-      <c r="C6" s="29" t="s">
-        <v>673</v>
-      </c>
-      <c r="D6" s="29"/>
+      <c r="A6" s="26" t="s">
+        <v>682</v>
+      </c>
+      <c r="B6" s="26" t="s">
+        <v>682</v>
+      </c>
+      <c r="C6" s="25" t="s">
+        <v>269</v>
+      </c>
+      <c r="D6" s="25" t="s">
+        <v>690</v>
+      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="30" t="s">
-        <v>675</v>
-      </c>
-      <c r="B7" s="30"/>
-      <c r="C7" s="29"/>
-      <c r="D7" s="29"/>
+      <c r="A7" s="26" t="s">
+        <v>685</v>
+      </c>
+      <c r="B7" s="26" t="s">
+        <v>685</v>
+      </c>
+      <c r="C7" s="25" t="s">
+        <v>270</v>
+      </c>
+      <c r="D7" s="25" t="s">
+        <v>689</v>
+      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="30"/>
-      <c r="B8" s="30"/>
-      <c r="C8" s="29"/>
-      <c r="D8" s="29"/>
+      <c r="A8" s="26" t="s">
+        <v>683</v>
+      </c>
+      <c r="B8" s="26" t="s">
+        <v>683</v>
+      </c>
+      <c r="C8" s="25" t="s">
+        <v>268</v>
+      </c>
+      <c r="D8" s="25" t="s">
+        <v>692</v>
+      </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="30"/>
-      <c r="B9" s="30"/>
-      <c r="C9" s="29"/>
-      <c r="D9" s="29"/>
+      <c r="A9" s="25" t="s">
+        <v>681</v>
+      </c>
+      <c r="B9" s="25" t="s">
+        <v>681</v>
+      </c>
+      <c r="C9" s="25" t="s">
+        <v>267</v>
+      </c>
+      <c r="D9" s="25" t="s">
+        <v>693</v>
+      </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="30"/>
-      <c r="B10" s="30"/>
-      <c r="C10" s="29"/>
+      <c r="A10" s="26"/>
+      <c r="B10" s="26"/>
+      <c r="C10" s="25"/>
       <c r="D10" s="11"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="30"/>
-      <c r="B11" s="30"/>
-      <c r="C11" s="29"/>
+      <c r="A11" s="26"/>
+      <c r="B11" s="26"/>
+      <c r="C11" s="25"/>
       <c r="D11" s="14"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="30"/>
-      <c r="B12" s="30"/>
-      <c r="C12" s="29"/>
+      <c r="A12" s="26"/>
+      <c r="B12" s="26"/>
+      <c r="C12" s="25"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="30"/>
-      <c r="B13" s="30"/>
-      <c r="C13" s="29"/>
+      <c r="A13" s="26"/>
+      <c r="B13" s="26"/>
+      <c r="C13" s="25"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="30"/>
-      <c r="B14" s="30"/>
-      <c r="C14" s="29"/>
+      <c r="A14" s="26"/>
+      <c r="B14" s="26"/>
+      <c r="C14" s="25"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="30"/>
-      <c r="B15" s="30"/>
-      <c r="C15" s="29"/>
+      <c r="A15" s="26"/>
+      <c r="B15" s="26"/>
+      <c r="C15" s="25"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="30"/>
-      <c r="B16" s="30"/>
-      <c r="C16" s="29"/>
+      <c r="A16" s="26"/>
+      <c r="B16" s="26"/>
+      <c r="C16" s="25"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="30"/>
-      <c r="B17" s="30"/>
-      <c r="C17" s="29"/>
+      <c r="A17" s="26"/>
+      <c r="B17" s="26"/>
+      <c r="C17" s="25"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="29"/>
-      <c r="B18" s="29"/>
-      <c r="C18" s="29"/>
+      <c r="A18" s="25"/>
+      <c r="B18" s="25"/>
+      <c r="C18" s="25"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="29"/>
-      <c r="B19" s="29"/>
-      <c r="C19" s="29"/>
+      <c r="A19" s="25"/>
+      <c r="B19" s="25"/>
+      <c r="C19" s="25"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="29"/>
-      <c r="B20" s="29"/>
-      <c r="C20" s="29"/>
+      <c r="A20" s="25"/>
+      <c r="B20" s="25"/>
+      <c r="C20" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -15381,12 +15548,12 @@
     </row>
     <row r="2" spans="1:4" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
-        <v>253</v>
-      </c>
-      <c r="B2" s="24" t="s">
-        <v>255</v>
-      </c>
-      <c r="C2" s="24"/>
+        <v>258</v>
+      </c>
+      <c r="B2" s="27" t="s">
+        <v>259</v>
+      </c>
+      <c r="C2" s="27"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
@@ -15401,35 +15568,47 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>331</v>
+        <v>261</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>333</v>
+        <v>267</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>332</v>
+        <v>262</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>334</v>
+        <v>268</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="5"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
+      <c r="A6" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>269</v>
+      </c>
     </row>
     <row r="7" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A7" s="8"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="5"/>
+      <c r="A7" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>265</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>270</v>
+      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="5"/>
@@ -15540,12 +15719,12 @@
     </row>
     <row r="2" spans="1:4" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
-        <v>235</v>
-      </c>
-      <c r="B2" s="24" t="s">
-        <v>237</v>
-      </c>
-      <c r="C2" s="24"/>
+        <v>253</v>
+      </c>
+      <c r="B2" s="27" t="s">
+        <v>255</v>
+      </c>
+      <c r="C2" s="27"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
@@ -15560,43 +15739,35 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
-        <v>243</v>
+        <v>256</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>241</v>
+        <v>331</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>242</v>
+        <v>333</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
-        <v>239</v>
+        <v>257</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>239</v>
+        <v>332</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>240</v>
+        <v>334</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="5" t="s">
-        <v>244</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>245</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>246</v>
-      </c>
+      <c r="A6" s="5"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
     </row>
     <row r="7" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="8"/>
       <c r="B7" s="8"/>
-      <c r="C7" s="5" t="s">
-        <v>247</v>
-      </c>
+      <c r="C7" s="5"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="5"/>
@@ -15707,12 +15878,12 @@
     </row>
     <row r="2" spans="1:4" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
-        <v>213</v>
-      </c>
-      <c r="B2" s="24" t="s">
-        <v>216</v>
-      </c>
-      <c r="C2" s="24"/>
+        <v>235</v>
+      </c>
+      <c r="B2" s="27" t="s">
+        <v>237</v>
+      </c>
+      <c r="C2" s="27"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
@@ -15727,46 +15898,42 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
-        <v>217</v>
+        <v>243</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>218</v>
+        <v>241</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>223</v>
+        <v>242</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
-        <v>219</v>
+        <v>239</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>219</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>224</v>
+        <v>239</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
-        <v>220</v>
+        <v>244</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>220</v>
+        <v>245</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>225</v>
+        <v>246</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A7" s="8" t="s">
-        <v>221</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>222</v>
-      </c>
+      <c r="A7" s="8"/>
+      <c r="B7" s="8"/>
       <c r="C7" s="5" t="s">
-        <v>226</v>
+        <v>247</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -15865,25 +16032,25 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="24.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.5" customWidth="1"/>
     <col min="2" max="2" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="43.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="49.83203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="31.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="19" t="s">
+    <row r="1" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="18" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="16" t="s">
-        <v>209</v>
-      </c>
-      <c r="B2" s="24" t="s">
-        <v>207</v>
-      </c>
-      <c r="C2" s="24"/>
+      <c r="A2" s="15" t="s">
+        <v>213</v>
+      </c>
+      <c r="B2" s="27" t="s">
+        <v>216</v>
+      </c>
+      <c r="C2" s="27"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
@@ -15898,58 +16065,52 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
-        <v>197</v>
+        <v>217</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>197</v>
+        <v>218</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>210</v>
+        <v>223</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
-        <v>198</v>
+        <v>219</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>205</v>
+        <v>219</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
-        <v>199</v>
+        <v>220</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>199</v>
+        <v>220</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>204</v>
+        <v>225</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="8" t="s">
-        <v>200</v>
+        <v>221</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>200</v>
+        <v>222</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>203</v>
+        <v>226</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="5" t="s">
-        <v>201</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>201</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>202</v>
-      </c>
+      <c r="A8" s="5"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
       <c r="D8" s="14"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -16043,24 +16204,24 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="24.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.6640625" customWidth="1"/>
-    <col min="3" max="3" width="40.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="43.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="31.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="18" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="19" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="6" t="s">
-        <v>189</v>
-      </c>
-      <c r="B2" s="25" t="s">
-        <v>188</v>
-      </c>
-      <c r="C2" s="25"/>
+    <row r="2" spans="1:4" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="16" t="s">
+        <v>209</v>
+      </c>
+      <c r="B2" s="27" t="s">
+        <v>207</v>
+      </c>
+      <c r="C2" s="27"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
@@ -16075,42 +16236,58 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>191</v>
+        <v>210</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>192</v>
+        <v>205</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="5"/>
-      <c r="B6" s="5"/>
+      <c r="A6" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>199</v>
+      </c>
       <c r="C6" s="5" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="5"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
+        <v>204</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A7" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>203</v>
+      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="5"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
+      <c r="A8" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>202</v>
+      </c>
       <c r="D8" s="14"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -16203,9 +16380,9 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.6640625" customWidth="1"/>
-    <col min="3" max="3" width="67.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="40.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="31.1640625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -16216,12 +16393,12 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
-        <v>182</v>
-      </c>
-      <c r="B2" s="25" t="s">
-        <v>179</v>
-      </c>
-      <c r="C2" s="25"/>
+        <v>189</v>
+      </c>
+      <c r="B2" s="28" t="s">
+        <v>188</v>
+      </c>
+      <c r="C2" s="28"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
@@ -16236,35 +16413,31 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>183</v>
+        <v>194</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>184</v>
+        <v>195</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>211</v>
+        <v>192</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="5" t="s">
-        <v>186</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>186</v>
-      </c>
+      <c r="A6" s="5"/>
+      <c r="B6" s="5"/>
       <c r="C6" s="5" t="s">
-        <v>212</v>
+        <v>196</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -16368,9 +16541,9 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="24.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.6640625" customWidth="1"/>
-    <col min="3" max="3" width="40.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="67.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="31.1640625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -16381,12 +16554,12 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
-        <v>145</v>
-      </c>
-      <c r="B2" s="25" t="s">
-        <v>148</v>
-      </c>
-      <c r="C2" s="25"/>
+        <v>182</v>
+      </c>
+      <c r="B2" s="28" t="s">
+        <v>179</v>
+      </c>
+      <c r="C2" s="28"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
@@ -16401,114 +16574,72 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
-        <v>169</v>
+        <v>183</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>159</v>
+        <v>183</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>149</v>
+        <v>185</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
-        <v>170</v>
+        <v>184</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>160</v>
+        <v>184</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>150</v>
+        <v>211</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
-        <v>171</v>
+        <v>186</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>161</v>
+        <v>186</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>151</v>
+        <v>212</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="5" t="s">
-        <v>172</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>152</v>
-      </c>
+      <c r="A7" s="5"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="5" t="s">
-        <v>173</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>153</v>
-      </c>
+      <c r="A8" s="5"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
       <c r="D8" s="14"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="5" t="s">
-        <v>174</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>164</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>154</v>
-      </c>
+      <c r="A9" s="5"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>155</v>
-      </c>
+      <c r="A10" s="5"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="5" t="s">
-        <v>177</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>166</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>156</v>
-      </c>
+      <c r="A11" s="5"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="5" t="s">
-        <v>176</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>167</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>157</v>
-      </c>
+      <c r="A12" s="5"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="5" t="s">
-        <v>178</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>158</v>
-      </c>
+      <c r="A13" s="5"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="5"/>
@@ -16568,6 +16699,213 @@
 </file>
 
 <file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="24.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.6640625" customWidth="1"/>
+    <col min="3" max="3" width="40.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="18" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="B2" s="28" t="s">
+        <v>148</v>
+      </c>
+      <c r="C2" s="28"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="D8" s="14"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="5"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="5"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="5"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="5"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" s="5"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" s="5"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" s="5"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" s="5"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" s="5"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B2:C2"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="A1" location="业务字典!A1" display="&lt;&lt; 返回"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D25"/>
   <sheetViews>
@@ -16590,10 +16928,10 @@
       <c r="A2" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="28" t="s">
         <v>129</v>
       </c>
-      <c r="C2" s="25"/>
+      <c r="C2" s="28"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
@@ -16638,7 +16976,7 @@
       <c r="C6" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="D6" s="26" t="s">
+      <c r="D6" s="29" t="s">
         <v>144</v>
       </c>
     </row>
@@ -16652,7 +16990,7 @@
       <c r="C7" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="D7" s="27"/>
+      <c r="D7" s="30"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="5"/>
@@ -16760,7 +17098,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C27"/>
   <sheetViews>
@@ -16782,10 +17120,10 @@
       <c r="A2" s="15" t="s">
         <v>230</v>
       </c>
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="27" t="s">
         <v>116</v>
       </c>
-      <c r="C2" s="24"/>
+      <c r="C2" s="27"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
@@ -16956,179 +17294,6 @@
       <c r="A27" s="5"/>
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B2:C2"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="A1" location="业务字典!A1" display="&lt;&lt; 返回"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D25"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="11.1640625" customWidth="1"/>
-    <col min="2" max="2" width="17.5" customWidth="1"/>
-    <col min="3" max="3" width="24.5" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="18" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C2" s="25"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="5"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="5"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="5"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="5"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="12"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="7"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="5"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="5"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="5"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="5"/>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="5"/>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="5"/>
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="5"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="5"/>
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="5"/>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="5"/>
-      <c r="B20" s="5"/>
-      <c r="C20" s="5"/>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="5"/>
-      <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" s="5"/>
-      <c r="B22" s="5"/>
-      <c r="C22" s="5"/>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" s="5"/>
-      <c r="B23" s="5"/>
-      <c r="C23" s="5"/>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" s="5"/>
-      <c r="B24" s="5"/>
-      <c r="C24" s="5"/>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25" s="5"/>
-      <c r="B25" s="5"/>
-      <c r="C25" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -17163,13 +17328,15 @@
     </row>
     <row r="2" spans="1:4" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
-        <v>655</v>
-      </c>
-      <c r="B2" s="24" t="s">
-        <v>654</v>
-      </c>
-      <c r="C2" s="24"/>
-      <c r="D2" s="28"/>
+        <v>667</v>
+      </c>
+      <c r="B2" s="27" t="s">
+        <v>666</v>
+      </c>
+      <c r="C2" s="27"/>
+      <c r="D2" s="24" t="s">
+        <v>671</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
@@ -17186,113 +17353,117 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="29" t="s">
-        <v>657</v>
-      </c>
-      <c r="B4" s="29" t="s">
-        <v>659</v>
-      </c>
-      <c r="C4" s="29" t="s">
-        <v>656</v>
-      </c>
-      <c r="D4" s="29" t="s">
-        <v>660</v>
-      </c>
+      <c r="A4" s="25" t="s">
+        <v>668</v>
+      </c>
+      <c r="B4" s="25" t="s">
+        <v>668</v>
+      </c>
+      <c r="C4" s="25" t="s">
+        <v>674</v>
+      </c>
+      <c r="D4" s="25"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="29" t="s">
-        <v>658</v>
-      </c>
-      <c r="B5" s="29" t="s">
-        <v>658</v>
-      </c>
-      <c r="C5" s="29" t="s">
-        <v>662</v>
-      </c>
-      <c r="D5" s="29" t="s">
-        <v>661</v>
-      </c>
+      <c r="A5" s="25" t="s">
+        <v>669</v>
+      </c>
+      <c r="B5" s="25" t="s">
+        <v>669</v>
+      </c>
+      <c r="C5" s="25" t="s">
+        <v>672</v>
+      </c>
+      <c r="D5" s="25"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="30"/>
-      <c r="B6" s="30"/>
-      <c r="C6" s="29"/>
-      <c r="D6" s="29"/>
+      <c r="A6" s="26" t="s">
+        <v>670</v>
+      </c>
+      <c r="B6" s="26" t="s">
+        <v>670</v>
+      </c>
+      <c r="C6" s="25" t="s">
+        <v>673</v>
+      </c>
+      <c r="D6" s="25"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="30"/>
-      <c r="B7" s="30"/>
-      <c r="C7" s="29"/>
-      <c r="D7" s="29"/>
+      <c r="A7" s="26" t="s">
+        <v>675</v>
+      </c>
+      <c r="B7" s="26"/>
+      <c r="C7" s="25"/>
+      <c r="D7" s="25"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="30"/>
-      <c r="B8" s="30"/>
-      <c r="C8" s="29"/>
-      <c r="D8" s="29"/>
+      <c r="A8" s="26"/>
+      <c r="B8" s="26"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="25"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="30"/>
-      <c r="B9" s="30"/>
-      <c r="C9" s="29"/>
-      <c r="D9" s="29"/>
+      <c r="A9" s="26"/>
+      <c r="B9" s="26"/>
+      <c r="C9" s="25"/>
+      <c r="D9" s="25"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="30"/>
-      <c r="B10" s="30"/>
-      <c r="C10" s="29"/>
+      <c r="A10" s="26"/>
+      <c r="B10" s="26"/>
+      <c r="C10" s="25"/>
       <c r="D10" s="11"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="30"/>
-      <c r="B11" s="30"/>
-      <c r="C11" s="29"/>
+      <c r="A11" s="26"/>
+      <c r="B11" s="26"/>
+      <c r="C11" s="25"/>
       <c r="D11" s="14"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="30"/>
-      <c r="B12" s="30"/>
-      <c r="C12" s="29"/>
+      <c r="A12" s="26"/>
+      <c r="B12" s="26"/>
+      <c r="C12" s="25"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="30"/>
-      <c r="B13" s="30"/>
-      <c r="C13" s="29"/>
+      <c r="A13" s="26"/>
+      <c r="B13" s="26"/>
+      <c r="C13" s="25"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="30"/>
-      <c r="B14" s="30"/>
-      <c r="C14" s="29"/>
+      <c r="A14" s="26"/>
+      <c r="B14" s="26"/>
+      <c r="C14" s="25"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="30"/>
-      <c r="B15" s="30"/>
-      <c r="C15" s="29"/>
+      <c r="A15" s="26"/>
+      <c r="B15" s="26"/>
+      <c r="C15" s="25"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="30"/>
-      <c r="B16" s="30"/>
-      <c r="C16" s="29"/>
+      <c r="A16" s="26"/>
+      <c r="B16" s="26"/>
+      <c r="C16" s="25"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="30"/>
-      <c r="B17" s="30"/>
-      <c r="C17" s="29"/>
+      <c r="A17" s="26"/>
+      <c r="B17" s="26"/>
+      <c r="C17" s="25"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="29"/>
-      <c r="B18" s="29"/>
-      <c r="C18" s="29"/>
+      <c r="A18" s="25"/>
+      <c r="B18" s="25"/>
+      <c r="C18" s="25"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="29"/>
-      <c r="B19" s="29"/>
-      <c r="C19" s="29"/>
+      <c r="A19" s="25"/>
+      <c r="B19" s="25"/>
+      <c r="C19" s="25"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="29"/>
-      <c r="B20" s="29"/>
-      <c r="C20" s="29"/>
+      <c r="A20" s="25"/>
+      <c r="B20" s="25"/>
+      <c r="C20" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -17307,6 +17478,179 @@
 </file>
 
 <file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="11.1640625" customWidth="1"/>
+    <col min="2" max="2" width="17.5" customWidth="1"/>
+    <col min="3" max="3" width="24.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="18" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="28"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="5"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="5"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="5"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="5"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="12"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="7"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="5"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="5"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="5"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="5"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="5"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="5"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="5"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" s="5"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" s="5"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" s="5"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" s="5"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" s="5"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" s="5"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" s="5"/>
+      <c r="B24" s="5"/>
+      <c r="C24" s="5"/>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" s="5"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="5"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B2:C2"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="A1" location="业务字典!A1" display="&lt;&lt; 返回"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C27"/>
   <sheetViews>
@@ -17330,10 +17674,10 @@
       <c r="A2" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="28" t="s">
         <v>100</v>
       </c>
-      <c r="C2" s="25"/>
+      <c r="C2" s="28"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
@@ -17508,7 +17852,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C8"/>
   <sheetViews>
@@ -17530,10 +17874,10 @@
       <c r="A2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="25"/>
+      <c r="C2" s="28"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
@@ -17581,174 +17925,6 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C8" s="7"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B2:C2"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="A1" location="业务字典!A1" display="&lt;&lt; 返回"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C23"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="15.6640625" customWidth="1"/>
-    <col min="2" max="2" width="20.33203125" customWidth="1"/>
-    <col min="3" max="3" width="22.83203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="18" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B2" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="C2" s="25"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="5"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="5"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="5"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="5"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="5"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="5"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" s="5"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" s="5"/>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" s="5"/>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" s="5"/>
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="5"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="5"/>
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="5"/>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="5"/>
-      <c r="B20" s="5"/>
-      <c r="C20" s="5"/>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="5"/>
-      <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" s="5"/>
-      <c r="B22" s="5"/>
-      <c r="C22" s="5"/>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" s="5"/>
-      <c r="B23" s="5"/>
-      <c r="C23" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -17782,12 +17958,12 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B2" s="25" t="s">
-        <v>36</v>
-      </c>
-      <c r="C2" s="25"/>
+        <v>27</v>
+      </c>
+      <c r="B2" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="28"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
@@ -17802,35 +17978,35 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -17950,12 +18126,12 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B2" s="25" t="s">
-        <v>53</v>
-      </c>
-      <c r="C2" s="25"/>
+        <v>35</v>
+      </c>
+      <c r="B2" s="28" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" s="28"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
@@ -17970,47 +18146,41 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>48</v>
-      </c>
+      <c r="A7" s="5"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="5"/>
@@ -18105,6 +18275,180 @@
 </file>
 
 <file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="15.6640625" customWidth="1"/>
+    <col min="2" max="2" width="20.33203125" customWidth="1"/>
+    <col min="3" max="3" width="22.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="18" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" s="28" t="s">
+        <v>53</v>
+      </c>
+      <c r="C2" s="28"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="5"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="5"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="5"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" s="5"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" s="5"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" s="5"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" s="5"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" s="5"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" s="5"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="5"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" s="5"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" s="5"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" s="5"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" s="5"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" s="5"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" s="5"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B2:C2"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="A1" location="业务字典!A1" display="&lt;&lt; 返回"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C24"/>
   <sheetViews>
@@ -18126,10 +18470,10 @@
       <c r="A2" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="28" t="s">
         <v>545</v>
       </c>
-      <c r="C2" s="25"/>
+      <c r="C2" s="28"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
@@ -18297,7 +18641,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C25"/>
   <sheetViews>
@@ -18321,10 +18665,10 @@
       <c r="A2" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="28" t="s">
         <v>74</v>
       </c>
-      <c r="C2" s="25"/>
+      <c r="C2" s="28"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
@@ -18483,7 +18827,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C25"/>
   <sheetViews>
@@ -18505,10 +18849,10 @@
       <c r="A2" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="28" t="s">
         <v>94</v>
       </c>
-      <c r="C2" s="25"/>
+      <c r="C2" s="28"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
@@ -18656,6 +19000,170 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D20"/>
+  <sheetViews>
+    <sheetView zoomScale="125" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.83203125" customWidth="1"/>
+    <col min="4" max="4" width="67" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="18" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="15" t="s">
+        <v>655</v>
+      </c>
+      <c r="B2" s="27" t="s">
+        <v>654</v>
+      </c>
+      <c r="C2" s="27"/>
+      <c r="D2" s="24"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>353</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="25" t="s">
+        <v>657</v>
+      </c>
+      <c r="B4" s="25" t="s">
+        <v>659</v>
+      </c>
+      <c r="C4" s="25" t="s">
+        <v>656</v>
+      </c>
+      <c r="D4" s="25" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="25" t="s">
+        <v>658</v>
+      </c>
+      <c r="B5" s="25" t="s">
+        <v>658</v>
+      </c>
+      <c r="C5" s="25" t="s">
+        <v>662</v>
+      </c>
+      <c r="D5" s="25" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="26"/>
+      <c r="B6" s="26"/>
+      <c r="C6" s="25"/>
+      <c r="D6" s="25"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="26"/>
+      <c r="B7" s="26"/>
+      <c r="C7" s="25"/>
+      <c r="D7" s="25"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="26"/>
+      <c r="B8" s="26"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="25"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="26"/>
+      <c r="B9" s="26"/>
+      <c r="C9" s="25"/>
+      <c r="D9" s="25"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="26"/>
+      <c r="B10" s="26"/>
+      <c r="C10" s="25"/>
+      <c r="D10" s="11"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="26"/>
+      <c r="B11" s="26"/>
+      <c r="C11" s="25"/>
+      <c r="D11" s="14"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="26"/>
+      <c r="B12" s="26"/>
+      <c r="C12" s="25"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="26"/>
+      <c r="B13" s="26"/>
+      <c r="C13" s="25"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="26"/>
+      <c r="B14" s="26"/>
+      <c r="C14" s="25"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="26"/>
+      <c r="B15" s="26"/>
+      <c r="C15" s="25"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="26"/>
+      <c r="B16" s="26"/>
+      <c r="C16" s="25"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="26"/>
+      <c r="B17" s="26"/>
+      <c r="C17" s="25"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" s="25"/>
+      <c r="B18" s="25"/>
+      <c r="C18" s="25"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" s="25"/>
+      <c r="B19" s="25"/>
+      <c r="C19" s="25"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" s="25"/>
+      <c r="B20" s="25"/>
+      <c r="C20" s="25"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B2:C2"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="A1" location="业务字典!A1" display="&lt;&lt; 返回"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D20"/>
   <sheetViews>
@@ -18680,11 +19188,11 @@
       <c r="A2" s="15" t="s">
         <v>646</v>
       </c>
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="27" t="s">
         <v>645</v>
       </c>
-      <c r="C2" s="24"/>
-      <c r="D2" s="28"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="24"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
@@ -18701,113 +19209,113 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="29" t="s">
+      <c r="A4" s="25" t="s">
         <v>618</v>
       </c>
-      <c r="B4" s="29" t="s">
+      <c r="B4" s="25" t="s">
         <v>619</v>
       </c>
-      <c r="C4" s="29" t="s">
+      <c r="C4" s="25" t="s">
         <v>400</v>
       </c>
-      <c r="D4" s="29" t="s">
+      <c r="D4" s="25" t="s">
         <v>651</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="29" t="s">
+      <c r="A5" s="25" t="s">
         <v>621</v>
       </c>
-      <c r="B5" s="29" t="s">
+      <c r="B5" s="25" t="s">
         <v>620</v>
       </c>
-      <c r="C5" s="29" t="s">
+      <c r="C5" s="25" t="s">
         <v>402</v>
       </c>
-      <c r="D5" s="29" t="s">
+      <c r="D5" s="25" t="s">
         <v>623</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="30"/>
-      <c r="B6" s="30"/>
-      <c r="C6" s="29"/>
-      <c r="D6" s="29"/>
+      <c r="A6" s="26"/>
+      <c r="B6" s="26"/>
+      <c r="C6" s="25"/>
+      <c r="D6" s="25"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="30"/>
-      <c r="B7" s="30"/>
-      <c r="C7" s="29"/>
-      <c r="D7" s="29"/>
+      <c r="A7" s="26"/>
+      <c r="B7" s="26"/>
+      <c r="C7" s="25"/>
+      <c r="D7" s="25"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="30"/>
-      <c r="B8" s="30"/>
-      <c r="C8" s="29"/>
-      <c r="D8" s="29"/>
+      <c r="A8" s="26"/>
+      <c r="B8" s="26"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="25"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="30"/>
-      <c r="B9" s="30"/>
-      <c r="C9" s="29"/>
-      <c r="D9" s="29"/>
+      <c r="A9" s="26"/>
+      <c r="B9" s="26"/>
+      <c r="C9" s="25"/>
+      <c r="D9" s="25"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="30"/>
-      <c r="B10" s="30"/>
-      <c r="C10" s="29"/>
+      <c r="A10" s="26"/>
+      <c r="B10" s="26"/>
+      <c r="C10" s="25"/>
       <c r="D10" s="11"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="30"/>
-      <c r="B11" s="30"/>
-      <c r="C11" s="29"/>
+      <c r="A11" s="26"/>
+      <c r="B11" s="26"/>
+      <c r="C11" s="25"/>
       <c r="D11" s="14"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="30"/>
-      <c r="B12" s="30"/>
-      <c r="C12" s="29"/>
+      <c r="A12" s="26"/>
+      <c r="B12" s="26"/>
+      <c r="C12" s="25"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="30"/>
-      <c r="B13" s="30"/>
-      <c r="C13" s="29"/>
+      <c r="A13" s="26"/>
+      <c r="B13" s="26"/>
+      <c r="C13" s="25"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="30"/>
-      <c r="B14" s="30"/>
-      <c r="C14" s="29"/>
+      <c r="A14" s="26"/>
+      <c r="B14" s="26"/>
+      <c r="C14" s="25"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="30"/>
-      <c r="B15" s="30"/>
-      <c r="C15" s="29"/>
+      <c r="A15" s="26"/>
+      <c r="B15" s="26"/>
+      <c r="C15" s="25"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="30"/>
-      <c r="B16" s="30"/>
-      <c r="C16" s="29"/>
+      <c r="A16" s="26"/>
+      <c r="B16" s="26"/>
+      <c r="C16" s="25"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="30"/>
-      <c r="B17" s="30"/>
-      <c r="C17" s="29"/>
+      <c r="A17" s="26"/>
+      <c r="B17" s="26"/>
+      <c r="C17" s="25"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="29"/>
-      <c r="B18" s="29"/>
-      <c r="C18" s="29"/>
+      <c r="A18" s="25"/>
+      <c r="B18" s="25"/>
+      <c r="C18" s="25"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="29"/>
-      <c r="B19" s="29"/>
-      <c r="C19" s="29"/>
+      <c r="A19" s="25"/>
+      <c r="B19" s="25"/>
+      <c r="C19" s="25"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="29"/>
-      <c r="B20" s="29"/>
-      <c r="C20" s="29"/>
+      <c r="A20" s="25"/>
+      <c r="B20" s="25"/>
+      <c r="C20" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -18819,168 +19327,6 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D20"/>
-  <sheetViews>
-    <sheetView zoomScale="125" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="21.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.83203125" customWidth="1"/>
-    <col min="4" max="4" width="67" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="18" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="15" t="s">
-        <v>641</v>
-      </c>
-      <c r="B2" s="24" t="s">
-        <v>640</v>
-      </c>
-      <c r="C2" s="24"/>
-      <c r="D2" s="28" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>353</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="30" t="s">
-        <v>630</v>
-      </c>
-      <c r="B4" s="30" t="s">
-        <v>630</v>
-      </c>
-      <c r="C4" s="29" t="s">
-        <v>642</v>
-      </c>
-      <c r="D4" s="29"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="30" t="s">
-        <v>631</v>
-      </c>
-      <c r="B5" s="30" t="s">
-        <v>631</v>
-      </c>
-      <c r="C5" s="29" t="s">
-        <v>643</v>
-      </c>
-      <c r="D5" s="29"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="30"/>
-      <c r="B6" s="30"/>
-      <c r="C6" s="29"/>
-      <c r="D6" s="29"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="30"/>
-      <c r="B7" s="30"/>
-      <c r="C7" s="29"/>
-      <c r="D7" s="29"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="30"/>
-      <c r="B8" s="30"/>
-      <c r="C8" s="29"/>
-      <c r="D8" s="29"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="30"/>
-      <c r="B9" s="30"/>
-      <c r="C9" s="29"/>
-      <c r="D9" s="29"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="30"/>
-      <c r="B10" s="30"/>
-      <c r="C10" s="29"/>
-      <c r="D10" s="11"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="30"/>
-      <c r="B11" s="30"/>
-      <c r="C11" s="29"/>
-      <c r="D11" s="14"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="30"/>
-      <c r="B12" s="30"/>
-      <c r="C12" s="29"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="30"/>
-      <c r="B13" s="30"/>
-      <c r="C13" s="29"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="30"/>
-      <c r="B14" s="30"/>
-      <c r="C14" s="29"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="30"/>
-      <c r="B15" s="30"/>
-      <c r="C15" s="29"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="30"/>
-      <c r="B16" s="30"/>
-      <c r="C16" s="29"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="30"/>
-      <c r="B17" s="30"/>
-      <c r="C17" s="29"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="29"/>
-      <c r="B18" s="29"/>
-      <c r="C18" s="29"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="29"/>
-      <c r="B19" s="29"/>
-      <c r="C19" s="29"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="29"/>
-      <c r="B20" s="29"/>
-      <c r="C20" s="29"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B2:C2"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="A1" location="业务字典!A1" display="&lt;&lt; 返回"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -19005,13 +19351,13 @@
     </row>
     <row r="2" spans="1:4" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
-        <v>628</v>
-      </c>
-      <c r="B2" s="24" t="s">
-        <v>627</v>
-      </c>
-      <c r="C2" s="24"/>
-      <c r="D2" s="28" t="s">
+        <v>641</v>
+      </c>
+      <c r="B2" s="27" t="s">
+        <v>640</v>
+      </c>
+      <c r="C2" s="27"/>
+      <c r="D2" s="24" t="s">
         <v>629</v>
       </c>
     </row>
@@ -19030,127 +19376,109 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="30" t="s">
+      <c r="A4" s="26" t="s">
         <v>630</v>
       </c>
-      <c r="B4" s="30" t="s">
+      <c r="B4" s="26" t="s">
         <v>630</v>
       </c>
-      <c r="C4" s="29" t="s">
-        <v>632</v>
-      </c>
-      <c r="D4" s="29"/>
+      <c r="C4" s="25" t="s">
+        <v>642</v>
+      </c>
+      <c r="D4" s="25"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="30" t="s">
+      <c r="A5" s="26" t="s">
         <v>631</v>
       </c>
-      <c r="B5" s="30" t="s">
+      <c r="B5" s="26" t="s">
         <v>631</v>
       </c>
-      <c r="C5" s="29" t="s">
-        <v>633</v>
-      </c>
-      <c r="D5" s="29"/>
+      <c r="C5" s="25" t="s">
+        <v>643</v>
+      </c>
+      <c r="D5" s="25"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="30" t="s">
-        <v>557</v>
-      </c>
-      <c r="B6" s="30" t="s">
-        <v>557</v>
-      </c>
-      <c r="C6" s="29" t="s">
-        <v>634</v>
-      </c>
-      <c r="D6" s="29"/>
+      <c r="A6" s="26"/>
+      <c r="B6" s="26"/>
+      <c r="C6" s="25"/>
+      <c r="D6" s="25"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="30" t="s">
-        <v>563</v>
-      </c>
-      <c r="B7" s="30" t="s">
-        <v>563</v>
-      </c>
-      <c r="C7" s="29" t="s">
-        <v>635</v>
-      </c>
-      <c r="D7" s="29"/>
+      <c r="A7" s="26"/>
+      <c r="B7" s="26"/>
+      <c r="C7" s="25"/>
+      <c r="D7" s="25"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="30" t="s">
-        <v>637</v>
-      </c>
-      <c r="B8" s="30" t="s">
-        <v>637</v>
-      </c>
-      <c r="C8" s="29" t="s">
-        <v>636</v>
-      </c>
-      <c r="D8" s="29"/>
+      <c r="A8" s="26"/>
+      <c r="B8" s="26"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="25"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="30"/>
-      <c r="B9" s="30"/>
-      <c r="C9" s="29"/>
-      <c r="D9" s="29"/>
+      <c r="A9" s="26"/>
+      <c r="B9" s="26"/>
+      <c r="C9" s="25"/>
+      <c r="D9" s="25"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="30"/>
-      <c r="B10" s="30"/>
-      <c r="C10" s="29"/>
+      <c r="A10" s="26"/>
+      <c r="B10" s="26"/>
+      <c r="C10" s="25"/>
       <c r="D10" s="11"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="30"/>
-      <c r="B11" s="30"/>
-      <c r="C11" s="29"/>
+      <c r="A11" s="26"/>
+      <c r="B11" s="26"/>
+      <c r="C11" s="25"/>
       <c r="D11" s="14"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="30"/>
-      <c r="B12" s="30"/>
-      <c r="C12" s="29"/>
+      <c r="A12" s="26"/>
+      <c r="B12" s="26"/>
+      <c r="C12" s="25"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="30"/>
-      <c r="B13" s="30"/>
-      <c r="C13" s="29"/>
+      <c r="A13" s="26"/>
+      <c r="B13" s="26"/>
+      <c r="C13" s="25"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="30"/>
-      <c r="B14" s="30"/>
-      <c r="C14" s="29"/>
+      <c r="A14" s="26"/>
+      <c r="B14" s="26"/>
+      <c r="C14" s="25"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="30"/>
-      <c r="B15" s="30"/>
-      <c r="C15" s="29"/>
+      <c r="A15" s="26"/>
+      <c r="B15" s="26"/>
+      <c r="C15" s="25"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="30"/>
-      <c r="B16" s="30"/>
-      <c r="C16" s="29"/>
+      <c r="A16" s="26"/>
+      <c r="B16" s="26"/>
+      <c r="C16" s="25"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="30"/>
-      <c r="B17" s="30"/>
-      <c r="C17" s="29"/>
+      <c r="A17" s="26"/>
+      <c r="B17" s="26"/>
+      <c r="C17" s="25"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="29"/>
-      <c r="B18" s="29"/>
-      <c r="C18" s="29"/>
+      <c r="A18" s="25"/>
+      <c r="B18" s="25"/>
+      <c r="C18" s="25"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="29"/>
-      <c r="B19" s="29"/>
-      <c r="C19" s="29"/>
+      <c r="A19" s="25"/>
+      <c r="B19" s="25"/>
+      <c r="C19" s="25"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="29"/>
-      <c r="B20" s="29"/>
-      <c r="C20" s="29"/>
+      <c r="A20" s="25"/>
+      <c r="B20" s="25"/>
+      <c r="C20" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -19165,6 +19493,186 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D20"/>
+  <sheetViews>
+    <sheetView zoomScale="125" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.83203125" customWidth="1"/>
+    <col min="4" max="4" width="67" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="18" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="15" t="s">
+        <v>628</v>
+      </c>
+      <c r="B2" s="27" t="s">
+        <v>627</v>
+      </c>
+      <c r="C2" s="27"/>
+      <c r="D2" s="24" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>353</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="26" t="s">
+        <v>630</v>
+      </c>
+      <c r="B4" s="26" t="s">
+        <v>630</v>
+      </c>
+      <c r="C4" s="25" t="s">
+        <v>632</v>
+      </c>
+      <c r="D4" s="25"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="26" t="s">
+        <v>631</v>
+      </c>
+      <c r="B5" s="26" t="s">
+        <v>631</v>
+      </c>
+      <c r="C5" s="25" t="s">
+        <v>633</v>
+      </c>
+      <c r="D5" s="25"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="26" t="s">
+        <v>557</v>
+      </c>
+      <c r="B6" s="26" t="s">
+        <v>557</v>
+      </c>
+      <c r="C6" s="25" t="s">
+        <v>634</v>
+      </c>
+      <c r="D6" s="25"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="26" t="s">
+        <v>563</v>
+      </c>
+      <c r="B7" s="26" t="s">
+        <v>563</v>
+      </c>
+      <c r="C7" s="25" t="s">
+        <v>635</v>
+      </c>
+      <c r="D7" s="25"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="26" t="s">
+        <v>637</v>
+      </c>
+      <c r="B8" s="26" t="s">
+        <v>637</v>
+      </c>
+      <c r="C8" s="25" t="s">
+        <v>636</v>
+      </c>
+      <c r="D8" s="25"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="26"/>
+      <c r="B9" s="26"/>
+      <c r="C9" s="25"/>
+      <c r="D9" s="25"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="26"/>
+      <c r="B10" s="26"/>
+      <c r="C10" s="25"/>
+      <c r="D10" s="11"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="26"/>
+      <c r="B11" s="26"/>
+      <c r="C11" s="25"/>
+      <c r="D11" s="14"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="26"/>
+      <c r="B12" s="26"/>
+      <c r="C12" s="25"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="26"/>
+      <c r="B13" s="26"/>
+      <c r="C13" s="25"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="26"/>
+      <c r="B14" s="26"/>
+      <c r="C14" s="25"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="26"/>
+      <c r="B15" s="26"/>
+      <c r="C15" s="25"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="26"/>
+      <c r="B16" s="26"/>
+      <c r="C16" s="25"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="26"/>
+      <c r="B17" s="26"/>
+      <c r="C17" s="25"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" s="25"/>
+      <c r="B18" s="25"/>
+      <c r="C18" s="25"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" s="25"/>
+      <c r="B19" s="25"/>
+      <c r="C19" s="25"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" s="25"/>
+      <c r="B20" s="25"/>
+      <c r="C20" s="25"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B2:C2"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="A1" location="业务字典!A1" display="&lt;&lt; 返回"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D20"/>
   <sheetViews>
@@ -19189,11 +19697,11 @@
       <c r="A2" s="15" t="s">
         <v>616</v>
       </c>
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="27" t="s">
         <v>615</v>
       </c>
-      <c r="C2" s="24"/>
-      <c r="D2" s="28" t="s">
+      <c r="C2" s="27"/>
+      <c r="D2" s="24" t="s">
         <v>617</v>
       </c>
     </row>
@@ -19212,113 +19720,113 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="29" t="s">
+      <c r="A4" s="25" t="s">
         <v>618</v>
       </c>
-      <c r="B4" s="29" t="s">
+      <c r="B4" s="25" t="s">
         <v>619</v>
       </c>
-      <c r="C4" s="29" t="s">
+      <c r="C4" s="25" t="s">
         <v>400</v>
       </c>
-      <c r="D4" s="29" t="s">
+      <c r="D4" s="25" t="s">
         <v>622</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="29" t="s">
+      <c r="A5" s="25" t="s">
         <v>621</v>
       </c>
-      <c r="B5" s="29" t="s">
+      <c r="B5" s="25" t="s">
         <v>620</v>
       </c>
-      <c r="C5" s="29" t="s">
+      <c r="C5" s="25" t="s">
         <v>402</v>
       </c>
-      <c r="D5" s="29" t="s">
+      <c r="D5" s="25" t="s">
         <v>623</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="29"/>
-      <c r="B6" s="29"/>
-      <c r="C6" s="29"/>
-      <c r="D6" s="29"/>
+      <c r="A6" s="25"/>
+      <c r="B6" s="25"/>
+      <c r="C6" s="25"/>
+      <c r="D6" s="25"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="29"/>
-      <c r="B7" s="29"/>
-      <c r="C7" s="29"/>
-      <c r="D7" s="29"/>
+      <c r="A7" s="25"/>
+      <c r="B7" s="25"/>
+      <c r="C7" s="25"/>
+      <c r="D7" s="25"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="29"/>
-      <c r="B8" s="29"/>
-      <c r="C8" s="29"/>
-      <c r="D8" s="29"/>
+      <c r="A8" s="25"/>
+      <c r="B8" s="25"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="25"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="29"/>
-      <c r="B9" s="29"/>
-      <c r="C9" s="29"/>
-      <c r="D9" s="29"/>
+      <c r="A9" s="25"/>
+      <c r="B9" s="25"/>
+      <c r="C9" s="25"/>
+      <c r="D9" s="25"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="29"/>
-      <c r="B10" s="29"/>
-      <c r="C10" s="29"/>
+      <c r="A10" s="25"/>
+      <c r="B10" s="25"/>
+      <c r="C10" s="25"/>
       <c r="D10" s="11"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="29"/>
-      <c r="B11" s="29"/>
-      <c r="C11" s="29"/>
+      <c r="A11" s="25"/>
+      <c r="B11" s="25"/>
+      <c r="C11" s="25"/>
       <c r="D11" s="14"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="29"/>
-      <c r="B12" s="29"/>
-      <c r="C12" s="29"/>
+      <c r="A12" s="25"/>
+      <c r="B12" s="25"/>
+      <c r="C12" s="25"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="29"/>
-      <c r="B13" s="29"/>
-      <c r="C13" s="29"/>
+      <c r="A13" s="25"/>
+      <c r="B13" s="25"/>
+      <c r="C13" s="25"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="29"/>
-      <c r="B14" s="29"/>
-      <c r="C14" s="29"/>
+      <c r="A14" s="25"/>
+      <c r="B14" s="25"/>
+      <c r="C14" s="25"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="29"/>
-      <c r="B15" s="29"/>
-      <c r="C15" s="29"/>
+      <c r="A15" s="25"/>
+      <c r="B15" s="25"/>
+      <c r="C15" s="25"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="29"/>
-      <c r="B16" s="29"/>
-      <c r="C16" s="29"/>
+      <c r="A16" s="25"/>
+      <c r="B16" s="25"/>
+      <c r="C16" s="25"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="29"/>
-      <c r="B17" s="29"/>
-      <c r="C17" s="29"/>
+      <c r="A17" s="25"/>
+      <c r="B17" s="25"/>
+      <c r="C17" s="25"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="29"/>
-      <c r="B18" s="29"/>
-      <c r="C18" s="29"/>
+      <c r="A18" s="25"/>
+      <c r="B18" s="25"/>
+      <c r="C18" s="25"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="29"/>
-      <c r="B19" s="29"/>
-      <c r="C19" s="29"/>
+      <c r="A19" s="25"/>
+      <c r="B19" s="25"/>
+      <c r="C19" s="25"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="29"/>
-      <c r="B20" s="29"/>
-      <c r="C20" s="29"/>
+      <c r="A20" s="25"/>
+      <c r="B20" s="25"/>
+      <c r="C20" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -19331,178 +19839,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D20"/>
-  <sheetViews>
-    <sheetView zoomScale="125" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="21.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.83203125" customWidth="1"/>
-    <col min="4" max="4" width="67" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="18" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="15" t="s">
-        <v>601</v>
-      </c>
-      <c r="B2" s="24" t="s">
-        <v>599</v>
-      </c>
-      <c r="C2" s="24"/>
-      <c r="D2" s="28" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>353</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="29" t="s">
-        <v>604</v>
-      </c>
-      <c r="B4" s="29" t="s">
-        <v>605</v>
-      </c>
-      <c r="C4" s="29" t="s">
-        <v>606</v>
-      </c>
-      <c r="D4" s="29" t="s">
-        <v>611</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="29" t="s">
-        <v>602</v>
-      </c>
-      <c r="B5" s="29" t="s">
-        <v>602</v>
-      </c>
-      <c r="C5" s="29" t="s">
-        <v>607</v>
-      </c>
-      <c r="D5" s="29" t="s">
-        <v>609</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="29" t="s">
-        <v>603</v>
-      </c>
-      <c r="B6" s="29" t="s">
-        <v>603</v>
-      </c>
-      <c r="C6" s="29" t="s">
-        <v>608</v>
-      </c>
-      <c r="D6" s="29" t="s">
-        <v>610</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="29"/>
-      <c r="B7" s="29"/>
-      <c r="C7" s="29"/>
-      <c r="D7" s="29"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="29"/>
-      <c r="B8" s="29"/>
-      <c r="C8" s="29"/>
-      <c r="D8" s="29"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="29"/>
-      <c r="B9" s="29"/>
-      <c r="C9" s="29"/>
-      <c r="D9" s="29"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="29"/>
-      <c r="B10" s="29"/>
-      <c r="C10" s="29"/>
-      <c r="D10" s="11"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="29"/>
-      <c r="B11" s="29"/>
-      <c r="C11" s="29"/>
-      <c r="D11" s="14"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="29"/>
-      <c r="B12" s="29"/>
-      <c r="C12" s="29"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="29"/>
-      <c r="B13" s="29"/>
-      <c r="C13" s="29"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="29"/>
-      <c r="B14" s="29"/>
-      <c r="C14" s="29"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="29"/>
-      <c r="B15" s="29"/>
-      <c r="C15" s="29"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="29"/>
-      <c r="B16" s="29"/>
-      <c r="C16" s="29"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="29"/>
-      <c r="B17" s="29"/>
-      <c r="C17" s="29"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="29"/>
-      <c r="B18" s="29"/>
-      <c r="C18" s="29"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="29"/>
-      <c r="B19" s="29"/>
-      <c r="C19" s="29"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="29"/>
-      <c r="B20" s="29"/>
-      <c r="C20" s="29"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B2:C2"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="A1" location="业务字典!A1" display="&lt;&lt; 返回"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/tools-core/model/业务字典.xlsx
+++ b/tools-core/model/业务字典.xlsx
@@ -14533,7 +14533,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>

--- a/tools-core/model/业务字典.xlsx
+++ b/tools-core/model/业务字典.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25560" windowHeight="14740" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25560" windowHeight="14740" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="业务字典" sheetId="1" r:id="rId1"/>
@@ -47,23 +47,24 @@
     <sheet name="DICT_AC_ROLETYPE" sheetId="21" r:id="rId33"/>
     <sheet name="DICT_OM_PARTYTYPE" sheetId="20" r:id="rId34"/>
     <sheet name="DICT_YON" sheetId="19" r:id="rId35"/>
-    <sheet name="DICT_PROMOTING_ORIGIN" sheetId="18" r:id="rId36"/>
-    <sheet name="DICT_TRANS_ORIGIN" sheetId="17" r:id="rId37"/>
-    <sheet name="DICT_PROMOTING_FEEDBACK" sheetId="16" r:id="rId38"/>
-    <sheet name="DICT_PROMOTING_BIZ_TYPE" sheetId="15" r:id="rId39"/>
-    <sheet name="DICT_PREFILL_STATUS" sheetId="14" r:id="rId40"/>
-    <sheet name="DICT_QUEUE_BIZ_TYPE" sheetId="13" r:id="rId41"/>
-    <sheet name="DICT_TRANS_PHASE" sheetId="12" r:id="rId42"/>
-    <sheet name="DICT_ACTION_TYPE" sheetId="11" r:id="rId43"/>
-    <sheet name="DICT_BIZ_TYPE" sheetId="3" r:id="rId44"/>
-    <sheet name="DICT_TRANS_STATUS" sheetId="10" r:id="rId45"/>
-    <sheet name="DICT_CONTACT_MODE" sheetId="2" r:id="rId46"/>
-    <sheet name="DICT_SERVICE_STATUS" sheetId="4" r:id="rId47"/>
-    <sheet name="DICT_SERVICE_APPRAISE" sheetId="5" r:id="rId48"/>
-    <sheet name="DICT_SERVICE_TYPE" sheetId="6" r:id="rId49"/>
-    <sheet name="DICT_PAPER_TYPE" sheetId="7" r:id="rId50"/>
-    <sheet name="DICT_HSOTTRANS_STATUS" sheetId="8" r:id="rId51"/>
-    <sheet name="DICT_MSG_TYPE" sheetId="9" r:id="rId52"/>
+    <sheet name="DICT_TYPE" sheetId="53" r:id="rId36"/>
+    <sheet name="DICT_PROMOTING_ORIGIN" sheetId="18" r:id="rId37"/>
+    <sheet name="DICT_TRANS_ORIGIN" sheetId="17" r:id="rId38"/>
+    <sheet name="DICT_PROMOTING_FEEDBACK" sheetId="16" r:id="rId39"/>
+    <sheet name="DICT_PROMOTING_BIZ_TYPE" sheetId="15" r:id="rId40"/>
+    <sheet name="DICT_PREFILL_STATUS" sheetId="14" r:id="rId41"/>
+    <sheet name="DICT_QUEUE_BIZ_TYPE" sheetId="13" r:id="rId42"/>
+    <sheet name="DICT_TRANS_PHASE" sheetId="12" r:id="rId43"/>
+    <sheet name="DICT_ACTION_TYPE" sheetId="11" r:id="rId44"/>
+    <sheet name="DICT_BIZ_TYPE" sheetId="3" r:id="rId45"/>
+    <sheet name="DICT_TRANS_STATUS" sheetId="10" r:id="rId46"/>
+    <sheet name="DICT_CONTACT_MODE" sheetId="2" r:id="rId47"/>
+    <sheet name="DICT_SERVICE_STATUS" sheetId="4" r:id="rId48"/>
+    <sheet name="DICT_SERVICE_APPRAISE" sheetId="5" r:id="rId49"/>
+    <sheet name="DICT_SERVICE_TYPE" sheetId="6" r:id="rId50"/>
+    <sheet name="DICT_PAPER_TYPE" sheetId="7" r:id="rId51"/>
+    <sheet name="DICT_HSOTTRANS_STATUS" sheetId="8" r:id="rId52"/>
+    <sheet name="DICT_MSG_TYPE" sheetId="9" r:id="rId53"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">业务字典!$A$1:$F$18</definedName>
@@ -118,7 +119,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1303" uniqueCount="783">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1335" uniqueCount="804">
   <si>
     <t>银行业务的类型划分</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -4054,16 +4055,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>所属区域</t>
-    <rPh sb="0" eb="1">
-      <t>suo shu</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>qu y</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>应用</t>
   </si>
   <si>
@@ -6678,10 +6669,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>BS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>区域分行</t>
     <rPh sb="0" eb="1">
       <t>qu yu</t>
@@ -7428,6 +7415,267 @@
     </rPh>
     <rPh sb="21" eb="22">
       <t>zeng jia</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DICT_TYPE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>业务字典类型</t>
+    <rPh sb="0" eb="1">
+      <t>y wu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>zi dian</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>lei xing</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>应用级，系统级</t>
+    <rPh sb="0" eb="1">
+      <t>ying yong</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ji</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>xi tong</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ji</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>名称</t>
+    <rPh sb="0" eb="1">
+      <t>mign c</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <rPh sb="0" eb="1">
+      <t>shi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <rPh sb="0" eb="1">
+      <t>fou</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DICT_TYPE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统级</t>
+    <rPh sb="0" eb="1">
+      <t>xi tong</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ji</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>带业务含义的业务字典，应用开发时可扩展</t>
+  </si>
+  <si>
+    <t>平台自己的业务字典</t>
+  </si>
+  <si>
+    <t>站在银行的角度上定义接触方式</t>
+    <rPh sb="0" eb="1">
+      <t>zhan zai</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>yin hang</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>de</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>jiao du</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>shang</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ding yi</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>jie chu</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>fang shi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>因第三方业务使客户与银行有接触，如：4S店推荐贷款；</t>
+    <rPh sb="0" eb="1">
+      <t>yin</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>di san fng</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>y wu</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ke hu</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>yu</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>yin hang</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>you</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>jie chu</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ru</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>dian</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>tui jian</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>dai k</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>银行主动联系客户，如：现场营销活动推广等；</t>
+    <rPh sb="0" eb="1">
+      <t>yin hang</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>zhu dong</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>lian x</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ke hu</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ru</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>xain c</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ying xiao</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>huo dong</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>tui g</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>deng</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户主动接触银行，如：客户使用ATM，使用网银等自助渠道；</t>
+    <rPh sb="0" eb="1">
+      <t>ke hu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>zhu dong</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>jie chu</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>yin hang</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ru</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ke hu</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>shi yong</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>shi yong</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>wang yin</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>deng</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>营业网点</t>
+    <rPh sb="0" eb="1">
+      <t>ying y</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>wang d</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>90</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>90</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地区编码</t>
+    <rPh sb="0" eb="1">
+      <t>di qu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>bian ma</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -7512,7 +7760,7 @@
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -7534,6 +7782,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7595,7 +7849,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -7654,6 +7908,13 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -7665,9 +7926,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -11619,10 +11877,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G67"/>
+  <dimension ref="A1:G68"/>
   <sheetViews>
-    <sheetView topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="A52" sqref="A52"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11646,11 +11904,11 @@
       <c r="C1" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="22" t="s">
-        <v>444</v>
-      </c>
-      <c r="E1" s="22" t="s">
-        <v>447</v>
+      <c r="D1" s="30" t="s">
+        <v>443</v>
+      </c>
+      <c r="E1" s="30" t="s">
+        <v>446</v>
       </c>
       <c r="F1" s="23" t="s">
         <v>247</v>
@@ -11667,10 +11925,10 @@
         <v>0</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="E2" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="F2" s="17" t="s">
         <v>248</v>
@@ -11690,10 +11948,10 @@
         <v>57</v>
       </c>
       <c r="D3" s="17" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="E3" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="F3" s="17" t="s">
         <v>249</v>
@@ -11713,10 +11971,10 @@
         <v>99</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="E4" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="F4" s="17" t="s">
         <v>249</v>
@@ -11724,7 +11982,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>228</v>
@@ -11733,10 +11991,10 @@
         <v>126</v>
       </c>
       <c r="D5" s="17" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="E5" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="F5" s="17" t="s">
         <v>249</v>
@@ -11753,10 +12011,10 @@
         <v>130</v>
       </c>
       <c r="D6" s="17" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="E6" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="F6" s="17" t="s">
         <v>249</v>
@@ -11773,10 +12031,10 @@
         <v>213</v>
       </c>
       <c r="D7" s="17" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="E7" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="F7" s="17" t="s">
         <v>249</v>
@@ -11793,10 +12051,10 @@
         <v>56</v>
       </c>
       <c r="D8" s="17" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="E8" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="F8" s="17" t="s">
         <v>248</v>
@@ -11813,10 +12071,10 @@
         <v>55</v>
       </c>
       <c r="D9" s="17" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="E9" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="F9" s="17" t="s">
         <v>248</v>
@@ -11833,10 +12091,10 @@
         <v>54</v>
       </c>
       <c r="D10" s="17" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="E10" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="F10" s="17" t="s">
         <v>248</v>
@@ -11844,16 +12102,16 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>61</v>
       </c>
       <c r="D11" s="17" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="E11" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="F11" s="17" t="s">
         <v>248</v>
@@ -11870,10 +12128,10 @@
         <v>95</v>
       </c>
       <c r="D12" s="17" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="E12" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="F12" s="17" t="s">
         <v>249</v>
@@ -11890,10 +12148,10 @@
         <v>96</v>
       </c>
       <c r="D13" s="17" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="E13" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="F13" s="17" t="s">
         <v>249</v>
@@ -11910,10 +12168,10 @@
         <v>145</v>
       </c>
       <c r="D14" s="17" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="E14" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="F14" s="17" t="s">
         <v>248</v>
@@ -11927,13 +12185,13 @@
         <v>179</v>
       </c>
       <c r="C15" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="D15" s="17" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="E15" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="F15" s="17" t="s">
         <v>249</v>
@@ -11950,10 +12208,10 @@
         <v>251</v>
       </c>
       <c r="D16" s="17" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="E16" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="F16" s="17" t="s">
         <v>248</v>
@@ -11970,10 +12228,10 @@
         <v>205</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="E17" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="F17" s="17" t="s">
         <v>248</v>
@@ -11990,10 +12248,10 @@
         <v>235</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="E18" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="F18" s="17" t="s">
         <v>248</v>
@@ -12010,10 +12268,10 @@
         <v>253</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="E19" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="F19" s="17" t="s">
         <v>249</v>
@@ -12021,19 +12279,19 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
-        <v>271</v>
+        <v>781</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>257</v>
+        <v>782</v>
       </c>
       <c r="C20" t="s">
-        <v>270</v>
+        <v>783</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="E20" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="F20" s="17" t="s">
         <v>249</v>
@@ -12041,344 +12299,344 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
-        <v>437</v>
+        <v>271</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>427</v>
+        <v>257</v>
       </c>
       <c r="C21" t="s">
-        <v>484</v>
+        <v>270</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="E21" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="F21" s="17" t="s">
-        <v>442</v>
+        <v>249</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
-        <v>489</v>
+        <v>437</v>
       </c>
       <c r="B22" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="C22" t="s">
+        <v>483</v>
+      </c>
+      <c r="D22" s="17" t="s">
+        <v>445</v>
+      </c>
+      <c r="E22" t="s">
+        <v>453</v>
+      </c>
+      <c r="F22" s="17" t="s">
         <v>441</v>
-      </c>
-      <c r="D22" s="17" t="s">
-        <v>443</v>
-      </c>
-      <c r="E22" t="s">
-        <v>448</v>
-      </c>
-      <c r="F22" s="17" t="s">
-        <v>442</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
-        <v>459</v>
+        <v>488</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>461</v>
-      </c>
-      <c r="C23" t="s">
-        <v>462</v>
+        <v>803</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="E23" t="s">
-        <v>472</v>
+        <v>447</v>
       </c>
       <c r="F23" s="17" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
-        <v>473</v>
+        <v>458</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>470</v>
+        <v>460</v>
       </c>
       <c r="C24" t="s">
+        <v>461</v>
+      </c>
+      <c r="D24" s="17" t="s">
+        <v>445</v>
+      </c>
+      <c r="E24" t="s">
         <v>471</v>
       </c>
-      <c r="D24" s="17" t="s">
-        <v>446</v>
-      </c>
-      <c r="E24" t="s">
-        <v>472</v>
-      </c>
       <c r="F24" s="17" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
-        <v>540</v>
+        <v>472</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>488</v>
+        <v>469</v>
+      </c>
+      <c r="C25" t="s">
+        <v>470</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="E25" t="s">
-        <v>448</v>
+        <v>471</v>
       </c>
       <c r="F25" s="17" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
-        <v>509</v>
+        <v>539</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>506</v>
-      </c>
-      <c r="C26" t="s">
-        <v>508</v>
+        <v>487</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="E26" t="s">
-        <v>507</v>
+        <v>447</v>
       </c>
       <c r="F26" s="17" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
-        <v>714</v>
+        <v>508</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>643</v>
+        <v>505</v>
+      </c>
+      <c r="C27" t="s">
+        <v>507</v>
       </c>
       <c r="D27" s="17" t="s">
         <v>445</v>
       </c>
       <c r="E27" t="s">
-        <v>449</v>
+        <v>506</v>
       </c>
       <c r="F27" s="17" t="s">
-        <v>249</v>
+        <v>441</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
-        <v>699</v>
+        <v>713</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>701</v>
+        <v>642</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="E28" t="s">
         <v>448</v>
       </c>
       <c r="F28" s="17" t="s">
-        <v>442</v>
+        <v>249</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
-        <v>525</v>
+        <v>698</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>526</v>
-      </c>
-      <c r="C29" t="s">
-        <v>641</v>
+        <v>700</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="E29" t="s">
-        <v>527</v>
+        <v>447</v>
       </c>
       <c r="F29" s="17" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
-        <v>543</v>
+        <v>524</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>541</v>
+        <v>525</v>
+      </c>
+      <c r="C30" t="s">
+        <v>640</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="E30" t="s">
-        <v>448</v>
+        <v>526</v>
       </c>
       <c r="F30" s="17" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
-        <v>555</v>
+        <v>542</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>553</v>
-      </c>
-      <c r="C31" t="s">
-        <v>554</v>
+        <v>540</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="E31" t="s">
-        <v>507</v>
+        <v>447</v>
       </c>
       <c r="F31" s="17" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
-        <v>592</v>
+        <v>554</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>591</v>
+        <v>552</v>
       </c>
       <c r="C32" t="s">
-        <v>606</v>
+        <v>553</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="E32" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="F32" s="17" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
-        <v>607</v>
+        <v>591</v>
       </c>
       <c r="B33" s="2" t="s">
+        <v>590</v>
+      </c>
+      <c r="C33" t="s">
         <v>605</v>
       </c>
-      <c r="C33" t="s">
-        <v>640</v>
-      </c>
       <c r="D33" s="17" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="E33" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="F33" s="17" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
-        <v>619</v>
+        <v>606</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>617</v>
+        <v>604</v>
       </c>
       <c r="C34" t="s">
-        <v>618</v>
+        <v>639</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="E34" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="F34" s="17" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
-        <v>717</v>
+        <v>618</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>630</v>
+        <v>616</v>
       </c>
       <c r="C35" t="s">
-        <v>606</v>
+        <v>617</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="E35" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="F35" s="17" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
-        <v>635</v>
+        <v>716</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>638</v>
+        <v>629</v>
       </c>
       <c r="C36" t="s">
-        <v>640</v>
+        <v>605</v>
       </c>
       <c r="D36" s="17" t="s">
         <v>445</v>
       </c>
       <c r="E36" t="s">
-        <v>639</v>
+        <v>506</v>
       </c>
       <c r="F36" s="17" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
-        <v>273</v>
+        <v>634</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>272</v>
+        <v>637</v>
       </c>
       <c r="C37" t="s">
-        <v>291</v>
+        <v>639</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="E37" t="s">
-        <v>455</v>
+        <v>638</v>
       </c>
       <c r="F37" s="17" t="s">
-        <v>249</v>
+        <v>441</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
-        <v>282</v>
+        <v>273</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>281</v>
+        <v>272</v>
       </c>
       <c r="C38" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="E38" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="F38" s="17" t="s">
         <v>249</v>
@@ -12386,19 +12644,19 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
-        <v>294</v>
+        <v>282</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>293</v>
+        <v>281</v>
       </c>
       <c r="C39" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="E39" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="F39" s="17" t="s">
         <v>249</v>
@@ -12406,19 +12664,19 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
-        <v>684</v>
+        <v>294</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>686</v>
+        <v>293</v>
       </c>
       <c r="C40" t="s">
-        <v>687</v>
+        <v>295</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="E40" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="F40" s="17" t="s">
         <v>249</v>
@@ -12426,19 +12684,19 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
-        <v>311</v>
+        <v>683</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>309</v>
+        <v>685</v>
       </c>
       <c r="C41" t="s">
-        <v>310</v>
+        <v>686</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="E41" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="F41" s="17" t="s">
         <v>249</v>
@@ -12446,19 +12704,19 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
-        <v>319</v>
-      </c>
-      <c r="B42" t="s">
-        <v>320</v>
+        <v>311</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>309</v>
       </c>
       <c r="C42" t="s">
-        <v>321</v>
+        <v>310</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="E42" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="F42" s="17" t="s">
         <v>249</v>
@@ -12466,19 +12724,19 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
-        <v>334</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>335</v>
+        <v>319</v>
+      </c>
+      <c r="B43" t="s">
+        <v>320</v>
       </c>
       <c r="C43" t="s">
-        <v>336</v>
+        <v>321</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="E43" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="F43" s="17" t="s">
         <v>249</v>
@@ -12486,19 +12744,19 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
-        <v>353</v>
+        <v>334</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>354</v>
+        <v>335</v>
       </c>
       <c r="C44" t="s">
-        <v>372</v>
+        <v>336</v>
       </c>
       <c r="D44" s="17" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="E44" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="F44" s="17" t="s">
         <v>249</v>
@@ -12506,19 +12764,19 @@
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="s">
-        <v>373</v>
+        <v>353</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>374</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>375</v>
+        <v>354</v>
+      </c>
+      <c r="C45" t="s">
+        <v>372</v>
       </c>
       <c r="D45" s="17" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="E45" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="F45" s="17" t="s">
         <v>249</v>
@@ -12526,16 +12784,19 @@
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
-        <v>393</v>
+        <v>373</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>394</v>
+        <v>374</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>375</v>
       </c>
       <c r="D46" s="17" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="E46" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="F46" s="17" t="s">
         <v>249</v>
@@ -12543,19 +12804,16 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="s">
-        <v>655</v>
+        <v>393</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>653</v>
-      </c>
-      <c r="C47" t="s">
-        <v>654</v>
+        <v>394</v>
       </c>
       <c r="D47" s="17" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="E47" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="F47" s="17" t="s">
         <v>249</v>
@@ -12563,19 +12821,19 @@
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="s">
-        <v>668</v>
+        <v>654</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>666</v>
+        <v>652</v>
       </c>
       <c r="C48" t="s">
-        <v>667</v>
+        <v>653</v>
       </c>
       <c r="D48" s="17" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="E48" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="F48" s="17" t="s">
         <v>249</v>
@@ -12583,16 +12841,19 @@
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="s">
-        <v>415</v>
+        <v>667</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>416</v>
+        <v>665</v>
+      </c>
+      <c r="C49" t="s">
+        <v>666</v>
       </c>
       <c r="D49" s="17" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="E49" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="F49" s="17" t="s">
         <v>249</v>
@@ -12600,19 +12861,16 @@
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="s">
-        <v>733</v>
+        <v>415</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>732</v>
-      </c>
-      <c r="C50" t="s">
-        <v>756</v>
+        <v>416</v>
       </c>
       <c r="D50" s="17" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="E50" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="F50" s="17" t="s">
         <v>249</v>
@@ -12620,19 +12878,19 @@
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="s">
-        <v>767</v>
+        <v>731</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>755</v>
+        <v>730</v>
       </c>
       <c r="C51" t="s">
-        <v>763</v>
+        <v>754</v>
       </c>
       <c r="D51" s="17" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="E51" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="F51" s="17" t="s">
         <v>249</v>
@@ -12640,26 +12898,43 @@
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="B52" s="2" t="s">
+        <v>753</v>
+      </c>
+      <c r="C52" t="s">
         <v>761</v>
       </c>
-      <c r="C52" t="s">
-        <v>762</v>
-      </c>
       <c r="D52" s="17" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="E52" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="F52" s="17" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="E53"/>
+      <c r="A53" s="3" t="s">
+        <v>762</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>759</v>
+      </c>
+      <c r="C53" t="s">
+        <v>760</v>
+      </c>
+      <c r="D53" s="17" t="s">
+        <v>444</v>
+      </c>
+      <c r="E53" t="s">
+        <v>448</v>
+      </c>
+      <c r="F53" s="17" t="s">
+        <v>249</v>
+      </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="E54"/>
@@ -12702,15 +12977,18 @@
     </row>
     <row r="67" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E67"/>
+    </row>
+    <row r="68" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E68"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:F18"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F52">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F53">
       <formula1>"应用,系统"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D52">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D53">
       <formula1>"平台定义,需求提供,标准数据同步"</formula1>
     </dataValidation>
   </dataValidations>
@@ -12732,40 +13010,41 @@
     <hyperlink ref="A7" location="DICT_TRANS_ORIGIN!A1" display="DICT_TRANS_ORIGIN"/>
     <hyperlink ref="A18" location="DICT_PROMOTING_ORIGIN!A1" display="DICT_PROMOTING_FROM"/>
     <hyperlink ref="A19" location="DICT_YON!A1" display="DICT_YON"/>
-    <hyperlink ref="A20" location="DICT_OM_PARTYTYPE!A1" display="DICT_OM_PARTYTYPE"/>
-    <hyperlink ref="A37" location="DICT_AC_ROLETYPE!A1" display="DICT_AC_ROLETYPE"/>
-    <hyperlink ref="A38" location="DICT_AC_APPTYPE!A1" display="DICT_AC_APPTYPE"/>
-    <hyperlink ref="A39" location="DICT_AC_FUNCTYPE!A1" display="DICT_AC_FUNCTYPE"/>
-    <hyperlink ref="A41" location="DICT_AC_OPENMODE!A1" display="DICT_AC_OPENMODE"/>
-    <hyperlink ref="A42" location="DICT_AC_AUTHTYP!A1" display="DICT_AC_AUTHTYP"/>
-    <hyperlink ref="A43" location="DICT_AC_ENTITYTYPE!A1" display="DICT_AC_ENTITYTYPE"/>
-    <hyperlink ref="A44" location="DICT_AC_DATAOPTYPE!A1" display="DICT_AC_DATAOPTYPE"/>
-    <hyperlink ref="A45" location="DICT_AC_AUTHMODE!A1" display="DICT_AC_AUTHMODE"/>
-    <hyperlink ref="A46" location="DICT_AC_OPERATOR_STATUS!A1" display="DICT_AC_OPERATOR_STATUS"/>
-    <hyperlink ref="A49" location="DICT_AC_MENUTYPE!A1" display="DICT_AC_MENUTYPE"/>
-    <hyperlink ref="A21" location="DICT_OM_ORGSTATUS!A1" display="DICT_OM_ORGSTATUS"/>
-    <hyperlink ref="A23" location="DICT_OM_ORGDEGREE!A1" display="DICT_OM_ORGDEGREE"/>
-    <hyperlink ref="A24" location="DICT_OM_ORGTYPE!A1" display="DICT_OM_ORGTYPE"/>
-    <hyperlink ref="A25" location="DICT_SD_ZIPCODE!A1" display="DICT_SD_ZIPCODE"/>
-    <hyperlink ref="A22" location="DICT_SD_AREA!A1" display="DICT_SD_AREA"/>
-    <hyperlink ref="A26" location="DICT_OM_BUSIDOMAIN!A1" display="DICT_OM_BUSIDOMAIN"/>
-    <hyperlink ref="A29" location="DICT_OM_EMPSTATUS!A1" display="DICT_OM_EMPSTATUS"/>
-    <hyperlink ref="A30" location="DICT_SD_PARTY!A1" display="DICT_SD_PARTY"/>
-    <hyperlink ref="A31" location="DICT_OM_EMPDEGREE!A1" display="DICT_OM_EMPDEGREE"/>
-    <hyperlink ref="A32" location="DICT_OM_GROUPTYPE!A1" display="DICT_OM_GROUPTYPE"/>
-    <hyperlink ref="A33" location="DICT_OM_GROUPSTATUS!A1" display="DICT_OM_GROUPSTATUS"/>
-    <hyperlink ref="A35" location="DICT_OM_POSITYPE!A1" display="DICT_OM_POSITYPE"/>
-    <hyperlink ref="A34" location="DICT_OM_DUTYTYPE!A1" display="DICT_OM_DUTYTYPE"/>
-    <hyperlink ref="A36" location="DICT_OM_POSISTATUS!A1" display="DICT_OM_POSISTATUS"/>
-    <hyperlink ref="A47" location="DICT_AC_CONFIGTYPE!A1" display="DICT_AC_CONFIGTYPE"/>
-    <hyperlink ref="A48" location="DICT_AC_RESOURCETYPE!A1" display="DICT_AC_RESOURCETYPE"/>
-    <hyperlink ref="A40" location="DICT_AC_FUNCRESTYPE!A1" display="DICT_AC_FUNCRESTYPE"/>
-    <hyperlink ref="A28" location="DICT_OM_GENDER!A1" display="DICT_OM_GENDER"/>
-    <hyperlink ref="A27" location="DICT_OM_NODETYPE!A1" display="DICT_OM_NODETYPE"/>
-    <hyperlink ref="A50" location="DICT_SYS_RESET!A1" display="DICT_SYS_RESET"/>
+    <hyperlink ref="A21" location="DICT_OM_PARTYTYPE!A1" display="DICT_OM_PARTYTYPE"/>
+    <hyperlink ref="A38" location="DICT_AC_ROLETYPE!A1" display="DICT_AC_ROLETYPE"/>
+    <hyperlink ref="A39" location="DICT_AC_APPTYPE!A1" display="DICT_AC_APPTYPE"/>
+    <hyperlink ref="A40" location="DICT_AC_FUNCTYPE!A1" display="DICT_AC_FUNCTYPE"/>
+    <hyperlink ref="A42" location="DICT_AC_OPENMODE!A1" display="DICT_AC_OPENMODE"/>
+    <hyperlink ref="A43" location="DICT_AC_AUTHTYP!A1" display="DICT_AC_AUTHTYP"/>
+    <hyperlink ref="A44" location="DICT_AC_ENTITYTYPE!A1" display="DICT_AC_ENTITYTYPE"/>
+    <hyperlink ref="A45" location="DICT_AC_DATAOPTYPE!A1" display="DICT_AC_DATAOPTYPE"/>
+    <hyperlink ref="A46" location="DICT_AC_AUTHMODE!A1" display="DICT_AC_AUTHMODE"/>
+    <hyperlink ref="A47" location="DICT_AC_OPERATOR_STATUS!A1" display="DICT_AC_OPERATOR_STATUS"/>
+    <hyperlink ref="A50" location="DICT_AC_MENUTYPE!A1" display="DICT_AC_MENUTYPE"/>
+    <hyperlink ref="A22" location="DICT_OM_ORGSTATUS!A1" display="DICT_OM_ORGSTATUS"/>
+    <hyperlink ref="A24" location="DICT_OM_ORGDEGREE!A1" display="DICT_OM_ORGDEGREE"/>
+    <hyperlink ref="A25" location="DICT_OM_ORGTYPE!A1" display="DICT_OM_ORGTYPE"/>
+    <hyperlink ref="A26" location="DICT_SD_ZIPCODE!A1" display="DICT_SD_ZIPCODE"/>
+    <hyperlink ref="A23" location="DICT_SD_AREA!A1" display="DICT_SD_AREA"/>
+    <hyperlink ref="A27" location="DICT_OM_BUSIDOMAIN!A1" display="DICT_OM_BUSIDOMAIN"/>
+    <hyperlink ref="A30" location="DICT_OM_EMPSTATUS!A1" display="DICT_OM_EMPSTATUS"/>
+    <hyperlink ref="A31" location="DICT_SD_PARTY!A1" display="DICT_SD_PARTY"/>
+    <hyperlink ref="A32" location="DICT_OM_EMPDEGREE!A1" display="DICT_OM_EMPDEGREE"/>
+    <hyperlink ref="A33" location="DICT_OM_GROUPTYPE!A1" display="DICT_OM_GROUPTYPE"/>
+    <hyperlink ref="A34" location="DICT_OM_GROUPSTATUS!A1" display="DICT_OM_GROUPSTATUS"/>
+    <hyperlink ref="A36" location="DICT_OM_POSITYPE!A1" display="DICT_OM_POSITYPE"/>
+    <hyperlink ref="A35" location="DICT_OM_DUTYTYPE!A1" display="DICT_OM_DUTYTYPE"/>
+    <hyperlink ref="A37" location="DICT_OM_POSISTATUS!A1" display="DICT_OM_POSISTATUS"/>
+    <hyperlink ref="A48" location="DICT_AC_CONFIGTYPE!A1" display="DICT_AC_CONFIGTYPE"/>
+    <hyperlink ref="A49" location="DICT_AC_RESOURCETYPE!A1" display="DICT_AC_RESOURCETYPE"/>
+    <hyperlink ref="A41" location="DICT_AC_FUNCRESTYPE!A1" display="DICT_AC_FUNCRESTYPE"/>
+    <hyperlink ref="A29" location="DICT_OM_GENDER!A1" display="DICT_OM_GENDER"/>
+    <hyperlink ref="A28" location="DICT_OM_NODETYPE!A1" display="DICT_OM_NODETYPE"/>
+    <hyperlink ref="A51" location="DICT_SYS_RESET!A1" display="DICT_SYS_RESET"/>
     <hyperlink ref="A5" location="DICT_ACTION_TYPE!A1" display="DICT_ACTION_TYPE"/>
-    <hyperlink ref="A51" location="DICT_OPERATOR_TYPE!A1" display="DICT_OPERATOR_TYPE"/>
-    <hyperlink ref="A52" location="DICT_OPERATOR_RESULT!A1" display="DICT_OPERATOR_RESULT"/>
+    <hyperlink ref="A52" location="DICT_OPERATOR_TYPE!A1" display="DICT_OPERATOR_TYPE"/>
+    <hyperlink ref="A53" location="DICT_OPERATOR_RESULT!A1" display="DICT_OPERATOR_RESULT"/>
+    <hyperlink ref="A20" location="DICT_TYPE!A1" display="DICT_TYPE"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -12793,12 +13072,12 @@
     </row>
     <row r="2" spans="1:4" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
-        <v>637</v>
-      </c>
-      <c r="B2" s="28" t="s">
         <v>636</v>
       </c>
-      <c r="C2" s="28"/>
+      <c r="B2" s="31" t="s">
+        <v>635</v>
+      </c>
+      <c r="C2" s="31"/>
       <c r="D2" s="24"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -12817,30 +13096,30 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="25" t="s">
+        <v>610</v>
+      </c>
+      <c r="B4" s="25" t="s">
         <v>611</v>
-      </c>
-      <c r="B4" s="25" t="s">
-        <v>612</v>
       </c>
       <c r="C4" s="25" t="s">
         <v>399</v>
       </c>
       <c r="D4" s="25" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="25" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="B5" s="25" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="C5" s="25" t="s">
         <v>401</v>
       </c>
       <c r="D5" s="25" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -12958,14 +13237,14 @@
     </row>
     <row r="2" spans="1:4" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
-        <v>632</v>
-      </c>
-      <c r="B2" s="28" t="s">
         <v>631</v>
       </c>
-      <c r="C2" s="28"/>
+      <c r="B2" s="31" t="s">
+        <v>630</v>
+      </c>
+      <c r="C2" s="31"/>
       <c r="D2" s="24" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -12984,25 +13263,25 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="26" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="B4" s="26" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="C4" s="25" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="D4" s="25"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="26" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B5" s="26" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="C5" s="25" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="D5" s="25"/>
     </row>
@@ -13120,14 +13399,14 @@
     </row>
     <row r="2" spans="1:4" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
+        <v>619</v>
+      </c>
+      <c r="B2" s="31" t="s">
+        <v>715</v>
+      </c>
+      <c r="C2" s="31"/>
+      <c r="D2" s="24" t="s">
         <v>620</v>
-      </c>
-      <c r="B2" s="28" t="s">
-        <v>716</v>
-      </c>
-      <c r="C2" s="28"/>
-      <c r="D2" s="24" t="s">
-        <v>621</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -13146,61 +13425,61 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="26" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="B4" s="26" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="C4" s="25" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="D4" s="25"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="26" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B5" s="26" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="C5" s="25" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="D5" s="25"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="26" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="B6" s="26" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="C6" s="25" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="D6" s="25"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="26" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="B7" s="26" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="C7" s="25" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="D7" s="25"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="26" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="B8" s="26" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="C8" s="25" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="D8" s="25"/>
     </row>
@@ -13300,14 +13579,14 @@
     </row>
     <row r="2" spans="1:4" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
+        <v>608</v>
+      </c>
+      <c r="B2" s="31" t="s">
+        <v>607</v>
+      </c>
+      <c r="C2" s="31"/>
+      <c r="D2" s="24" t="s">
         <v>609</v>
-      </c>
-      <c r="B2" s="28" t="s">
-        <v>608</v>
-      </c>
-      <c r="C2" s="28"/>
-      <c r="D2" s="24" t="s">
-        <v>610</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -13326,30 +13605,30 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="25" t="s">
+        <v>610</v>
+      </c>
+      <c r="B4" s="25" t="s">
         <v>611</v>
-      </c>
-      <c r="B4" s="25" t="s">
-        <v>612</v>
       </c>
       <c r="C4" s="25" t="s">
         <v>399</v>
       </c>
       <c r="D4" s="25" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="25" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="B5" s="25" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="C5" s="25" t="s">
         <v>401</v>
       </c>
       <c r="D5" s="25" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -13467,14 +13746,14 @@
     </row>
     <row r="2" spans="1:4" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
-        <v>594</v>
-      </c>
-      <c r="B2" s="28" t="s">
-        <v>718</v>
-      </c>
-      <c r="C2" s="28"/>
+        <v>593</v>
+      </c>
+      <c r="B2" s="31" t="s">
+        <v>717</v>
+      </c>
+      <c r="C2" s="31"/>
       <c r="D2" s="24" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -13493,44 +13772,44 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="25" t="s">
+        <v>596</v>
+      </c>
+      <c r="B4" s="25" t="s">
         <v>597</v>
       </c>
-      <c r="B4" s="25" t="s">
+      <c r="C4" s="25" t="s">
         <v>598</v>
       </c>
-      <c r="C4" s="25" t="s">
-        <v>599</v>
-      </c>
       <c r="D4" s="25" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="25" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="B5" s="25" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="C5" s="25" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="D5" s="25" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="25" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="B6" s="25" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C6" s="25" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="D6" s="25" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -13641,14 +13920,14 @@
     </row>
     <row r="2" spans="1:4" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
-        <v>556</v>
-      </c>
-      <c r="B2" s="28" t="s">
-        <v>715</v>
-      </c>
-      <c r="C2" s="28"/>
+        <v>555</v>
+      </c>
+      <c r="B2" s="31" t="s">
+        <v>714</v>
+      </c>
+      <c r="C2" s="31"/>
       <c r="D2" s="24" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -13667,186 +13946,186 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="25" t="s">
+        <v>558</v>
+      </c>
+      <c r="B4" s="25" t="s">
+        <v>558</v>
+      </c>
+      <c r="C4" s="25" t="s">
         <v>559</v>
-      </c>
-      <c r="B4" s="25" t="s">
-        <v>559</v>
-      </c>
-      <c r="C4" s="25" t="s">
-        <v>560</v>
       </c>
       <c r="D4" s="25"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="25" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="B5" s="25" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="C5" s="25" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="D5" s="25"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="25" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B6" s="25" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="C6" s="25" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="D6" s="25"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="25" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="B7" s="25" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="C7" s="25" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="D7" s="25"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="25" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="B8" s="25" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="C8" s="25" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="D8" s="25"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="25" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B9" s="25" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="C9" s="25" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="D9" s="25"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="25" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="B10" s="25" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="C10" s="25" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="D10" s="11"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="25" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="B11" s="25" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="C11" s="25" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="D11" s="14"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="25" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="B12" s="25" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C12" s="25" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="25" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="B13" s="25" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="C13" s="25" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="25" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B14" s="25" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="C14" s="25" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="25" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="B15" s="25" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="C15" s="25" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="25" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="B16" s="25" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="C16" s="25" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="25" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="B17" s="25" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="C17" s="25" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="25" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="B18" s="25" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="C18" s="25" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="25" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="B19" s="25" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="C19" s="25" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
@@ -13887,14 +14166,14 @@
     </row>
     <row r="2" spans="1:4" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
-        <v>526</v>
-      </c>
-      <c r="B2" s="28" t="s">
+        <v>525</v>
+      </c>
+      <c r="B2" s="31" t="s">
+        <v>527</v>
+      </c>
+      <c r="C2" s="31"/>
+      <c r="D2" s="24" t="s">
         <v>528</v>
-      </c>
-      <c r="C2" s="28"/>
-      <c r="D2" s="24" t="s">
-        <v>529</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -13913,44 +14192,44 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="C4" s="25" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="D4" s="25" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="C5" s="25" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="D5" s="25" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="C6" s="25" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="D6" s="25" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -14051,12 +14330,12 @@
     </row>
     <row r="2" spans="1:4" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
-        <v>544</v>
-      </c>
-      <c r="B2" s="28" t="s">
-        <v>542</v>
-      </c>
-      <c r="C2" s="28"/>
+        <v>543</v>
+      </c>
+      <c r="B2" s="31" t="s">
+        <v>541</v>
+      </c>
+      <c r="C2" s="31"/>
       <c r="D2" s="24"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -14075,37 +14354,37 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="C4" s="25" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="D4" s="25"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="C5" s="25" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="D5" s="25"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="C6" s="25" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="D6" s="25"/>
     </row>
@@ -14113,7 +14392,7 @@
       <c r="A7" s="5"/>
       <c r="B7" s="5"/>
       <c r="C7" s="25" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="D7" s="25"/>
     </row>
@@ -14208,14 +14487,14 @@
     </row>
     <row r="2" spans="1:4" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
+        <v>510</v>
+      </c>
+      <c r="B2" s="31" t="s">
+        <v>509</v>
+      </c>
+      <c r="C2" s="31"/>
+      <c r="D2" s="24" t="s">
         <v>511</v>
-      </c>
-      <c r="B2" s="28" t="s">
-        <v>510</v>
-      </c>
-      <c r="C2" s="28"/>
-      <c r="D2" s="24" t="s">
-        <v>512</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -14234,67 +14513,67 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
+        <v>512</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>512</v>
+      </c>
+      <c r="C4" s="25" t="s">
         <v>513</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>513</v>
-      </c>
-      <c r="C4" s="25" t="s">
-        <v>514</v>
       </c>
       <c r="D4" s="25"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="C5" s="25" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="D5" s="25"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="C6" s="25" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="D6" s="25"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
+        <v>519</v>
+      </c>
+      <c r="B7" s="5" t="s">
         <v>520</v>
       </c>
-      <c r="B7" s="5" t="s">
-        <v>521</v>
-      </c>
       <c r="C7" s="25" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="D7" s="25"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="C8" s="25" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="D8" s="25"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
@@ -14379,14 +14658,14 @@
     </row>
     <row r="2" spans="1:4" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
-        <v>488</v>
-      </c>
-      <c r="B2" s="28" t="s">
-        <v>490</v>
-      </c>
-      <c r="C2" s="28"/>
+        <v>487</v>
+      </c>
+      <c r="B2" s="31" t="s">
+        <v>489</v>
+      </c>
+      <c r="C2" s="31"/>
       <c r="D2" s="24" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -14412,7 +14691,7 @@
       </c>
       <c r="C4" s="25"/>
       <c r="D4" s="25" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -14424,7 +14703,7 @@
       </c>
       <c r="C5" s="25"/>
       <c r="D5" s="25" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -14436,7 +14715,7 @@
       </c>
       <c r="C6" s="25"/>
       <c r="D6" s="25" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -14448,7 +14727,7 @@
       </c>
       <c r="C7" s="25"/>
       <c r="D7" s="25" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -14460,12 +14739,12 @@
       </c>
       <c r="C8" s="25"/>
       <c r="D8" s="25" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
@@ -14533,9 +14812,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
-    </sheetView>
+    <sheetView zoomScale="125" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -14552,12 +14829,12 @@
     </row>
     <row r="2" spans="1:4" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
-        <v>761</v>
-      </c>
-      <c r="B2" s="28" t="s">
-        <v>765</v>
-      </c>
-      <c r="C2" s="28"/>
+        <v>759</v>
+      </c>
+      <c r="B2" s="31" t="s">
+        <v>763</v>
+      </c>
+      <c r="C2" s="31"/>
       <c r="D2" s="24"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -14576,44 +14853,44 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="26" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="B4" s="26" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="C4" s="25" t="s">
         <v>77</v>
       </c>
       <c r="D4" s="25" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="26" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="B5" s="26" t="s">
+        <v>770</v>
+      </c>
+      <c r="C5" s="25" t="s">
         <v>772</v>
       </c>
-      <c r="C5" s="25" t="s">
+      <c r="D5" s="25" t="s">
         <v>774</v>
-      </c>
-      <c r="D5" s="25" t="s">
-        <v>776</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="25" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="B6" s="25" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="C6" s="25" t="s">
+        <v>773</v>
+      </c>
+      <c r="D6" s="25" t="s">
         <v>775</v>
-      </c>
-      <c r="D6" s="25" t="s">
-        <v>777</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -14713,9 +14990,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D24"/>
   <sheetViews>
-    <sheetView zoomScale="125" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
-    </sheetView>
+    <sheetView zoomScale="125" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -14732,14 +15007,14 @@
     </row>
     <row r="2" spans="1:4" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
-        <v>492</v>
-      </c>
-      <c r="B2" s="28" t="s">
         <v>491</v>
       </c>
-      <c r="C2" s="28"/>
+      <c r="B2" s="31" t="s">
+        <v>490</v>
+      </c>
+      <c r="C2" s="31"/>
       <c r="D2" s="24" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -14758,31 +15033,31 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
+        <v>493</v>
+      </c>
+      <c r="B4" s="5" t="s">
         <v>494</v>
       </c>
-      <c r="B4" s="5" t="s">
-        <v>495</v>
-      </c>
       <c r="C4" s="5" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="D4" s="5"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="D5" s="5"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
@@ -14915,14 +15190,14 @@
     </row>
     <row r="2" spans="1:4" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
-        <v>470</v>
-      </c>
-      <c r="B2" s="28" t="s">
-        <v>474</v>
-      </c>
-      <c r="C2" s="28"/>
+        <v>469</v>
+      </c>
+      <c r="B2" s="31" t="s">
+        <v>473</v>
+      </c>
+      <c r="C2" s="31"/>
       <c r="D2" s="24" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -14941,56 +15216,62 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="D4" s="5"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="D5" s="5"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="D6" s="5"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="D7" s="5"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="5"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
+      <c r="A8" s="5" t="s">
+        <v>800</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>801</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>799</v>
+      </c>
       <c r="D8" s="5"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -15108,12 +15389,12 @@
     </row>
     <row r="2" spans="1:4" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
-        <v>461</v>
-      </c>
-      <c r="B2" s="28" t="s">
         <v>460</v>
       </c>
-      <c r="C2" s="28"/>
+      <c r="B2" s="31" t="s">
+        <v>459</v>
+      </c>
+      <c r="C2" s="31"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
@@ -15131,72 +15412,72 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>724</v>
+        <v>802</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B7" s="5" t="s">
+        <v>722</v>
+      </c>
+      <c r="C7" s="5" t="s">
         <v>723</v>
       </c>
-      <c r="C7" s="5" t="s">
-        <v>725</v>
-      </c>
       <c r="D7" s="5" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -15316,12 +15597,12 @@
       <c r="A2" s="15" t="s">
         <v>427</v>
       </c>
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="31" t="s">
         <v>438</v>
       </c>
-      <c r="C2" s="28"/>
+      <c r="C2" s="31"/>
       <c r="D2" s="27" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -15510,10 +15791,10 @@
       <c r="A2" s="15" t="s">
         <v>416</v>
       </c>
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="31" t="s">
         <v>417</v>
       </c>
-      <c r="C2" s="28"/>
+      <c r="C2" s="31"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
@@ -15694,10 +15975,10 @@
       <c r="A2" s="15" t="s">
         <v>394</v>
       </c>
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="31" t="s">
         <v>395</v>
       </c>
-      <c r="C2" s="28"/>
+      <c r="C2" s="31"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
@@ -15909,10 +16190,10 @@
       <c r="A2" s="15" t="s">
         <v>374</v>
       </c>
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="31" t="s">
         <v>376</v>
       </c>
-      <c r="C2" s="28"/>
+      <c r="C2" s="31"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
@@ -16119,10 +16400,10 @@
       <c r="A2" s="15" t="s">
         <v>354</v>
       </c>
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="31" t="s">
         <v>355</v>
       </c>
-      <c r="C2" s="28"/>
+      <c r="C2" s="31"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
@@ -16307,10 +16588,10 @@
       <c r="A2" s="15" t="s">
         <v>335</v>
       </c>
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="31" t="s">
         <v>347</v>
       </c>
-      <c r="C2" s="28"/>
+      <c r="C2" s="31"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
@@ -16484,10 +16765,10 @@
       <c r="A2" s="15" t="s">
         <v>323</v>
       </c>
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="31" t="s">
         <v>322</v>
       </c>
-      <c r="C2" s="28"/>
+      <c r="C2" s="31"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
@@ -16641,14 +16922,14 @@
     </row>
     <row r="2" spans="1:4" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
-        <v>768</v>
-      </c>
-      <c r="B2" s="28" t="s">
         <v>766</v>
       </c>
-      <c r="C2" s="28"/>
+      <c r="B2" s="31" t="s">
+        <v>764</v>
+      </c>
+      <c r="C2" s="31"/>
       <c r="D2" s="24" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -16667,10 +16948,10 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="26" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="B4" s="26" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="C4" s="25" t="s">
         <v>367</v>
@@ -16679,37 +16960,37 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="26" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="B5" s="26" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="C5" s="25" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="D5" s="25"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="25" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="B6" s="25" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="C6" s="25" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="D6" s="25"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="26" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="B7" s="26" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="C7" s="25" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="D7" s="25"/>
     </row>
@@ -16825,10 +17106,10 @@
       <c r="A2" s="15" t="s">
         <v>308</v>
       </c>
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="31" t="s">
         <v>312</v>
       </c>
-      <c r="C2" s="28"/>
+      <c r="C2" s="31"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
@@ -16986,10 +17267,10 @@
       <c r="A2" s="15" t="s">
         <v>284</v>
       </c>
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="31" t="s">
         <v>307</v>
       </c>
-      <c r="C2" s="28"/>
+      <c r="C2" s="31"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
@@ -17159,10 +17440,10 @@
       <c r="A2" s="15" t="s">
         <v>284</v>
       </c>
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="31" t="s">
         <v>283</v>
       </c>
-      <c r="C2" s="28"/>
+      <c r="C2" s="31"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
@@ -17318,10 +17599,10 @@
       <c r="A2" s="15" t="s">
         <v>257</v>
       </c>
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="31" t="s">
         <v>274</v>
       </c>
-      <c r="C2" s="28"/>
+      <c r="C2" s="31"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
@@ -17477,10 +17758,10 @@
       <c r="A2" s="15" t="s">
         <v>257</v>
       </c>
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="31" t="s">
         <v>258</v>
       </c>
-      <c r="C2" s="28"/>
+      <c r="C2" s="31"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
@@ -17627,33 +17908,37 @@
 
 <file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D22"/>
+  <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="16.5" customWidth="1"/>
     <col min="2" max="2" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="49.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.1640625" customWidth="1"/>
+    <col min="3" max="3" width="13.33203125" customWidth="1"/>
+    <col min="4" max="4" width="49.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="31.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="18" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
         <v>252</v>
       </c>
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="31" t="s">
         <v>254</v>
       </c>
-      <c r="C2" s="28"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>7</v>
       </c>
@@ -17661,10 +17946,13 @@
         <v>8</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+        <v>784</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>255</v>
       </c>
@@ -17672,10 +17960,13 @@
         <v>330</v>
       </c>
       <c r="C4" s="5" t="s">
+        <v>785</v>
+      </c>
+      <c r="D4" s="5" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>256</v>
       </c>
@@ -17683,98 +17974,118 @@
         <v>331</v>
       </c>
       <c r="C5" s="5" t="s">
+        <v>786</v>
+      </c>
+      <c r="D5" s="5" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="5"/>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
-    </row>
-    <row r="7" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="D6" s="5"/>
+    </row>
+    <row r="7" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="8"/>
       <c r="B7" s="8"/>
-      <c r="C7" s="5"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C7" s="8"/>
+      <c r="D7" s="5"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="5"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
-      <c r="D8" s="14"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D8" s="5"/>
+      <c r="E8" s="14"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="5"/>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D9" s="5"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="5"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D10" s="5"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="5"/>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D11" s="5"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="5"/>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D12" s="5"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="5"/>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D13" s="5"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="5"/>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D14" s="5"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="5"/>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D15" s="5"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="5"/>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D16" s="5"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="5"/>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D17" s="5"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="5"/>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D18" s="5"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="5"/>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D19" s="5"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="5"/>
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D20" s="5"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="5"/>
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D21" s="5"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="5"/>
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B2:D2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -17786,7 +18097,7 @@
 
 <file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D22"/>
+  <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -17794,25 +18105,27 @@
   <cols>
     <col min="1" max="1" width="16.5" customWidth="1"/>
     <col min="2" max="2" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="49.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.1640625" customWidth="1"/>
+    <col min="3" max="3" width="13.33203125" customWidth="1"/>
+    <col min="4" max="4" width="49.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="31.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="18" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
-        <v>234</v>
-      </c>
-      <c r="B2" s="28" t="s">
-        <v>236</v>
-      </c>
-      <c r="C2" s="28"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+        <v>782</v>
+      </c>
+      <c r="B2" s="31" t="s">
+        <v>787</v>
+      </c>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>7</v>
       </c>
@@ -17820,128 +18133,146 @@
         <v>8</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+        <v>784</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
-        <v>242</v>
+        <v>788</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>240</v>
+        <v>790</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+        <v>792</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
-        <v>238</v>
+        <v>789</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>238</v>
+        <v>791</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="5" t="s">
-        <v>243</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>244</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+        <v>276</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="5"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+    </row>
+    <row r="7" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="8"/>
       <c r="B7" s="8"/>
-      <c r="C7" s="5" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C7" s="8"/>
+      <c r="D7" s="5"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="5"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
-      <c r="D8" s="14"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D8" s="5"/>
+      <c r="E8" s="14"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="5"/>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D9" s="5"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="5"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D10" s="5"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="5"/>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D11" s="5"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="5"/>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D12" s="5"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="5"/>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D13" s="5"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="5"/>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D14" s="5"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="5"/>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D15" s="5"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="5"/>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D16" s="5"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="5"/>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D17" s="5"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="5"/>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D18" s="5"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="5"/>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D19" s="5"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="5"/>
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D20" s="5"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="5"/>
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D21" s="5"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="5"/>
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B2:D2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -17972,12 +18303,12 @@
     </row>
     <row r="2" spans="1:4" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
-        <v>212</v>
-      </c>
-      <c r="B2" s="28" t="s">
-        <v>215</v>
-      </c>
-      <c r="C2" s="28"/>
+        <v>234</v>
+      </c>
+      <c r="B2" s="31" t="s">
+        <v>236</v>
+      </c>
+      <c r="C2" s="31"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
@@ -17992,46 +18323,42 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
-        <v>216</v>
+        <v>242</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>217</v>
+        <v>240</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>222</v>
+        <v>241</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
-        <v>218</v>
+        <v>238</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>218</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>223</v>
+        <v>238</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
-        <v>219</v>
+        <v>243</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>219</v>
+        <v>244</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>224</v>
+        <v>245</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A7" s="8" t="s">
-        <v>220</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>221</v>
-      </c>
+      <c r="A7" s="8"/>
+      <c r="B7" s="8"/>
       <c r="C7" s="5" t="s">
-        <v>225</v>
+        <v>246</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -18130,25 +18457,25 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="24.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.5" customWidth="1"/>
     <col min="2" max="2" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="43.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="49.83203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="31.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="19" t="s">
+    <row r="1" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="18" t="s">
         <v>250</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="16" t="s">
-        <v>208</v>
-      </c>
-      <c r="B2" s="28" t="s">
-        <v>206</v>
-      </c>
-      <c r="C2" s="28"/>
+      <c r="A2" s="15" t="s">
+        <v>212</v>
+      </c>
+      <c r="B2" s="31" t="s">
+        <v>215</v>
+      </c>
+      <c r="C2" s="31"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
@@ -18163,58 +18490,52 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
-        <v>196</v>
+        <v>216</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>196</v>
+        <v>217</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>209</v>
+        <v>222</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
-        <v>197</v>
+        <v>218</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>204</v>
+        <v>218</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
-        <v>198</v>
+        <v>219</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>198</v>
+        <v>219</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>203</v>
+        <v>224</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="8" t="s">
-        <v>199</v>
+        <v>220</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>199</v>
+        <v>221</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>202</v>
+        <v>225</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="5" t="s">
-        <v>200</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>200</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>201</v>
-      </c>
+      <c r="A8" s="5"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
       <c r="D8" s="14"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -18308,24 +18629,24 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="24.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.6640625" customWidth="1"/>
-    <col min="3" max="3" width="40.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="43.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="31.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="18" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="19" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="6" t="s">
-        <v>188</v>
-      </c>
-      <c r="B2" s="29" t="s">
-        <v>187</v>
-      </c>
-      <c r="C2" s="29"/>
+    <row r="2" spans="1:4" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="16" t="s">
+        <v>208</v>
+      </c>
+      <c r="B2" s="31" t="s">
+        <v>206</v>
+      </c>
+      <c r="C2" s="31"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
@@ -18340,42 +18661,58 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>191</v>
+        <v>204</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="5"/>
-      <c r="B6" s="5"/>
+      <c r="A6" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>198</v>
+      </c>
       <c r="C6" s="5" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="5"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
+        <v>203</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A7" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>202</v>
+      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="5"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
+      <c r="A8" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>201</v>
+      </c>
       <c r="D8" s="14"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -18481,12 +18818,12 @@
     </row>
     <row r="2" spans="1:4" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
-        <v>701</v>
-      </c>
-      <c r="B2" s="28" t="s">
-        <v>734</v>
-      </c>
-      <c r="C2" s="28"/>
+        <v>700</v>
+      </c>
+      <c r="B2" s="31" t="s">
+        <v>732</v>
+      </c>
+      <c r="C2" s="31"/>
       <c r="D2" s="24"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -18505,58 +18842,58 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="26" t="s">
+        <v>745</v>
+      </c>
+      <c r="B4" s="26" t="s">
+        <v>746</v>
+      </c>
+      <c r="C4" s="25" t="s">
         <v>747</v>
       </c>
-      <c r="B4" s="26" t="s">
+      <c r="D4" s="25" t="s">
         <v>748</v>
-      </c>
-      <c r="C4" s="25" t="s">
-        <v>749</v>
-      </c>
-      <c r="D4" s="25" t="s">
-        <v>750</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="26" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="B5" s="26" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="C5" s="25" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="D5" s="25" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="25" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="B6" s="25" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="C6" s="25" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="D6" s="25" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="26" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="B7" s="26" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="C7" s="25" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="D7" s="25" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -18654,9 +18991,9 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.6640625" customWidth="1"/>
-    <col min="3" max="3" width="67.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="40.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="31.1640625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -18667,12 +19004,12 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="B2" s="29" t="s">
-        <v>178</v>
-      </c>
-      <c r="C2" s="29"/>
+        <v>188</v>
+      </c>
+      <c r="B2" s="32" t="s">
+        <v>187</v>
+      </c>
+      <c r="C2" s="32"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
@@ -18687,35 +19024,31 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>182</v>
+        <v>193</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
-        <v>183</v>
+        <v>192</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>183</v>
+        <v>194</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>210</v>
+        <v>191</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="5" t="s">
-        <v>185</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>185</v>
-      </c>
+      <c r="A6" s="5"/>
+      <c r="B6" s="5"/>
       <c r="C6" s="5" t="s">
-        <v>211</v>
+        <v>195</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -18819,9 +19152,9 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="24.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.6640625" customWidth="1"/>
-    <col min="3" max="3" width="40.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="67.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="31.1640625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -18832,12 +19165,12 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="B2" s="29" t="s">
-        <v>147</v>
-      </c>
-      <c r="C2" s="29"/>
+        <v>181</v>
+      </c>
+      <c r="B2" s="32" t="s">
+        <v>178</v>
+      </c>
+      <c r="C2" s="32"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
@@ -18852,114 +19185,72 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
-        <v>168</v>
+        <v>182</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>158</v>
+        <v>182</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>148</v>
+        <v>184</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
-        <v>169</v>
+        <v>183</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>159</v>
+        <v>183</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>149</v>
+        <v>210</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
-        <v>170</v>
+        <v>185</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>160</v>
+        <v>185</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>150</v>
+        <v>211</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>151</v>
-      </c>
+      <c r="A7" s="5"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="5" t="s">
-        <v>172</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>152</v>
-      </c>
+      <c r="A8" s="5"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
       <c r="D8" s="14"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="5" t="s">
-        <v>173</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>153</v>
-      </c>
+      <c r="A9" s="5"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="5" t="s">
-        <v>174</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>164</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>154</v>
-      </c>
+      <c r="A10" s="5"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="5" t="s">
-        <v>176</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>155</v>
-      </c>
+      <c r="A11" s="5"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>166</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>156</v>
-      </c>
+      <c r="A12" s="5"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="5" t="s">
-        <v>177</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>167</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>157</v>
-      </c>
+      <c r="A13" s="5"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="5"/>
@@ -19019,6 +19310,213 @@
 </file>
 
 <file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="24.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.6640625" customWidth="1"/>
+    <col min="3" max="3" width="40.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="18" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="B2" s="32" t="s">
+        <v>147</v>
+      </c>
+      <c r="C2" s="32"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="D8" s="14"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="5"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="5"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="5"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="5"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" s="5"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" s="5"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" s="5"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" s="5"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" s="5"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B2:C2"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="A1" location="业务字典!A1" display="&lt;&lt; 返回"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D25"/>
   <sheetViews>
@@ -19041,10 +19539,10 @@
       <c r="A2" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="B2" s="29" t="s">
+      <c r="B2" s="32" t="s">
         <v>128</v>
       </c>
-      <c r="C2" s="29"/>
+      <c r="C2" s="32"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
@@ -19089,7 +19587,7 @@
       <c r="C6" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="D6" s="30" t="s">
+      <c r="D6" s="33" t="s">
         <v>143</v>
       </c>
     </row>
@@ -19103,7 +19601,7 @@
       <c r="C7" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="D7" s="31"/>
+      <c r="D7" s="34"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="5"/>
@@ -19211,7 +19709,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D27"/>
   <sheetViews>
@@ -19234,12 +19732,12 @@
       <c r="A2" s="15" t="s">
         <v>229</v>
       </c>
-      <c r="B2" s="28" t="s">
-        <v>754</v>
-      </c>
-      <c r="C2" s="28"/>
+      <c r="B2" s="31" t="s">
+        <v>752</v>
+      </c>
+      <c r="C2" s="31"/>
       <c r="D2" s="24" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -19252,8 +19750,8 @@
       <c r="C3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="32" t="s">
-        <v>751</v>
+      <c r="D3" s="28" t="s">
+        <v>749</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -19427,7 +19925,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D25"/>
   <sheetViews>
@@ -19449,10 +19947,10 @@
       <c r="A2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="29" t="s">
+      <c r="B2" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="29"/>
+      <c r="C2" s="32"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
@@ -19587,208 +20085,6 @@
       <c r="A25" s="5"/>
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B2:C2"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="A1" location="业务字典!A1" display="&lt;&lt; 返回"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C27"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="11.1640625" customWidth="1"/>
-    <col min="2" max="2" width="17.5" customWidth="1"/>
-    <col min="3" max="3" width="63.5" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="18" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="B2" s="29" t="s">
-        <v>100</v>
-      </c>
-      <c r="C2" s="29"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="5"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="5"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="5"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="5"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" s="5"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" s="5"/>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" s="5"/>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" s="5"/>
-      <c r="B16" s="5"/>
-      <c r="C16" s="13"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="5"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="5"/>
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="5"/>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="5"/>
-      <c r="B20" s="5"/>
-      <c r="C20" s="5"/>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="5"/>
-      <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" s="5"/>
-      <c r="B22" s="5"/>
-      <c r="C22" s="5"/>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" s="5"/>
-      <c r="B23" s="5"/>
-      <c r="C23" s="5"/>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" s="5"/>
-      <c r="B24" s="5"/>
-      <c r="C24" s="5"/>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25" s="5"/>
-      <c r="B25" s="5"/>
-      <c r="C25" s="5"/>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26" s="5"/>
-      <c r="B26" s="5"/>
-      <c r="C26" s="5"/>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27" s="5"/>
-      <c r="B27" s="5"/>
-      <c r="C27" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -19804,15 +20100,15 @@
 
 <file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C27"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.6640625" customWidth="1"/>
-    <col min="2" max="2" width="21.6640625" customWidth="1"/>
-    <col min="3" max="3" width="22.1640625" customWidth="1"/>
+    <col min="1" max="1" width="11.1640625" customWidth="1"/>
+    <col min="2" max="2" width="17.5" customWidth="1"/>
+    <col min="3" max="3" width="63.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.2">
@@ -19821,13 +20117,13 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" s="29"/>
+      <c r="A2" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="B2" s="32" t="s">
+        <v>100</v>
+      </c>
+      <c r="C2" s="32"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
@@ -19841,40 +20137,154 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>9</v>
+      <c r="A4" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>10</v>
+      <c r="A5" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>59</v>
+      <c r="A6" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C8" s="7"/>
+      <c r="A8" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="5"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="5"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" s="5"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" s="5"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" s="5"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" s="5"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" s="5"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" s="5"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="13"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="5"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" s="5"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" s="5"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" s="5"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" s="5"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" s="5"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" s="5"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" s="5"/>
+      <c r="B24" s="5"/>
+      <c r="C24" s="5"/>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" s="5"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="5"/>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" s="5"/>
+      <c r="B26" s="5"/>
+      <c r="C26" s="5"/>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" s="5"/>
+      <c r="B27" s="5"/>
+      <c r="C27" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -19890,32 +20300,35 @@
 
 <file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.6640625" customWidth="1"/>
-    <col min="2" max="2" width="20.33203125" customWidth="1"/>
-    <col min="3" max="3" width="22.83203125" customWidth="1"/>
+    <col min="1" max="1" width="16.6640625" customWidth="1"/>
+    <col min="2" max="3" width="21.6640625" customWidth="1"/>
+    <col min="4" max="4" width="57.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="18" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B2" s="29" t="s">
-        <v>25</v>
-      </c>
-      <c r="C2" s="29"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+        <v>13</v>
+      </c>
+      <c r="B2" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="32"/>
+      <c r="D2" s="29" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>7</v>
       </c>
@@ -19923,126 +20336,56 @@
         <v>8</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="5"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="5"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="5"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="5"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="5"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="5"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" s="5"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" s="5"/>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" s="5"/>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" s="5"/>
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="5"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="5"/>
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="5"/>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="5"/>
-      <c r="B20" s="5"/>
-      <c r="C20" s="5"/>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="5"/>
-      <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" s="5"/>
-      <c r="B22" s="5"/>
-      <c r="C22" s="5"/>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" s="5"/>
-      <c r="B23" s="5"/>
-      <c r="C23" s="5"/>
+        <v>784</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D8" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -20076,12 +20419,12 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B2" s="29" t="s">
-        <v>36</v>
-      </c>
-      <c r="C2" s="29"/>
+        <v>27</v>
+      </c>
+      <c r="B2" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="32"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
@@ -20096,35 +20439,35 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -20244,12 +20587,12 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B2" s="29" t="s">
-        <v>53</v>
-      </c>
-      <c r="C2" s="29"/>
+        <v>35</v>
+      </c>
+      <c r="B2" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" s="32"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
@@ -20264,47 +20607,41 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>48</v>
-      </c>
+      <c r="A7" s="5"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="5"/>
@@ -20421,12 +20758,12 @@
     </row>
     <row r="2" spans="1:4" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
-        <v>701</v>
-      </c>
-      <c r="B2" s="28" t="s">
         <v>700</v>
       </c>
-      <c r="C2" s="28"/>
+      <c r="B2" s="31" t="s">
+        <v>699</v>
+      </c>
+      <c r="C2" s="31"/>
       <c r="D2" s="24"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -20445,44 +20782,44 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="26" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="B4" s="26" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="C4" s="25" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="D4" s="25" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="25" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="B5" s="25" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="C5" s="25" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="D5" s="25" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="26" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="B6" s="26" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="C6" s="25" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="D6" s="25" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -20573,6 +20910,180 @@
 </file>
 
 <file path=xl/worksheets/sheet50.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="15.6640625" customWidth="1"/>
+    <col min="2" max="2" width="20.33203125" customWidth="1"/>
+    <col min="3" max="3" width="22.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="18" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" s="32" t="s">
+        <v>53</v>
+      </c>
+      <c r="C2" s="32"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="5"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="5"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="5"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" s="5"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" s="5"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" s="5"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" s="5"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" s="5"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" s="5"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="5"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" s="5"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" s="5"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" s="5"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" s="5"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" s="5"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" s="5"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B2:C2"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="A1" location="业务字典!A1" display="&lt;&lt; 返回"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet51.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C24"/>
   <sheetViews>
@@ -20594,10 +21105,10 @@
       <c r="A2" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B2" s="29" t="s">
-        <v>539</v>
-      </c>
-      <c r="C2" s="29"/>
+      <c r="B2" s="32" t="s">
+        <v>538</v>
+      </c>
+      <c r="C2" s="32"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
@@ -20678,7 +21189,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
@@ -20765,7 +21276,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet51.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet52.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C25"/>
   <sheetViews>
@@ -20789,10 +21300,10 @@
       <c r="A2" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B2" s="29" t="s">
+      <c r="B2" s="32" t="s">
         <v>74</v>
       </c>
-      <c r="C2" s="29"/>
+      <c r="C2" s="32"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
@@ -20951,7 +21462,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet52.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet53.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C25"/>
   <sheetViews>
@@ -20973,10 +21484,10 @@
       <c r="A2" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="B2" s="29" t="s">
+      <c r="B2" s="32" t="s">
         <v>94</v>
       </c>
-      <c r="C2" s="29"/>
+      <c r="C2" s="32"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
@@ -21146,14 +21657,14 @@
     </row>
     <row r="2" spans="1:4" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
-        <v>686</v>
-      </c>
-      <c r="B2" s="28" t="s">
         <v>685</v>
       </c>
-      <c r="C2" s="28"/>
+      <c r="B2" s="31" t="s">
+        <v>684</v>
+      </c>
+      <c r="C2" s="31"/>
       <c r="D2" s="24" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -21172,22 +21683,22 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="26" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="B4" s="26" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="C4" s="25" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="D4" s="25"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="25" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="B5" s="25" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="C5" s="25" t="s">
         <v>298</v>
@@ -21196,19 +21707,19 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="26" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="B6" s="26" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="C6" s="25" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="D6" s="25"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="26" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="B7" s="26"/>
       <c r="C7" s="25"/>
@@ -21316,12 +21827,12 @@
     </row>
     <row r="2" spans="1:4" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
-        <v>666</v>
-      </c>
-      <c r="B2" s="28" t="s">
-        <v>669</v>
-      </c>
-      <c r="C2" s="28"/>
+        <v>665</v>
+      </c>
+      <c r="B2" s="31" t="s">
+        <v>668</v>
+      </c>
+      <c r="C2" s="31"/>
       <c r="D2" s="24"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -21340,86 +21851,86 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="26" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="B4" s="26" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="C4" s="25" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="D4" s="25" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="25" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="B5" s="25" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="C5" s="25" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="D5" s="25" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="26" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="B6" s="26" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="C6" s="25" t="s">
         <v>268</v>
       </c>
       <c r="D6" s="25" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="26" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="B7" s="26" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="C7" s="25" t="s">
         <v>269</v>
       </c>
       <c r="D7" s="25" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="26" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="B8" s="26" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="C8" s="25" t="s">
         <v>267</v>
       </c>
       <c r="D8" s="25" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="25" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="B9" s="25" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="C9" s="25" t="s">
         <v>266</v>
       </c>
       <c r="D9" s="25" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -21512,14 +22023,14 @@
     </row>
     <row r="2" spans="1:4" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
-        <v>657</v>
-      </c>
-      <c r="B2" s="28" t="s">
         <v>656</v>
       </c>
-      <c r="C2" s="28"/>
+      <c r="B2" s="31" t="s">
+        <v>655</v>
+      </c>
+      <c r="C2" s="31"/>
       <c r="D2" s="24" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -21538,43 +22049,43 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="25" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="B4" s="25" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="C4" s="25" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="D4" s="25"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="25" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="B5" s="25" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="C5" s="25" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="D5" s="25"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="26" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="B6" s="26" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="C6" s="25" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="D6" s="25"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="26" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="B7" s="26"/>
       <c r="C7" s="25"/>
@@ -21682,12 +22193,12 @@
     </row>
     <row r="2" spans="1:4" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
-        <v>645</v>
-      </c>
-      <c r="B2" s="28" t="s">
         <v>644</v>
       </c>
-      <c r="C2" s="28"/>
+      <c r="B2" s="31" t="s">
+        <v>643</v>
+      </c>
+      <c r="C2" s="31"/>
       <c r="D2" s="24"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -21706,30 +22217,30 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="25" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="B4" s="25" t="s">
+        <v>648</v>
+      </c>
+      <c r="C4" s="25" t="s">
+        <v>645</v>
+      </c>
+      <c r="D4" s="25" t="s">
         <v>649</v>
-      </c>
-      <c r="C4" s="25" t="s">
-        <v>646</v>
-      </c>
-      <c r="D4" s="25" t="s">
-        <v>650</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="25" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="B5" s="25" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="C5" s="25" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="D5" s="25" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">

--- a/tools-core/model/业务字典.xlsx
+++ b/tools-core/model/业务字典.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25560" windowHeight="14740" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="业务字典" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
     <sheet name="DICT_AC_FUNCTYPE" sheetId="23" r:id="rId31"/>
     <sheet name="DICT_AC_APPTYPE" sheetId="22" r:id="rId32"/>
     <sheet name="DICT_AC_ROLETYPE" sheetId="21" r:id="rId33"/>
-    <sheet name="DICT_OM_PARTYTYPE" sheetId="20" r:id="rId34"/>
+    <sheet name="DICT_AC_PARTYTYPE" sheetId="20" r:id="rId34"/>
     <sheet name="DICT_YON" sheetId="19" r:id="rId35"/>
     <sheet name="DICT_TYPE" sheetId="53" r:id="rId36"/>
     <sheet name="DICT_PROMOTING_ORIGIN" sheetId="18" r:id="rId37"/>
@@ -2473,10 +2473,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>DICT_AC_PARTYTYPE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>organization</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2530,35 +2526,6 @@
     <rPh sb="0" eb="1">
       <t>zhi wu</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>组织模型中的各种组织分类</t>
-    <rPh sb="0" eb="1">
-      <t>zu zhi</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>mo xing</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>zho g n</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>de</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>ge zhong</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>zu zhi</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>fen lei</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DICT_OM_PARTYTYPE</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -3863,10 +3830,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>running</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>cancel</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3949,10 +3912,6 @@
     <rPh sb="10" eb="11">
       <t>qi yong</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DICT_OM_ORGSTATUS</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -7676,6 +7635,61 @@
     </rPh>
     <rPh sb="2" eb="3">
       <t>bian ma</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DICT_OM_ORGSTATUS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>running</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DICT_AC_PARTYTYPE</t>
+  </si>
+  <si>
+    <t>DICT_AC_PARTYTYPE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>组织模型中的各种组织分类，角色权限集中定义PARTY</t>
+    <rPh sb="0" eb="1">
+      <t>zu zhi</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>mo xing</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>zho g n</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>de</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ge zhong</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>zu zhi</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>fen lei</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>jiao se</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>quan x</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ji</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>zhong</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ding yi</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -11879,8 +11893,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G68"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11905,10 +11919,10 @@
         <v>3</v>
       </c>
       <c r="D1" s="30" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="E1" s="30" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="F1" s="23" t="s">
         <v>247</v>
@@ -11925,16 +11939,16 @@
         <v>0</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
       <c r="E2" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="F2" s="17" t="s">
         <v>248</v>
       </c>
       <c r="G2" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -11948,16 +11962,16 @@
         <v>57</v>
       </c>
       <c r="D3" s="17" t="s">
+        <v>439</v>
+      </c>
+      <c r="E3" t="s">
         <v>444</v>
-      </c>
-      <c r="E3" t="s">
-        <v>449</v>
       </c>
       <c r="F3" s="17" t="s">
         <v>249</v>
       </c>
       <c r="G3" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -11971,10 +11985,10 @@
         <v>99</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="E4" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="F4" s="17" t="s">
         <v>249</v>
@@ -11982,7 +11996,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>751</v>
+        <v>746</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>228</v>
@@ -11991,10 +12005,10 @@
         <v>126</v>
       </c>
       <c r="D5" s="17" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="E5" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="F5" s="17" t="s">
         <v>249</v>
@@ -12011,10 +12025,10 @@
         <v>130</v>
       </c>
       <c r="D6" s="17" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="E6" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="F6" s="17" t="s">
         <v>249</v>
@@ -12031,10 +12045,10 @@
         <v>213</v>
       </c>
       <c r="D7" s="17" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="E7" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="F7" s="17" t="s">
         <v>249</v>
@@ -12051,10 +12065,10 @@
         <v>56</v>
       </c>
       <c r="D8" s="17" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
       <c r="E8" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="F8" s="17" t="s">
         <v>248</v>
@@ -12071,10 +12085,10 @@
         <v>55</v>
       </c>
       <c r="D9" s="17" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
       <c r="E9" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="F9" s="17" t="s">
         <v>248</v>
@@ -12091,10 +12105,10 @@
         <v>54</v>
       </c>
       <c r="D10" s="17" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
       <c r="E10" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="F10" s="17" t="s">
         <v>248</v>
@@ -12102,16 +12116,16 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>61</v>
       </c>
       <c r="D11" s="17" t="s">
+        <v>437</v>
+      </c>
+      <c r="E11" t="s">
         <v>442</v>
-      </c>
-      <c r="E11" t="s">
-        <v>447</v>
       </c>
       <c r="F11" s="17" t="s">
         <v>248</v>
@@ -12128,10 +12142,10 @@
         <v>95</v>
       </c>
       <c r="D12" s="17" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="E12" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="F12" s="17" t="s">
         <v>249</v>
@@ -12148,10 +12162,10 @@
         <v>96</v>
       </c>
       <c r="D13" s="17" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="E13" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="F13" s="17" t="s">
         <v>249</v>
@@ -12168,10 +12182,10 @@
         <v>145</v>
       </c>
       <c r="D14" s="17" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
       <c r="E14" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="F14" s="17" t="s">
         <v>248</v>
@@ -12185,13 +12199,13 @@
         <v>179</v>
       </c>
       <c r="C15" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="D15" s="17" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="E15" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="F15" s="17" t="s">
         <v>249</v>
@@ -12208,10 +12222,10 @@
         <v>251</v>
       </c>
       <c r="D16" s="17" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
       <c r="E16" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="F16" s="17" t="s">
         <v>248</v>
@@ -12228,10 +12242,10 @@
         <v>205</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
       <c r="E17" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="F17" s="17" t="s">
         <v>248</v>
@@ -12248,10 +12262,10 @@
         <v>235</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
       <c r="E18" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="F18" s="17" t="s">
         <v>248</v>
@@ -12259,7 +12273,7 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>252</v>
@@ -12268,10 +12282,10 @@
         <v>253</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="E19" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="F19" s="17" t="s">
         <v>249</v>
@@ -12279,19 +12293,19 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="C20" t="s">
-        <v>783</v>
+        <v>778</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="E20" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="F20" s="17" t="s">
         <v>249</v>
@@ -12299,19 +12313,19 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
-        <v>271</v>
+        <v>801</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>257</v>
       </c>
       <c r="C21" t="s">
-        <v>270</v>
+        <v>803</v>
       </c>
       <c r="D21" s="17" t="s">
+        <v>439</v>
+      </c>
+      <c r="E21" t="s">
         <v>444</v>
-      </c>
-      <c r="E21" t="s">
-        <v>449</v>
       </c>
       <c r="F21" s="17" t="s">
         <v>249</v>
@@ -12319,130 +12333,130 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="C22" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
       <c r="E22" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="F22" s="17" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
-        <v>488</v>
+        <v>483</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>803</v>
+        <v>798</v>
       </c>
       <c r="D23" s="17" t="s">
+        <v>437</v>
+      </c>
+      <c r="E23" t="s">
         <v>442</v>
       </c>
-      <c r="E23" t="s">
-        <v>447</v>
-      </c>
       <c r="F23" s="17" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="C24" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
       <c r="E24" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="F24" s="17" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="C25" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
       <c r="E25" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="F25" s="17" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
-        <v>539</v>
+        <v>534</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="D26" s="17" t="s">
+        <v>437</v>
+      </c>
+      <c r="E26" t="s">
         <v>442</v>
       </c>
-      <c r="E26" t="s">
-        <v>447</v>
-      </c>
       <c r="F26" s="17" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="C27" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
       <c r="E27" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="F27" s="17" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
-        <v>713</v>
+        <v>708</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>642</v>
+        <v>637</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="E28" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="F28" s="17" t="s">
         <v>249</v>
@@ -12450,193 +12464,193 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
-        <v>698</v>
+        <v>693</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>700</v>
+        <v>695</v>
       </c>
       <c r="D29" s="17" t="s">
+        <v>437</v>
+      </c>
+      <c r="E29" t="s">
         <v>442</v>
       </c>
-      <c r="E29" t="s">
-        <v>447</v>
-      </c>
       <c r="F29" s="17" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
       <c r="C30" t="s">
-        <v>640</v>
+        <v>635</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
       <c r="E30" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
       <c r="F30" s="17" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
-        <v>542</v>
+        <v>537</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>540</v>
+        <v>535</v>
       </c>
       <c r="D31" s="17" t="s">
+        <v>437</v>
+      </c>
+      <c r="E31" t="s">
         <v>442</v>
       </c>
-      <c r="E31" t="s">
-        <v>447</v>
-      </c>
       <c r="F31" s="17" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>552</v>
+        <v>547</v>
       </c>
       <c r="C32" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
       <c r="E32" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="F32" s="17" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
-        <v>591</v>
+        <v>586</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>590</v>
+        <v>585</v>
       </c>
       <c r="C33" t="s">
-        <v>605</v>
+        <v>600</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
       <c r="E33" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="F33" s="17" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
-        <v>606</v>
+        <v>601</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>604</v>
+        <v>599</v>
       </c>
       <c r="C34" t="s">
-        <v>639</v>
+        <v>634</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
       <c r="E34" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="F34" s="17" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
-        <v>618</v>
+        <v>613</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>616</v>
+        <v>611</v>
       </c>
       <c r="C35" t="s">
-        <v>617</v>
+        <v>612</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
       <c r="E35" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="F35" s="17" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
-        <v>716</v>
+        <v>711</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>629</v>
+        <v>624</v>
       </c>
       <c r="C36" t="s">
-        <v>605</v>
+        <v>600</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
       <c r="E36" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="F36" s="17" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
+        <v>629</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>632</v>
+      </c>
+      <c r="C37" t="s">
         <v>634</v>
       </c>
-      <c r="B37" s="2" t="s">
-        <v>637</v>
-      </c>
-      <c r="C37" t="s">
-        <v>639</v>
-      </c>
       <c r="D37" s="17" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="E37" t="s">
-        <v>638</v>
+        <v>633</v>
       </c>
       <c r="F37" s="17" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="C38" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="E38" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="F38" s="17" t="s">
         <v>249</v>
@@ -12644,19 +12658,19 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="C39" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="E39" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="F39" s="17" t="s">
         <v>249</v>
@@ -12664,19 +12678,19 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="C40" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="E40" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="F40" s="17" t="s">
         <v>249</v>
@@ -12684,19 +12698,19 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
-        <v>683</v>
+        <v>678</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>685</v>
+        <v>680</v>
       </c>
       <c r="C41" t="s">
-        <v>686</v>
+        <v>681</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="E41" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="F41" s="17" t="s">
         <v>249</v>
@@ -12704,19 +12718,19 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="C42" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="E42" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="F42" s="17" t="s">
         <v>249</v>
@@ -12724,19 +12738,19 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="B43" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="C43" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="E43" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="F43" s="17" t="s">
         <v>249</v>
@@ -12744,19 +12758,19 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="C44" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="D44" s="17" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="E44" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="F44" s="17" t="s">
         <v>249</v>
@@ -12764,19 +12778,19 @@
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="C45" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="D45" s="17" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="E45" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="F45" s="17" t="s">
         <v>249</v>
@@ -12784,19 +12798,19 @@
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="D46" s="17" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="E46" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="F46" s="17" t="s">
         <v>249</v>
@@ -12804,16 +12818,16 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="D47" s="17" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="E47" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="F47" s="17" t="s">
         <v>249</v>
@@ -12821,19 +12835,19 @@
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="s">
-        <v>654</v>
+        <v>649</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>652</v>
+        <v>647</v>
       </c>
       <c r="C48" t="s">
-        <v>653</v>
+        <v>648</v>
       </c>
       <c r="D48" s="17" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="E48" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="F48" s="17" t="s">
         <v>249</v>
@@ -12841,19 +12855,19 @@
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="s">
-        <v>667</v>
+        <v>662</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>665</v>
+        <v>660</v>
       </c>
       <c r="C49" t="s">
-        <v>666</v>
+        <v>661</v>
       </c>
       <c r="D49" s="17" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="E49" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="F49" s="17" t="s">
         <v>249</v>
@@ -12861,16 +12875,16 @@
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="D50" s="17" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="E50" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="F50" s="17" t="s">
         <v>249</v>
@@ -12878,19 +12892,19 @@
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>730</v>
+        <v>725</v>
       </c>
       <c r="C51" t="s">
-        <v>754</v>
+        <v>749</v>
       </c>
       <c r="D51" s="17" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="E51" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="F51" s="17" t="s">
         <v>249</v>
@@ -12898,19 +12912,19 @@
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="s">
-        <v>765</v>
+        <v>760</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>753</v>
+        <v>748</v>
       </c>
       <c r="C52" t="s">
-        <v>761</v>
+        <v>756</v>
       </c>
       <c r="D52" s="17" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="E52" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="F52" s="17" t="s">
         <v>249</v>
@@ -12918,19 +12932,19 @@
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" s="3" t="s">
-        <v>762</v>
+        <v>757</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>759</v>
+        <v>754</v>
       </c>
       <c r="C53" t="s">
-        <v>760</v>
+        <v>755</v>
       </c>
       <c r="D53" s="17" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="E53" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="F53" s="17" t="s">
         <v>249</v>
@@ -13010,7 +13024,6 @@
     <hyperlink ref="A7" location="DICT_TRANS_ORIGIN!A1" display="DICT_TRANS_ORIGIN"/>
     <hyperlink ref="A18" location="DICT_PROMOTING_ORIGIN!A1" display="DICT_PROMOTING_FROM"/>
     <hyperlink ref="A19" location="DICT_YON!A1" display="DICT_YON"/>
-    <hyperlink ref="A21" location="DICT_OM_PARTYTYPE!A1" display="DICT_OM_PARTYTYPE"/>
     <hyperlink ref="A38" location="DICT_AC_ROLETYPE!A1" display="DICT_AC_ROLETYPE"/>
     <hyperlink ref="A39" location="DICT_AC_APPTYPE!A1" display="DICT_AC_APPTYPE"/>
     <hyperlink ref="A40" location="DICT_AC_FUNCTYPE!A1" display="DICT_AC_FUNCTYPE"/>
@@ -13045,6 +13058,7 @@
     <hyperlink ref="A52" location="DICT_OPERATOR_TYPE!A1" display="DICT_OPERATOR_TYPE"/>
     <hyperlink ref="A53" location="DICT_OPERATOR_RESULT!A1" display="DICT_OPERATOR_RESULT"/>
     <hyperlink ref="A20" location="DICT_TYPE!A1" display="DICT_TYPE"/>
+    <hyperlink ref="A21" location="DICT_AC_PARTYTYPE!A1" display="DICT_AC_PARTYTYPE"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -13072,10 +13086,10 @@
     </row>
     <row r="2" spans="1:4" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
-        <v>636</v>
+        <v>631</v>
       </c>
       <c r="B2" s="31" t="s">
-        <v>635</v>
+        <v>630</v>
       </c>
       <c r="C2" s="31"/>
       <c r="D2" s="24"/>
@@ -13088,38 +13102,38 @@
         <v>8</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="25" t="s">
-        <v>610</v>
+        <v>605</v>
       </c>
       <c r="B4" s="25" t="s">
-        <v>611</v>
+        <v>606</v>
       </c>
       <c r="C4" s="25" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="D4" s="25" t="s">
-        <v>641</v>
+        <v>636</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="25" t="s">
-        <v>613</v>
+        <v>608</v>
       </c>
       <c r="B5" s="25" t="s">
-        <v>612</v>
+        <v>607</v>
       </c>
       <c r="C5" s="25" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="D5" s="25" t="s">
-        <v>615</v>
+        <v>610</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -13237,14 +13251,14 @@
     </row>
     <row r="2" spans="1:4" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
-        <v>631</v>
+        <v>626</v>
       </c>
       <c r="B2" s="31" t="s">
-        <v>630</v>
+        <v>625</v>
       </c>
       <c r="C2" s="31"/>
       <c r="D2" s="24" t="s">
-        <v>620</v>
+        <v>615</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -13255,33 +13269,33 @@
         <v>8</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="26" t="s">
-        <v>621</v>
+        <v>616</v>
       </c>
       <c r="B4" s="26" t="s">
-        <v>621</v>
+        <v>616</v>
       </c>
       <c r="C4" s="25" t="s">
-        <v>632</v>
+        <v>627</v>
       </c>
       <c r="D4" s="25"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="26" t="s">
-        <v>622</v>
+        <v>617</v>
       </c>
       <c r="B5" s="26" t="s">
-        <v>622</v>
+        <v>617</v>
       </c>
       <c r="C5" s="25" t="s">
-        <v>633</v>
+        <v>628</v>
       </c>
       <c r="D5" s="25"/>
     </row>
@@ -13399,14 +13413,14 @@
     </row>
     <row r="2" spans="1:4" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
-        <v>619</v>
+        <v>614</v>
       </c>
       <c r="B2" s="31" t="s">
-        <v>715</v>
+        <v>710</v>
       </c>
       <c r="C2" s="31"/>
       <c r="D2" s="24" t="s">
-        <v>620</v>
+        <v>615</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -13417,69 +13431,69 @@
         <v>8</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="26" t="s">
-        <v>621</v>
+        <v>616</v>
       </c>
       <c r="B4" s="26" t="s">
-        <v>621</v>
+        <v>616</v>
       </c>
       <c r="C4" s="25" t="s">
-        <v>623</v>
+        <v>618</v>
       </c>
       <c r="D4" s="25"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="26" t="s">
-        <v>622</v>
+        <v>617</v>
       </c>
       <c r="B5" s="26" t="s">
-        <v>622</v>
+        <v>617</v>
       </c>
       <c r="C5" s="25" t="s">
-        <v>624</v>
+        <v>619</v>
       </c>
       <c r="D5" s="25"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="26" t="s">
-        <v>550</v>
+        <v>545</v>
       </c>
       <c r="B6" s="26" t="s">
-        <v>550</v>
+        <v>545</v>
       </c>
       <c r="C6" s="25" t="s">
-        <v>625</v>
+        <v>620</v>
       </c>
       <c r="D6" s="25"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="26" t="s">
-        <v>556</v>
+        <v>551</v>
       </c>
       <c r="B7" s="26" t="s">
-        <v>556</v>
+        <v>551</v>
       </c>
       <c r="C7" s="25" t="s">
-        <v>626</v>
+        <v>621</v>
       </c>
       <c r="D7" s="25"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="26" t="s">
-        <v>628</v>
+        <v>623</v>
       </c>
       <c r="B8" s="26" t="s">
-        <v>628</v>
+        <v>623</v>
       </c>
       <c r="C8" s="25" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="D8" s="25"/>
     </row>
@@ -13579,14 +13593,14 @@
     </row>
     <row r="2" spans="1:4" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
-        <v>608</v>
+        <v>603</v>
       </c>
       <c r="B2" s="31" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="C2" s="31"/>
       <c r="D2" s="24" t="s">
-        <v>609</v>
+        <v>604</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -13597,38 +13611,38 @@
         <v>8</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="25" t="s">
-        <v>610</v>
+        <v>605</v>
       </c>
       <c r="B4" s="25" t="s">
-        <v>611</v>
+        <v>606</v>
       </c>
       <c r="C4" s="25" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="D4" s="25" t="s">
-        <v>614</v>
+        <v>609</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="25" t="s">
-        <v>613</v>
+        <v>608</v>
       </c>
       <c r="B5" s="25" t="s">
-        <v>612</v>
+        <v>607</v>
       </c>
       <c r="C5" s="25" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="D5" s="25" t="s">
-        <v>615</v>
+        <v>610</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -13746,14 +13760,14 @@
     </row>
     <row r="2" spans="1:4" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
-        <v>593</v>
+        <v>588</v>
       </c>
       <c r="B2" s="31" t="s">
-        <v>717</v>
+        <v>712</v>
       </c>
       <c r="C2" s="31"/>
       <c r="D2" s="24" t="s">
-        <v>592</v>
+        <v>587</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -13764,52 +13778,52 @@
         <v>8</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="25" t="s">
-        <v>596</v>
+        <v>591</v>
       </c>
       <c r="B4" s="25" t="s">
-        <v>597</v>
+        <v>592</v>
       </c>
       <c r="C4" s="25" t="s">
+        <v>593</v>
+      </c>
+      <c r="D4" s="25" t="s">
         <v>598</v>
-      </c>
-      <c r="D4" s="25" t="s">
-        <v>603</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="25" t="s">
+        <v>589</v>
+      </c>
+      <c r="B5" s="25" t="s">
+        <v>589</v>
+      </c>
+      <c r="C5" s="25" t="s">
         <v>594</v>
       </c>
-      <c r="B5" s="25" t="s">
-        <v>594</v>
-      </c>
-      <c r="C5" s="25" t="s">
-        <v>599</v>
-      </c>
       <c r="D5" s="25" t="s">
-        <v>601</v>
+        <v>596</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="25" t="s">
+        <v>590</v>
+      </c>
+      <c r="B6" s="25" t="s">
+        <v>590</v>
+      </c>
+      <c r="C6" s="25" t="s">
         <v>595</v>
       </c>
-      <c r="B6" s="25" t="s">
-        <v>595</v>
-      </c>
-      <c r="C6" s="25" t="s">
-        <v>600</v>
-      </c>
       <c r="D6" s="25" t="s">
-        <v>602</v>
+        <v>597</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -13920,14 +13934,14 @@
     </row>
     <row r="2" spans="1:4" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
-        <v>555</v>
+        <v>550</v>
       </c>
       <c r="B2" s="31" t="s">
-        <v>714</v>
+        <v>709</v>
       </c>
       <c r="C2" s="31"/>
       <c r="D2" s="24" t="s">
-        <v>589</v>
+        <v>584</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -13938,194 +13952,194 @@
         <v>8</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="25" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
       <c r="B4" s="25" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
       <c r="C4" s="25" t="s">
-        <v>559</v>
+        <v>554</v>
       </c>
       <c r="D4" s="25"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="25" t="s">
-        <v>575</v>
+        <v>570</v>
       </c>
       <c r="B5" s="25" t="s">
-        <v>575</v>
+        <v>570</v>
       </c>
       <c r="C5" s="25" t="s">
-        <v>560</v>
+        <v>555</v>
       </c>
       <c r="D5" s="25"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="25" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
       <c r="B6" s="25" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
       <c r="C6" s="25" t="s">
-        <v>561</v>
+        <v>556</v>
       </c>
       <c r="D6" s="25"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="25" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
       <c r="B7" s="25" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
       <c r="C7" s="25" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
       <c r="D7" s="25"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="25" t="s">
-        <v>578</v>
+        <v>573</v>
       </c>
       <c r="B8" s="25" t="s">
-        <v>578</v>
+        <v>573</v>
       </c>
       <c r="C8" s="25" t="s">
-        <v>563</v>
+        <v>558</v>
       </c>
       <c r="D8" s="25"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="25" t="s">
-        <v>579</v>
+        <v>574</v>
       </c>
       <c r="B9" s="25" t="s">
-        <v>579</v>
+        <v>574</v>
       </c>
       <c r="C9" s="25" t="s">
-        <v>564</v>
+        <v>559</v>
       </c>
       <c r="D9" s="25"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="25" t="s">
-        <v>580</v>
+        <v>575</v>
       </c>
       <c r="B10" s="25" t="s">
-        <v>580</v>
+        <v>575</v>
       </c>
       <c r="C10" s="25" t="s">
-        <v>565</v>
+        <v>560</v>
       </c>
       <c r="D10" s="11"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="25" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="B11" s="25" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="C11" s="25" t="s">
-        <v>566</v>
+        <v>561</v>
       </c>
       <c r="D11" s="14"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="25" t="s">
-        <v>582</v>
+        <v>577</v>
       </c>
       <c r="B12" s="25" t="s">
-        <v>582</v>
+        <v>577</v>
       </c>
       <c r="C12" s="25" t="s">
-        <v>567</v>
+        <v>562</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="25" t="s">
-        <v>583</v>
+        <v>578</v>
       </c>
       <c r="B13" s="25" t="s">
-        <v>583</v>
+        <v>578</v>
       </c>
       <c r="C13" s="25" t="s">
-        <v>568</v>
+        <v>563</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="25" t="s">
-        <v>557</v>
+        <v>552</v>
       </c>
       <c r="B14" s="25" t="s">
-        <v>557</v>
+        <v>552</v>
       </c>
       <c r="C14" s="25" t="s">
-        <v>569</v>
+        <v>564</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="25" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
       <c r="B15" s="25" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
       <c r="C15" s="25" t="s">
-        <v>570</v>
+        <v>565</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="25" t="s">
-        <v>585</v>
+        <v>580</v>
       </c>
       <c r="B16" s="25" t="s">
-        <v>585</v>
+        <v>580</v>
       </c>
       <c r="C16" s="25" t="s">
-        <v>571</v>
+        <v>566</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="25" t="s">
-        <v>586</v>
+        <v>581</v>
       </c>
       <c r="B17" s="25" t="s">
-        <v>586</v>
+        <v>581</v>
       </c>
       <c r="C17" s="25" t="s">
-        <v>572</v>
+        <v>567</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="25" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="B18" s="25" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="C18" s="25" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="25" t="s">
-        <v>588</v>
+        <v>583</v>
       </c>
       <c r="B19" s="25" t="s">
-        <v>588</v>
+        <v>583</v>
       </c>
       <c r="C19" s="25" t="s">
-        <v>574</v>
+        <v>569</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
@@ -14166,14 +14180,14 @@
     </row>
     <row r="2" spans="1:4" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
       <c r="B2" s="31" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
       <c r="C2" s="31"/>
       <c r="D2" s="24" t="s">
-        <v>528</v>
+        <v>523</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -14184,52 +14198,52 @@
         <v>8</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
-        <v>531</v>
+        <v>526</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>531</v>
+        <v>526</v>
       </c>
       <c r="C4" s="25" t="s">
-        <v>537</v>
+        <v>532</v>
       </c>
       <c r="D4" s="25" t="s">
-        <v>534</v>
+        <v>529</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
-        <v>529</v>
+        <v>524</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>529</v>
+        <v>524</v>
       </c>
       <c r="C5" s="25" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
       <c r="D5" s="25" t="s">
-        <v>535</v>
+        <v>530</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
-        <v>530</v>
+        <v>525</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>530</v>
+        <v>525</v>
       </c>
       <c r="C6" s="25" t="s">
-        <v>533</v>
+        <v>528</v>
       </c>
       <c r="D6" s="25" t="s">
-        <v>536</v>
+        <v>531</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -14330,10 +14344,10 @@
     </row>
     <row r="2" spans="1:4" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="B2" s="31" t="s">
-        <v>541</v>
+        <v>536</v>
       </c>
       <c r="C2" s="31"/>
       <c r="D2" s="24"/>
@@ -14346,45 +14360,45 @@
         <v>8</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
-        <v>548</v>
+        <v>543</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>548</v>
+        <v>543</v>
       </c>
       <c r="C4" s="25" t="s">
-        <v>544</v>
+        <v>539</v>
       </c>
       <c r="D4" s="25"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
-        <v>549</v>
+        <v>544</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>549</v>
+        <v>544</v>
       </c>
       <c r="C5" s="25" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
       <c r="D5" s="25"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
-        <v>551</v>
+        <v>546</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>551</v>
+        <v>546</v>
       </c>
       <c r="C6" s="25" t="s">
-        <v>546</v>
+        <v>541</v>
       </c>
       <c r="D6" s="25"/>
     </row>
@@ -14392,7 +14406,7 @@
       <c r="A7" s="5"/>
       <c r="B7" s="5"/>
       <c r="C7" s="25" t="s">
-        <v>547</v>
+        <v>542</v>
       </c>
       <c r="D7" s="25"/>
     </row>
@@ -14487,14 +14501,14 @@
     </row>
     <row r="2" spans="1:4" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="B2" s="31" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="C2" s="31"/>
       <c r="D2" s="24" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -14505,75 +14519,75 @@
         <v>8</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="C4" s="25" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="D4" s="25"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
-        <v>514</v>
+        <v>509</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>514</v>
+        <v>509</v>
       </c>
       <c r="C5" s="25" t="s">
-        <v>516</v>
+        <v>511</v>
       </c>
       <c r="D5" s="25"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
-        <v>515</v>
+        <v>510</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>515</v>
+        <v>510</v>
       </c>
       <c r="C6" s="25" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="D6" s="25"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
-        <v>519</v>
+        <v>514</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>520</v>
+        <v>515</v>
       </c>
       <c r="C7" s="25" t="s">
-        <v>518</v>
+        <v>513</v>
       </c>
       <c r="D7" s="25"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
-        <v>522</v>
+        <v>517</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>522</v>
+        <v>517</v>
       </c>
       <c r="C8" s="25" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
       <c r="D8" s="25"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
@@ -14658,14 +14672,14 @@
     </row>
     <row r="2" spans="1:4" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="B2" s="31" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="C2" s="31"/>
       <c r="D2" s="24" t="s">
-        <v>498</v>
+        <v>493</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -14676,10 +14690,10 @@
         <v>8</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -14691,7 +14705,7 @@
       </c>
       <c r="C4" s="25"/>
       <c r="D4" s="25" t="s">
-        <v>499</v>
+        <v>494</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -14703,7 +14717,7 @@
       </c>
       <c r="C5" s="25"/>
       <c r="D5" s="25" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -14715,7 +14729,7 @@
       </c>
       <c r="C6" s="25"/>
       <c r="D6" s="25" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -14727,7 +14741,7 @@
       </c>
       <c r="C7" s="25"/>
       <c r="D7" s="25" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -14739,12 +14753,12 @@
       </c>
       <c r="C8" s="25"/>
       <c r="D8" s="25" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
-        <v>504</v>
+        <v>499</v>
       </c>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
@@ -14829,10 +14843,10 @@
     </row>
     <row r="2" spans="1:4" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
-        <v>759</v>
+        <v>754</v>
       </c>
       <c r="B2" s="31" t="s">
-        <v>763</v>
+        <v>758</v>
       </c>
       <c r="C2" s="31"/>
       <c r="D2" s="24"/>
@@ -14845,52 +14859,52 @@
         <v>8</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="26" t="s">
-        <v>771</v>
+        <v>766</v>
       </c>
       <c r="B4" s="26" t="s">
-        <v>771</v>
+        <v>766</v>
       </c>
       <c r="C4" s="25" t="s">
         <v>77</v>
       </c>
       <c r="D4" s="25" t="s">
-        <v>776</v>
+        <v>771</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="26" t="s">
+        <v>762</v>
+      </c>
+      <c r="B5" s="26" t="s">
+        <v>765</v>
+      </c>
+      <c r="C5" s="25" t="s">
         <v>767</v>
       </c>
-      <c r="B5" s="26" t="s">
-        <v>770</v>
-      </c>
-      <c r="C5" s="25" t="s">
-        <v>772</v>
-      </c>
       <c r="D5" s="25" t="s">
-        <v>774</v>
+        <v>769</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="25" t="s">
+        <v>763</v>
+      </c>
+      <c r="B6" s="25" t="s">
+        <v>764</v>
+      </c>
+      <c r="C6" s="25" t="s">
         <v>768</v>
       </c>
-      <c r="B6" s="25" t="s">
-        <v>769</v>
-      </c>
-      <c r="C6" s="25" t="s">
-        <v>773</v>
-      </c>
       <c r="D6" s="25" t="s">
-        <v>775</v>
+        <v>770</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -15007,14 +15021,14 @@
     </row>
     <row r="2" spans="1:4" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
-        <v>491</v>
+        <v>486</v>
       </c>
       <c r="B2" s="31" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
       <c r="C2" s="31"/>
       <c r="D2" s="24" t="s">
-        <v>498</v>
+        <v>493</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -15025,39 +15039,39 @@
         <v>8</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>496</v>
+        <v>491</v>
       </c>
       <c r="D4" s="5"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="D5" s="5"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
-        <v>497</v>
+        <v>492</v>
       </c>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
@@ -15190,14 +15204,14 @@
     </row>
     <row r="2" spans="1:4" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="B2" s="31" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="C2" s="31"/>
       <c r="D2" s="24" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -15208,69 +15222,69 @@
         <v>8</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="D4" s="5"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="D5" s="5"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="D6" s="5"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="D7" s="5"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
-        <v>800</v>
+        <v>795</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>801</v>
+        <v>796</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>799</v>
+        <v>794</v>
       </c>
       <c r="D8" s="5"/>
     </row>
@@ -15389,10 +15403,10 @@
     </row>
     <row r="2" spans="1:4" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="B2" s="31" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="C2" s="31"/>
     </row>
@@ -15404,80 +15418,80 @@
         <v>8</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>802</v>
+        <v>797</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>729</v>
+        <v>724</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>720</v>
+        <v>715</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>724</v>
+        <v>719</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>721</v>
+        <v>716</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>725</v>
+        <v>720</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>722</v>
+        <v>717</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>723</v>
+        <v>718</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>726</v>
+        <v>721</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
-        <v>727</v>
+        <v>722</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>719</v>
+        <v>714</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>718</v>
+        <v>713</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -15595,14 +15609,14 @@
     </row>
     <row r="2" spans="1:4" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="B2" s="31" t="s">
-        <v>438</v>
+        <v>799</v>
       </c>
       <c r="C2" s="31"/>
       <c r="D2" s="27" t="s">
-        <v>697</v>
+        <v>692</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -15613,52 +15627,52 @@
         <v>8</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>432</v>
+        <v>800</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
+        <v>426</v>
+      </c>
+      <c r="B5" s="5" t="s">
         <v>429</v>
       </c>
-      <c r="B5" s="5" t="s">
-        <v>433</v>
-      </c>
       <c r="C5" s="5" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
+        <v>427</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>428</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>407</v>
+      </c>
+      <c r="D6" s="5" t="s">
         <v>430</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>431</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>410</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>434</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -15789,10 +15803,10 @@
     </row>
     <row r="2" spans="1:4" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="B2" s="31" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="C2" s="31"/>
     </row>
@@ -15804,45 +15818,45 @@
         <v>8</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
+        <v>415</v>
+      </c>
+      <c r="B4" s="5" t="s">
         <v>418</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="C4" s="5" t="s">
         <v>421</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>424</v>
       </c>
       <c r="D4" s="5"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
+        <v>416</v>
+      </c>
+      <c r="B5" s="5" t="s">
         <v>419</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="C5" s="5" t="s">
         <v>422</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>425</v>
       </c>
       <c r="D5" s="5"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
+        <v>417</v>
+      </c>
+      <c r="B6" s="5" t="s">
         <v>420</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="C6" s="5" t="s">
         <v>423</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>426</v>
       </c>
       <c r="D6" s="5"/>
     </row>
@@ -15973,10 +15987,10 @@
     </row>
     <row r="2" spans="1:4" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="B2" s="31" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="C2" s="31"/>
     </row>
@@ -15988,94 +16002,94 @@
         <v>8</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
+        <v>405</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>406</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>407</v>
+      </c>
+      <c r="D9" s="11" t="s">
         <v>408</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>409</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>410</v>
-      </c>
-      <c r="D9" s="11" t="s">
-        <v>411</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -16188,10 +16202,10 @@
     </row>
     <row r="2" spans="1:4" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="B2" s="31" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="C2" s="31"/>
     </row>
@@ -16203,90 +16217,90 @@
         <v>8</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
+        <v>374</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>374</v>
+      </c>
+      <c r="C4" s="5" t="s">
         <v>377</v>
       </c>
-      <c r="B4" s="5" t="s">
-        <v>377</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>380</v>
-      </c>
       <c r="D4" s="5" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
+        <v>375</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>375</v>
+      </c>
+      <c r="C7" s="5" t="s">
         <v>378</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>378</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>381</v>
       </c>
       <c r="D7" s="5"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
+        <v>376</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>376</v>
+      </c>
+      <c r="C8" s="5" t="s">
         <v>379</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>379</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>382</v>
       </c>
       <c r="D8" s="5"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -16398,10 +16412,10 @@
     </row>
     <row r="2" spans="1:4" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="B2" s="31" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="C2" s="31"/>
     </row>
@@ -16413,66 +16427,66 @@
         <v>8</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
+        <v>354</v>
+      </c>
+      <c r="B4" s="5" t="s">
         <v>357</v>
       </c>
-      <c r="B4" s="5" t="s">
-        <v>360</v>
-      </c>
       <c r="C4" s="5" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
+        <v>355</v>
+      </c>
+      <c r="B5" s="5" t="s">
         <v>358</v>
       </c>
-      <c r="B5" s="5" t="s">
-        <v>361</v>
-      </c>
       <c r="C5" s="5" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -16586,10 +16600,10 @@
     </row>
     <row r="2" spans="1:4" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="B2" s="31" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="C2" s="31"/>
     </row>
@@ -16601,57 +16615,57 @@
         <v>8</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
+        <v>334</v>
+      </c>
+      <c r="B4" s="5" t="s">
         <v>337</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="C4" s="5" t="s">
         <v>340</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>343</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
+        <v>335</v>
+      </c>
+      <c r="B5" s="5" t="s">
         <v>338</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="C5" s="5" t="s">
         <v>341</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>344</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="B6" s="5" t="s">
         <v>339</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="C6" s="5" t="s">
         <v>342</v>
       </c>
-      <c r="C6" s="5" t="s">
-        <v>345</v>
-      </c>
       <c r="D6" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -16763,10 +16777,10 @@
     </row>
     <row r="2" spans="1:4" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="B2" s="31" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="C2" s="31"/>
     </row>
@@ -16783,24 +16797,24 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -16922,14 +16936,14 @@
     </row>
     <row r="2" spans="1:4" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
-        <v>766</v>
+        <v>761</v>
       </c>
       <c r="B2" s="31" t="s">
-        <v>764</v>
+        <v>759</v>
       </c>
       <c r="C2" s="31"/>
       <c r="D2" s="24" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -16940,57 +16954,57 @@
         <v>8</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="26" t="s">
-        <v>755</v>
+        <v>750</v>
       </c>
       <c r="B4" s="26" t="s">
-        <v>755</v>
+        <v>750</v>
       </c>
       <c r="C4" s="25" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="D4" s="25"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="26" t="s">
-        <v>756</v>
+        <v>751</v>
       </c>
       <c r="B5" s="26" t="s">
-        <v>756</v>
+        <v>751</v>
       </c>
       <c r="C5" s="25" t="s">
-        <v>777</v>
+        <v>772</v>
       </c>
       <c r="D5" s="25"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="25" t="s">
-        <v>757</v>
+        <v>752</v>
       </c>
       <c r="B6" s="25" t="s">
-        <v>757</v>
+        <v>752</v>
       </c>
       <c r="C6" s="25" t="s">
-        <v>778</v>
+        <v>773</v>
       </c>
       <c r="D6" s="25"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="26" t="s">
-        <v>758</v>
+        <v>753</v>
       </c>
       <c r="B7" s="26" t="s">
-        <v>758</v>
+        <v>753</v>
       </c>
       <c r="C7" s="25" t="s">
-        <v>779</v>
+        <v>774</v>
       </c>
       <c r="D7" s="25"/>
     </row>
@@ -17104,10 +17118,10 @@
     </row>
     <row r="2" spans="1:4" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="B2" s="31" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="C2" s="31"/>
     </row>
@@ -17124,24 +17138,24 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -17265,10 +17279,10 @@
     </row>
     <row r="2" spans="1:4" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="B2" s="31" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="C2" s="31"/>
     </row>
@@ -17285,46 +17299,46 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="8" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="B7" s="5">
         <v>3</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -17438,10 +17452,10 @@
     </row>
     <row r="2" spans="1:4" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="B2" s="31" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="C2" s="31"/>
     </row>
@@ -17458,24 +17472,24 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -17600,7 +17614,7 @@
         <v>257</v>
       </c>
       <c r="B2" s="31" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="C2" s="31"/>
     </row>
@@ -17617,24 +17631,24 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -17759,7 +17773,7 @@
         <v>257</v>
       </c>
       <c r="B2" s="31" t="s">
-        <v>258</v>
+        <v>802</v>
       </c>
       <c r="C2" s="31"/>
     </row>
@@ -17776,46 +17790,46 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="B4" s="5" t="s">
         <v>259</v>
       </c>
-      <c r="B4" s="5" t="s">
-        <v>260</v>
-      </c>
       <c r="C4" s="5" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="B6" s="5" t="s">
         <v>262</v>
       </c>
-      <c r="B6" s="5" t="s">
-        <v>263</v>
-      </c>
       <c r="C6" s="5" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="8" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -17910,9 +17924,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -17946,10 +17958,10 @@
         <v>8</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>784</v>
+        <v>779</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -17957,13 +17969,13 @@
         <v>255</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>785</v>
+        <v>780</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -17971,13 +17983,13 @@
         <v>256</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>786</v>
+        <v>781</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -18117,10 +18129,10 @@
     </row>
     <row r="2" spans="1:5" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
+        <v>777</v>
+      </c>
+      <c r="B2" s="31" t="s">
         <v>782</v>
-      </c>
-      <c r="B2" s="31" t="s">
-        <v>787</v>
       </c>
       <c r="C2" s="31"/>
       <c r="D2" s="31"/>
@@ -18133,38 +18145,38 @@
         <v>8</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>784</v>
+        <v>779</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
-        <v>788</v>
+        <v>783</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>790</v>
+        <v>785</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>792</v>
+        <v>787</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>794</v>
+        <v>789</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
-        <v>789</v>
+        <v>784</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>791</v>
+        <v>786</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>793</v>
+        <v>788</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -18818,10 +18830,10 @@
     </row>
     <row r="2" spans="1:4" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
-        <v>700</v>
+        <v>695</v>
       </c>
       <c r="B2" s="31" t="s">
-        <v>732</v>
+        <v>727</v>
       </c>
       <c r="C2" s="31"/>
       <c r="D2" s="24"/>
@@ -18834,66 +18846,66 @@
         <v>8</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="26" t="s">
-        <v>745</v>
+        <v>740</v>
       </c>
       <c r="B4" s="26" t="s">
-        <v>746</v>
+        <v>741</v>
       </c>
       <c r="C4" s="25" t="s">
-        <v>747</v>
+        <v>742</v>
       </c>
       <c r="D4" s="25" t="s">
-        <v>748</v>
+        <v>743</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="26" t="s">
-        <v>733</v>
+        <v>728</v>
       </c>
       <c r="B5" s="26" t="s">
-        <v>742</v>
+        <v>737</v>
       </c>
       <c r="C5" s="25" t="s">
-        <v>736</v>
+        <v>731</v>
       </c>
       <c r="D5" s="25" t="s">
-        <v>739</v>
+        <v>734</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="25" t="s">
-        <v>734</v>
+        <v>729</v>
       </c>
       <c r="B6" s="25" t="s">
-        <v>743</v>
+        <v>738</v>
       </c>
       <c r="C6" s="25" t="s">
-        <v>737</v>
+        <v>732</v>
       </c>
       <c r="D6" s="25" t="s">
-        <v>740</v>
+        <v>735</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="26" t="s">
-        <v>735</v>
+        <v>730</v>
       </c>
       <c r="B7" s="26" t="s">
-        <v>744</v>
+        <v>739</v>
       </c>
       <c r="C7" s="25" t="s">
-        <v>738</v>
+        <v>733</v>
       </c>
       <c r="D7" s="25" t="s">
-        <v>741</v>
+        <v>736</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -19733,11 +19745,11 @@
         <v>229</v>
       </c>
       <c r="B2" s="31" t="s">
-        <v>752</v>
+        <v>747</v>
       </c>
       <c r="C2" s="31"/>
       <c r="D2" s="24" t="s">
-        <v>750</v>
+        <v>745</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -19751,7 +19763,7 @@
         <v>3</v>
       </c>
       <c r="D3" s="28" t="s">
-        <v>749</v>
+        <v>744</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -20325,7 +20337,7 @@
       </c>
       <c r="C2" s="32"/>
       <c r="D2" s="29" t="s">
-        <v>795</v>
+        <v>790</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -20336,10 +20348,10 @@
         <v>8</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>784</v>
+        <v>779</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -20353,7 +20365,7 @@
         <v>9</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>798</v>
+        <v>793</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -20367,7 +20379,7 @@
         <v>10</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>797</v>
+        <v>792</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -20381,7 +20393,7 @@
         <v>59</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>796</v>
+        <v>791</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -20758,10 +20770,10 @@
     </row>
     <row r="2" spans="1:4" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
-        <v>700</v>
+        <v>695</v>
       </c>
       <c r="B2" s="31" t="s">
-        <v>699</v>
+        <v>694</v>
       </c>
       <c r="C2" s="31"/>
       <c r="D2" s="24"/>
@@ -20774,52 +20786,52 @@
         <v>8</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="26" t="s">
-        <v>701</v>
+        <v>696</v>
       </c>
       <c r="B4" s="26" t="s">
-        <v>704</v>
+        <v>699</v>
       </c>
       <c r="C4" s="25" t="s">
-        <v>707</v>
+        <v>702</v>
       </c>
       <c r="D4" s="25" t="s">
-        <v>710</v>
+        <v>705</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="25" t="s">
-        <v>702</v>
+        <v>697</v>
       </c>
       <c r="B5" s="25" t="s">
-        <v>705</v>
+        <v>700</v>
       </c>
       <c r="C5" s="25" t="s">
-        <v>708</v>
+        <v>703</v>
       </c>
       <c r="D5" s="25" t="s">
-        <v>711</v>
+        <v>706</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="26" t="s">
-        <v>703</v>
+        <v>698</v>
       </c>
       <c r="B6" s="26" t="s">
-        <v>706</v>
+        <v>701</v>
       </c>
       <c r="C6" s="25" t="s">
-        <v>709</v>
+        <v>704</v>
       </c>
       <c r="D6" s="25" t="s">
-        <v>712</v>
+        <v>707</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -21106,7 +21118,7 @@
         <v>61</v>
       </c>
       <c r="B2" s="32" t="s">
-        <v>538</v>
+        <v>533</v>
       </c>
       <c r="C2" s="32"/>
     </row>
@@ -21189,7 +21201,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
@@ -21657,14 +21669,14 @@
     </row>
     <row r="2" spans="1:4" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
-        <v>685</v>
+        <v>680</v>
       </c>
       <c r="B2" s="31" t="s">
-        <v>684</v>
+        <v>679</v>
       </c>
       <c r="C2" s="31"/>
       <c r="D2" s="24" t="s">
-        <v>696</v>
+        <v>691</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -21675,51 +21687,51 @@
         <v>8</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="26" t="s">
-        <v>687</v>
+        <v>682</v>
       </c>
       <c r="B4" s="26" t="s">
-        <v>690</v>
+        <v>685</v>
       </c>
       <c r="C4" s="25" t="s">
-        <v>693</v>
+        <v>688</v>
       </c>
       <c r="D4" s="25"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="25" t="s">
-        <v>688</v>
+        <v>683</v>
       </c>
       <c r="B5" s="25" t="s">
-        <v>691</v>
+        <v>686</v>
       </c>
       <c r="C5" s="25" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="D5" s="25"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="26" t="s">
+        <v>684</v>
+      </c>
+      <c r="B6" s="26" t="s">
+        <v>687</v>
+      </c>
+      <c r="C6" s="25" t="s">
         <v>689</v>
-      </c>
-      <c r="B6" s="26" t="s">
-        <v>692</v>
-      </c>
-      <c r="C6" s="25" t="s">
-        <v>694</v>
       </c>
       <c r="D6" s="25"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="26" t="s">
-        <v>695</v>
+        <v>690</v>
       </c>
       <c r="B7" s="26"/>
       <c r="C7" s="25"/>
@@ -21827,10 +21839,10 @@
     </row>
     <row r="2" spans="1:4" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
-        <v>665</v>
+        <v>660</v>
       </c>
       <c r="B2" s="31" t="s">
-        <v>668</v>
+        <v>663</v>
       </c>
       <c r="C2" s="31"/>
       <c r="D2" s="24"/>
@@ -21843,94 +21855,94 @@
         <v>8</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="26" t="s">
-        <v>673</v>
+        <v>668</v>
       </c>
       <c r="B4" s="26" t="s">
-        <v>673</v>
+        <v>668</v>
       </c>
       <c r="C4" s="25" t="s">
-        <v>675</v>
+        <v>670</v>
       </c>
       <c r="D4" s="25" t="s">
-        <v>677</v>
+        <v>672</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="25" t="s">
-        <v>669</v>
+        <v>664</v>
       </c>
       <c r="B5" s="25" t="s">
-        <v>669</v>
+        <v>664</v>
       </c>
       <c r="C5" s="25" t="s">
-        <v>676</v>
+        <v>671</v>
       </c>
       <c r="D5" s="25" t="s">
-        <v>680</v>
+        <v>675</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="26" t="s">
-        <v>671</v>
+        <v>666</v>
       </c>
       <c r="B6" s="26" t="s">
-        <v>671</v>
+        <v>666</v>
       </c>
       <c r="C6" s="25" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D6" s="25" t="s">
-        <v>679</v>
+        <v>674</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="26" t="s">
-        <v>674</v>
+        <v>669</v>
       </c>
       <c r="B7" s="26" t="s">
-        <v>674</v>
+        <v>669</v>
       </c>
       <c r="C7" s="25" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D7" s="25" t="s">
-        <v>678</v>
+        <v>673</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="26" t="s">
-        <v>672</v>
+        <v>667</v>
       </c>
       <c r="B8" s="26" t="s">
-        <v>672</v>
+        <v>667</v>
       </c>
       <c r="C8" s="25" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D8" s="25" t="s">
-        <v>681</v>
+        <v>676</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="25" t="s">
-        <v>670</v>
+        <v>665</v>
       </c>
       <c r="B9" s="25" t="s">
-        <v>670</v>
+        <v>665</v>
       </c>
       <c r="C9" s="25" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D9" s="25" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -22023,14 +22035,14 @@
     </row>
     <row r="2" spans="1:4" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
-        <v>656</v>
+        <v>651</v>
       </c>
       <c r="B2" s="31" t="s">
-        <v>655</v>
+        <v>650</v>
       </c>
       <c r="C2" s="31"/>
       <c r="D2" s="24" t="s">
-        <v>660</v>
+        <v>655</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -22041,51 +22053,51 @@
         <v>8</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="25" t="s">
-        <v>657</v>
+        <v>652</v>
       </c>
       <c r="B4" s="25" t="s">
-        <v>657</v>
+        <v>652</v>
       </c>
       <c r="C4" s="25" t="s">
-        <v>663</v>
+        <v>658</v>
       </c>
       <c r="D4" s="25"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="25" t="s">
-        <v>658</v>
+        <v>653</v>
       </c>
       <c r="B5" s="25" t="s">
-        <v>658</v>
+        <v>653</v>
       </c>
       <c r="C5" s="25" t="s">
-        <v>661</v>
+        <v>656</v>
       </c>
       <c r="D5" s="25"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="26" t="s">
-        <v>659</v>
+        <v>654</v>
       </c>
       <c r="B6" s="26" t="s">
-        <v>659</v>
+        <v>654</v>
       </c>
       <c r="C6" s="25" t="s">
-        <v>662</v>
+        <v>657</v>
       </c>
       <c r="D6" s="25"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="26" t="s">
-        <v>664</v>
+        <v>659</v>
       </c>
       <c r="B7" s="26"/>
       <c r="C7" s="25"/>
@@ -22193,10 +22205,10 @@
     </row>
     <row r="2" spans="1:4" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
-        <v>644</v>
+        <v>639</v>
       </c>
       <c r="B2" s="31" t="s">
-        <v>643</v>
+        <v>638</v>
       </c>
       <c r="C2" s="31"/>
       <c r="D2" s="24"/>
@@ -22209,38 +22221,38 @@
         <v>8</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="25" t="s">
-        <v>646</v>
+        <v>641</v>
       </c>
       <c r="B4" s="25" t="s">
-        <v>648</v>
+        <v>643</v>
       </c>
       <c r="C4" s="25" t="s">
-        <v>645</v>
+        <v>640</v>
       </c>
       <c r="D4" s="25" t="s">
-        <v>649</v>
+        <v>644</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="25" t="s">
-        <v>647</v>
+        <v>642</v>
       </c>
       <c r="B5" s="25" t="s">
-        <v>647</v>
+        <v>642</v>
       </c>
       <c r="C5" s="25" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="D5" s="25" t="s">
-        <v>650</v>
+        <v>645</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">

--- a/tools-core/model/业务字典.xlsx
+++ b/tools-core/model/业务字典.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14740" tabRatio="500" firstSheet="14" activeTab="22"/>
   </bookViews>
   <sheets>
     <sheet name="业务字典" sheetId="1" r:id="rId1"/>
@@ -9409,16 +9409,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>727654</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>62537</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>3094934</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>296217</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>2253642</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>40485</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>292762</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>30325</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -9427,7 +9427,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2363414" y="1779577"/>
+          <a:off x="7240214" y="550217"/>
           <a:ext cx="4035508" cy="3025948"/>
           <a:chOff x="443174" y="1820217"/>
           <a:chExt cx="4035508" cy="3025948"/>
@@ -11893,8 +11893,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -15592,7 +15592,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D24"/>
   <sheetViews>
-    <sheetView zoomScale="125" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>

--- a/tools-core/model/业务字典.xlsx
+++ b/tools-core/model/业务字典.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14740" tabRatio="500" firstSheet="14" activeTab="22"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14740" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="业务字典" sheetId="1" r:id="rId1"/>
@@ -119,7 +119,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1335" uniqueCount="804">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1342" uniqueCount="811">
   <si>
     <t>银行业务的类型划分</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2696,68 +2696,30 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>表示某个功能的类别，如：交易，页面</t>
-    <rPh sb="0" eb="1">
-      <t>biao shi</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>mou ge</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>gong n</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>de</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>lei bie</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>ru</t>
-    </rPh>
-    <rPh sb="12" eb="13">
+    <t>交易流</t>
+    <rPh sb="0" eb="1">
       <t>jiao y</t>
     </rPh>
-    <rPh sb="15" eb="16">
-      <t>ye mian</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>渠道服务</t>
-    <rPh sb="0" eb="1">
-      <t>qu dao</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>fu wu</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>交易流</t>
-    <rPh sb="0" eb="1">
+    <rPh sb="2" eb="3">
+      <t>liu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>页面流</t>
+    <rPh sb="0" eb="1">
+      <t>ye mian liu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>柜面交易</t>
+    <rPh sb="0" eb="1">
+      <t>gui mian</t>
+    </rPh>
+    <rPh sb="2" eb="3">
       <t>jiao y</t>
     </rPh>
-    <rPh sb="2" eb="3">
-      <t>liu</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>页面流</t>
-    <rPh sb="0" eb="1">
-      <t>ye mian liu</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>柜面交易</t>
-    <rPh sb="0" eb="1">
-      <t>gui mian</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>jiao y</t>
-    </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2778,14 +2740,6 @@
   </si>
   <si>
     <t>tradeprocess</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>chnservice</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tx</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -6081,10 +6035,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>DICT_AC_RESOURCETYPE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>role</t>
   </si>
   <si>
@@ -7691,6 +7641,174 @@
     <rPh sb="19" eb="20">
       <t>ding yi</t>
     </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DICT_AC_RESOURCETYPE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>该功能对应一个页面流功能</t>
+    <rPh sb="0" eb="1">
+      <t>gai</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>gong n</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>dui ying</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>yi ge</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ye mian liu</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>gong n</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>功能类型</t>
+    <rPh sb="0" eb="1">
+      <t>ogng n</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>lei xing</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表示某个功能的类别，如：交易、页面流、接口服务</t>
+    <rPh sb="0" eb="1">
+      <t>biao shi</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>mou ge</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>gong n</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>lei bie</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ru</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>jiao y</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ye mian</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>liu</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>jie kou</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>fu wu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表示一个渠道接口服务</t>
+    <rPh sb="0" eb="1">
+      <t>biao shi</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>yi ge</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>qu dao</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>jie kou</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>fu wu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>restful</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RESTFul服务</t>
+    <rPh sb="7" eb="8">
+      <t>fu wu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表示一个交易功能，该交易由交易引擎驱动</t>
+    <rPh sb="0" eb="1">
+      <t>biao shi</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>yi ge</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>jiao y</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>gong n</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>gai</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>jiao y</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>you</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>jiao y</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>yin q</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>qu dong</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表示一个交易流，功能被</t>
+    <rPh sb="0" eb="1">
+      <t>biao shi</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>yi ge</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>jiao y liu</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>gong n</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>bei</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>twstx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DICT_AC_BEHAVIORTYPE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>操作行为类型</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -11891,11 +12009,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G68"/>
+  <dimension ref="A1:G69"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -11919,10 +12035,10 @@
         <v>3</v>
       </c>
       <c r="D1" s="30" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="E1" s="30" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="F1" s="23" t="s">
         <v>247</v>
@@ -11939,16 +12055,16 @@
         <v>0</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="E2" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="F2" s="17" t="s">
         <v>248</v>
       </c>
       <c r="G2" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -11962,16 +12078,16 @@
         <v>57</v>
       </c>
       <c r="D3" s="17" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="E3" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="F3" s="17" t="s">
         <v>249</v>
       </c>
       <c r="G3" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -11985,10 +12101,10 @@
         <v>99</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="E4" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="F4" s="17" t="s">
         <v>249</v>
@@ -11996,7 +12112,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>746</v>
+        <v>741</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>228</v>
@@ -12005,10 +12121,10 @@
         <v>126</v>
       </c>
       <c r="D5" s="17" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="E5" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="F5" s="17" t="s">
         <v>249</v>
@@ -12025,10 +12141,10 @@
         <v>130</v>
       </c>
       <c r="D6" s="17" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="E6" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="F6" s="17" t="s">
         <v>249</v>
@@ -12045,10 +12161,10 @@
         <v>213</v>
       </c>
       <c r="D7" s="17" t="s">
+        <v>435</v>
+      </c>
+      <c r="E7" t="s">
         <v>439</v>
-      </c>
-      <c r="E7" t="s">
-        <v>443</v>
       </c>
       <c r="F7" s="17" t="s">
         <v>249</v>
@@ -12065,10 +12181,10 @@
         <v>56</v>
       </c>
       <c r="D8" s="17" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="E8" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="F8" s="17" t="s">
         <v>248</v>
@@ -12085,10 +12201,10 @@
         <v>55</v>
       </c>
       <c r="D9" s="17" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="E9" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="F9" s="17" t="s">
         <v>248</v>
@@ -12105,10 +12221,10 @@
         <v>54</v>
       </c>
       <c r="D10" s="17" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="E10" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="F10" s="17" t="s">
         <v>248</v>
@@ -12116,16 +12232,16 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>61</v>
       </c>
       <c r="D11" s="17" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="E11" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="F11" s="17" t="s">
         <v>248</v>
@@ -12142,10 +12258,10 @@
         <v>95</v>
       </c>
       <c r="D12" s="17" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="E12" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="F12" s="17" t="s">
         <v>249</v>
@@ -12162,10 +12278,10 @@
         <v>96</v>
       </c>
       <c r="D13" s="17" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="E13" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="F13" s="17" t="s">
         <v>249</v>
@@ -12182,10 +12298,10 @@
         <v>145</v>
       </c>
       <c r="D14" s="17" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="E14" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="F14" s="17" t="s">
         <v>248</v>
@@ -12199,13 +12315,13 @@
         <v>179</v>
       </c>
       <c r="C15" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="D15" s="17" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="E15" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="F15" s="17" t="s">
         <v>249</v>
@@ -12222,10 +12338,10 @@
         <v>251</v>
       </c>
       <c r="D16" s="17" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="E16" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="F16" s="17" t="s">
         <v>248</v>
@@ -12242,10 +12358,10 @@
         <v>205</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="E17" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="F17" s="17" t="s">
         <v>248</v>
@@ -12262,10 +12378,10 @@
         <v>235</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="E18" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="F18" s="17" t="s">
         <v>248</v>
@@ -12282,10 +12398,10 @@
         <v>253</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="E19" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="F19" s="17" t="s">
         <v>249</v>
@@ -12293,19 +12409,19 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
-        <v>776</v>
+        <v>771</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>777</v>
+        <v>772</v>
       </c>
       <c r="C20" t="s">
-        <v>778</v>
+        <v>773</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="E20" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="F20" s="17" t="s">
         <v>249</v>
@@ -12313,19 +12429,19 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
-        <v>801</v>
+        <v>796</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>257</v>
       </c>
       <c r="C21" t="s">
-        <v>803</v>
+        <v>798</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="E21" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="F21" s="17" t="s">
         <v>249</v>
@@ -12333,130 +12449,130 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="C22" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="E22" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="F22" s="17" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>798</v>
+        <v>793</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="E23" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="F23" s="17" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="C24" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="E24" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="F24" s="17" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="C25" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="E25" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="F25" s="17" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="E26" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="F26" s="17" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="C27" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="E27" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="F27" s="17" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
-        <v>708</v>
+        <v>703</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>637</v>
+        <v>633</v>
       </c>
       <c r="D28" s="17" t="s">
+        <v>435</v>
+      </c>
+      <c r="E28" t="s">
         <v>439</v>
-      </c>
-      <c r="E28" t="s">
-        <v>443</v>
       </c>
       <c r="F28" s="17" t="s">
         <v>249</v>
@@ -12464,176 +12580,176 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
-        <v>693</v>
+        <v>688</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>695</v>
+        <v>690</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="E29" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="F29" s="17" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="C30" t="s">
-        <v>635</v>
+        <v>631</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="E30" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="F30" s="17" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="E31" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="F31" s="17" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="C32" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="E32" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="F32" s="17" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="C33" t="s">
-        <v>600</v>
+        <v>596</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="E33" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="F33" s="17" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
       <c r="C34" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="E34" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="F34" s="17" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>611</v>
+        <v>607</v>
       </c>
       <c r="C35" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="E35" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="F35" s="17" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
-        <v>711</v>
+        <v>706</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>624</v>
+        <v>620</v>
       </c>
       <c r="C36" t="s">
-        <v>600</v>
+        <v>596</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="E36" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="F36" s="17" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
+        <v>625</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>628</v>
+      </c>
+      <c r="C37" t="s">
+        <v>630</v>
+      </c>
+      <c r="D37" s="17" t="s">
+        <v>435</v>
+      </c>
+      <c r="E37" t="s">
         <v>629</v>
       </c>
-      <c r="B37" s="2" t="s">
-        <v>632</v>
-      </c>
-      <c r="C37" t="s">
-        <v>634</v>
-      </c>
-      <c r="D37" s="17" t="s">
-        <v>439</v>
-      </c>
-      <c r="E37" t="s">
-        <v>633</v>
-      </c>
       <c r="F37" s="17" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
@@ -12647,10 +12763,10 @@
         <v>288</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="E38" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="F38" s="17" t="s">
         <v>249</v>
@@ -12667,10 +12783,10 @@
         <v>287</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="E39" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="F39" s="17" t="s">
         <v>249</v>
@@ -12684,13 +12800,13 @@
         <v>290</v>
       </c>
       <c r="C40" t="s">
-        <v>292</v>
+        <v>802</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="E40" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="F40" s="17" t="s">
         <v>249</v>
@@ -12698,39 +12814,28 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
-        <v>678</v>
+        <v>809</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>680</v>
-      </c>
-      <c r="C41" t="s">
-        <v>681</v>
-      </c>
-      <c r="D41" s="17" t="s">
-        <v>439</v>
-      </c>
-      <c r="E41" t="s">
-        <v>447</v>
-      </c>
-      <c r="F41" s="17" t="s">
-        <v>249</v>
-      </c>
+        <v>810</v>
+      </c>
+      <c r="E41"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
-        <v>308</v>
+        <v>673</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>306</v>
+        <v>675</v>
       </c>
       <c r="C42" t="s">
-        <v>307</v>
+        <v>676</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="E42" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="F42" s="17" t="s">
         <v>249</v>
@@ -12738,19 +12843,19 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
-        <v>316</v>
-      </c>
-      <c r="B43" t="s">
-        <v>317</v>
+        <v>304</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>302</v>
       </c>
       <c r="C43" t="s">
-        <v>318</v>
+        <v>303</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="E43" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="F43" s="17" t="s">
         <v>249</v>
@@ -12758,19 +12863,19 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
-        <v>331</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>332</v>
+        <v>312</v>
+      </c>
+      <c r="B44" t="s">
+        <v>313</v>
       </c>
       <c r="C44" t="s">
-        <v>333</v>
+        <v>314</v>
       </c>
       <c r="D44" s="17" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="E44" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="F44" s="17" t="s">
         <v>249</v>
@@ -12778,19 +12883,19 @@
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="s">
-        <v>350</v>
+        <v>327</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>351</v>
+        <v>328</v>
       </c>
       <c r="C45" t="s">
-        <v>369</v>
+        <v>329</v>
       </c>
       <c r="D45" s="17" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="E45" t="s">
-        <v>450</v>
+        <v>443</v>
       </c>
       <c r="F45" s="17" t="s">
         <v>249</v>
@@ -12798,19 +12903,19 @@
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
-        <v>370</v>
+        <v>346</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>371</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>372</v>
+        <v>347</v>
+      </c>
+      <c r="C46" t="s">
+        <v>365</v>
       </c>
       <c r="D46" s="17" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="E46" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="F46" s="17" t="s">
         <v>249</v>
@@ -12818,16 +12923,19 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="s">
-        <v>390</v>
+        <v>366</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>391</v>
+        <v>367</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>368</v>
       </c>
       <c r="D47" s="17" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="E47" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="F47" s="17" t="s">
         <v>249</v>
@@ -12835,19 +12943,16 @@
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="s">
-        <v>649</v>
+        <v>386</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>647</v>
-      </c>
-      <c r="C48" t="s">
-        <v>648</v>
+        <v>387</v>
       </c>
       <c r="D48" s="17" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="E48" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="F48" s="17" t="s">
         <v>249</v>
@@ -12855,19 +12960,19 @@
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="s">
-        <v>662</v>
+        <v>645</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>660</v>
+        <v>643</v>
       </c>
       <c r="C49" t="s">
-        <v>661</v>
+        <v>644</v>
       </c>
       <c r="D49" s="17" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="E49" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="F49" s="17" t="s">
         <v>249</v>
@@ -12875,13 +12980,16 @@
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="s">
-        <v>412</v>
+        <v>658</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>413</v>
+        <v>656</v>
+      </c>
+      <c r="C50" t="s">
+        <v>657</v>
       </c>
       <c r="D50" s="17" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="E50" t="s">
         <v>448</v>
@@ -12892,19 +13000,16 @@
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="s">
-        <v>726</v>
+        <v>408</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>725</v>
-      </c>
-      <c r="C51" t="s">
-        <v>749</v>
+        <v>409</v>
       </c>
       <c r="D51" s="17" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="E51" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="F51" s="17" t="s">
         <v>249</v>
@@ -12912,19 +13017,19 @@
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="s">
-        <v>760</v>
+        <v>721</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>748</v>
+        <v>720</v>
       </c>
       <c r="C52" t="s">
-        <v>756</v>
+        <v>744</v>
       </c>
       <c r="D52" s="17" t="s">
+        <v>435</v>
+      </c>
+      <c r="E52" t="s">
         <v>439</v>
-      </c>
-      <c r="E52" t="s">
-        <v>443</v>
       </c>
       <c r="F52" s="17" t="s">
         <v>249</v>
@@ -12932,26 +13037,43 @@
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" s="3" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>754</v>
+        <v>743</v>
       </c>
       <c r="C53" t="s">
-        <v>755</v>
+        <v>751</v>
       </c>
       <c r="D53" s="17" t="s">
+        <v>435</v>
+      </c>
+      <c r="E53" t="s">
         <v>439</v>
-      </c>
-      <c r="E53" t="s">
-        <v>443</v>
       </c>
       <c r="F53" s="17" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="E54"/>
+      <c r="A54" s="3" t="s">
+        <v>752</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>749</v>
+      </c>
+      <c r="C54" t="s">
+        <v>750</v>
+      </c>
+      <c r="D54" s="17" t="s">
+        <v>435</v>
+      </c>
+      <c r="E54" t="s">
+        <v>439</v>
+      </c>
+      <c r="F54" s="17" t="s">
+        <v>249</v>
+      </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="E55"/>
@@ -12994,15 +13116,18 @@
     </row>
     <row r="68" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E68"/>
+    </row>
+    <row r="69" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E69"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:F18"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F53">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F54">
       <formula1>"应用,系统"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D53">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D54">
       <formula1>"平台定义,需求提供,标准数据同步"</formula1>
     </dataValidation>
   </dataValidations>
@@ -13027,13 +13152,13 @@
     <hyperlink ref="A38" location="DICT_AC_ROLETYPE!A1" display="DICT_AC_ROLETYPE"/>
     <hyperlink ref="A39" location="DICT_AC_APPTYPE!A1" display="DICT_AC_APPTYPE"/>
     <hyperlink ref="A40" location="DICT_AC_FUNCTYPE!A1" display="DICT_AC_FUNCTYPE"/>
-    <hyperlink ref="A42" location="DICT_AC_OPENMODE!A1" display="DICT_AC_OPENMODE"/>
-    <hyperlink ref="A43" location="DICT_AC_AUTHTYP!A1" display="DICT_AC_AUTHTYP"/>
-    <hyperlink ref="A44" location="DICT_AC_ENTITYTYPE!A1" display="DICT_AC_ENTITYTYPE"/>
-    <hyperlink ref="A45" location="DICT_AC_DATAOPTYPE!A1" display="DICT_AC_DATAOPTYPE"/>
-    <hyperlink ref="A46" location="DICT_AC_AUTHMODE!A1" display="DICT_AC_AUTHMODE"/>
-    <hyperlink ref="A47" location="DICT_AC_OPERATOR_STATUS!A1" display="DICT_AC_OPERATOR_STATUS"/>
-    <hyperlink ref="A50" location="DICT_AC_MENUTYPE!A1" display="DICT_AC_MENUTYPE"/>
+    <hyperlink ref="A43" location="DICT_AC_OPENMODE!A1" display="DICT_AC_OPENMODE"/>
+    <hyperlink ref="A44" location="DICT_AC_AUTHTYP!A1" display="DICT_AC_AUTHTYP"/>
+    <hyperlink ref="A45" location="DICT_AC_ENTITYTYPE!A1" display="DICT_AC_ENTITYTYPE"/>
+    <hyperlink ref="A46" location="DICT_AC_DATAOPTYPE!A1" display="DICT_AC_DATAOPTYPE"/>
+    <hyperlink ref="A47" location="DICT_AC_AUTHMODE!A1" display="DICT_AC_AUTHMODE"/>
+    <hyperlink ref="A48" location="DICT_AC_OPERATOR_STATUS!A1" display="DICT_AC_OPERATOR_STATUS"/>
+    <hyperlink ref="A51" location="DICT_AC_MENUTYPE!A1" display="DICT_AC_MENUTYPE"/>
     <hyperlink ref="A22" location="DICT_OM_ORGSTATUS!A1" display="DICT_OM_ORGSTATUS"/>
     <hyperlink ref="A24" location="DICT_OM_ORGDEGREE!A1" display="DICT_OM_ORGDEGREE"/>
     <hyperlink ref="A25" location="DICT_OM_ORGTYPE!A1" display="DICT_OM_ORGTYPE"/>
@@ -13048,15 +13173,15 @@
     <hyperlink ref="A36" location="DICT_OM_POSITYPE!A1" display="DICT_OM_POSITYPE"/>
     <hyperlink ref="A35" location="DICT_OM_DUTYTYPE!A1" display="DICT_OM_DUTYTYPE"/>
     <hyperlink ref="A37" location="DICT_OM_POSISTATUS!A1" display="DICT_OM_POSISTATUS"/>
-    <hyperlink ref="A48" location="DICT_AC_CONFIGTYPE!A1" display="DICT_AC_CONFIGTYPE"/>
-    <hyperlink ref="A49" location="DICT_AC_RESOURCETYPE!A1" display="DICT_AC_RESOURCETYPE"/>
-    <hyperlink ref="A41" location="DICT_AC_FUNCRESTYPE!A1" display="DICT_AC_FUNCRESTYPE"/>
+    <hyperlink ref="A49" location="DICT_AC_CONFIGTYPE!A1" display="DICT_AC_CONFIGTYPE"/>
+    <hyperlink ref="A50" location="DICT_AC_RESOURCETYPE!A1" display="DICT_AC_RESOURCETYPE"/>
+    <hyperlink ref="A42" location="DICT_AC_FUNCRESTYPE!A1" display="DICT_AC_FUNCRESTYPE"/>
     <hyperlink ref="A29" location="DICT_OM_GENDER!A1" display="DICT_OM_GENDER"/>
     <hyperlink ref="A28" location="DICT_OM_NODETYPE!A1" display="DICT_OM_NODETYPE"/>
-    <hyperlink ref="A51" location="DICT_SYS_RESET!A1" display="DICT_SYS_RESET"/>
+    <hyperlink ref="A52" location="DICT_SYS_RESET!A1" display="DICT_SYS_RESET"/>
     <hyperlink ref="A5" location="DICT_ACTION_TYPE!A1" display="DICT_ACTION_TYPE"/>
-    <hyperlink ref="A52" location="DICT_OPERATOR_TYPE!A1" display="DICT_OPERATOR_TYPE"/>
-    <hyperlink ref="A53" location="DICT_OPERATOR_RESULT!A1" display="DICT_OPERATOR_RESULT"/>
+    <hyperlink ref="A53" location="DICT_OPERATOR_TYPE!A1" display="DICT_OPERATOR_TYPE"/>
+    <hyperlink ref="A54" location="DICT_OPERATOR_RESULT!A1" display="DICT_OPERATOR_RESULT"/>
     <hyperlink ref="A20" location="DICT_TYPE!A1" display="DICT_TYPE"/>
     <hyperlink ref="A21" location="DICT_AC_PARTYTYPE!A1" display="DICT_AC_PARTYTYPE"/>
   </hyperlinks>
@@ -13086,10 +13211,10 @@
     </row>
     <row r="2" spans="1:4" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
       <c r="B2" s="31" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="C2" s="31"/>
       <c r="D2" s="24"/>
@@ -13102,38 +13227,38 @@
         <v>8</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="25" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="B4" s="25" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="C4" s="25" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="D4" s="25" t="s">
-        <v>636</v>
+        <v>632</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="25" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
       <c r="B5" s="25" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="C5" s="25" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="D5" s="25" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -13251,14 +13376,14 @@
     </row>
     <row r="2" spans="1:4" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
       <c r="B2" s="31" t="s">
-        <v>625</v>
+        <v>621</v>
       </c>
       <c r="C2" s="31"/>
       <c r="D2" s="24" t="s">
-        <v>615</v>
+        <v>611</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -13269,33 +13394,33 @@
         <v>8</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="26" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
       <c r="B4" s="26" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
       <c r="C4" s="25" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
       <c r="D4" s="25"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="26" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="B5" s="26" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="C5" s="25" t="s">
-        <v>628</v>
+        <v>624</v>
       </c>
       <c r="D5" s="25"/>
     </row>
@@ -13413,14 +13538,14 @@
     </row>
     <row r="2" spans="1:4" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="B2" s="31" t="s">
-        <v>710</v>
+        <v>705</v>
       </c>
       <c r="C2" s="31"/>
       <c r="D2" s="24" t="s">
-        <v>615</v>
+        <v>611</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -13431,69 +13556,69 @@
         <v>8</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="26" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
       <c r="B4" s="26" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
       <c r="C4" s="25" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="D4" s="25"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="26" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="B5" s="26" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="C5" s="25" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
       <c r="D5" s="25"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="26" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="B6" s="26" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="C6" s="25" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
       <c r="D6" s="25"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="26" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="B7" s="26" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="C7" s="25" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
       <c r="D7" s="25"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="26" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
       <c r="B8" s="26" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
       <c r="C8" s="25" t="s">
-        <v>622</v>
+        <v>618</v>
       </c>
       <c r="D8" s="25"/>
     </row>
@@ -13593,14 +13718,14 @@
     </row>
     <row r="2" spans="1:4" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
       <c r="B2" s="31" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="C2" s="31"/>
       <c r="D2" s="24" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -13611,38 +13736,38 @@
         <v>8</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="25" t="s">
+        <v>601</v>
+      </c>
+      <c r="B4" s="25" t="s">
+        <v>602</v>
+      </c>
+      <c r="C4" s="25" t="s">
+        <v>392</v>
+      </c>
+      <c r="D4" s="25" t="s">
         <v>605</v>
-      </c>
-      <c r="B4" s="25" t="s">
-        <v>606</v>
-      </c>
-      <c r="C4" s="25" t="s">
-        <v>396</v>
-      </c>
-      <c r="D4" s="25" t="s">
-        <v>609</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="25" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
       <c r="B5" s="25" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="C5" s="25" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="D5" s="25" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -13760,14 +13885,14 @@
     </row>
     <row r="2" spans="1:4" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
       <c r="B2" s="31" t="s">
-        <v>712</v>
+        <v>707</v>
       </c>
       <c r="C2" s="31"/>
       <c r="D2" s="24" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -13778,52 +13903,52 @@
         <v>8</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="25" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
       <c r="B4" s="25" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
       <c r="C4" s="25" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
       <c r="D4" s="25" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="25" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
       <c r="B5" s="25" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
       <c r="C5" s="25" t="s">
-        <v>594</v>
+        <v>590</v>
       </c>
       <c r="D5" s="25" t="s">
-        <v>596</v>
+        <v>592</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="25" t="s">
-        <v>590</v>
+        <v>586</v>
       </c>
       <c r="B6" s="25" t="s">
-        <v>590</v>
+        <v>586</v>
       </c>
       <c r="C6" s="25" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
       <c r="D6" s="25" t="s">
-        <v>597</v>
+        <v>593</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -13934,14 +14059,14 @@
     </row>
     <row r="2" spans="1:4" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="B2" s="31" t="s">
-        <v>709</v>
+        <v>704</v>
       </c>
       <c r="C2" s="31"/>
       <c r="D2" s="24" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -13952,194 +14077,194 @@
         <v>8</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="25" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="B4" s="25" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="C4" s="25" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="D4" s="25"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="25" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="B5" s="25" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="C5" s="25" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="D5" s="25"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="25" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="B6" s="25" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="C6" s="25" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="D6" s="25"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="25" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="B7" s="25" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="C7" s="25" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="D7" s="25"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="25" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="B8" s="25" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="C8" s="25" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="D8" s="25"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="25" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="B9" s="25" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="C9" s="25" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="D9" s="25"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="25" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="B10" s="25" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="C10" s="25" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="D10" s="11"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="25" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="B11" s="25" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="C11" s="25" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="D11" s="14"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="25" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="B12" s="25" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="C12" s="25" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="25" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="B13" s="25" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="C13" s="25" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="25" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="B14" s="25" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="C14" s="25" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="25" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
       <c r="B15" s="25" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
       <c r="C15" s="25" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="25" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="B16" s="25" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="C16" s="25" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="25" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="B17" s="25" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="C17" s="25" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="25" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="B18" s="25" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="C18" s="25" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="25" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="B19" s="25" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="C19" s="25" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
@@ -14180,14 +14305,14 @@
     </row>
     <row r="2" spans="1:4" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="B2" s="31" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="C2" s="31"/>
       <c r="D2" s="24" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -14198,52 +14323,52 @@
         <v>8</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="C4" s="25" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="D4" s="25" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="C5" s="25" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="D5" s="25" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="C6" s="25" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="D6" s="25" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -14344,10 +14469,10 @@
     </row>
     <row r="2" spans="1:4" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="B2" s="31" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="C2" s="31"/>
       <c r="D2" s="24"/>
@@ -14360,45 +14485,45 @@
         <v>8</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="C4" s="25" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="D4" s="25"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="C5" s="25" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="D5" s="25"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="C6" s="25" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="D6" s="25"/>
     </row>
@@ -14406,7 +14531,7 @@
       <c r="A7" s="5"/>
       <c r="B7" s="5"/>
       <c r="C7" s="25" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="D7" s="25"/>
     </row>
@@ -14501,14 +14626,14 @@
     </row>
     <row r="2" spans="1:4" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="B2" s="31" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="C2" s="31"/>
       <c r="D2" s="24" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -14519,75 +14644,75 @@
         <v>8</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="C4" s="25" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="D4" s="25"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="C5" s="25" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="D5" s="25"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="C6" s="25" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="D6" s="25"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="C7" s="25" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="D7" s="25"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="C8" s="25" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="D8" s="25"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
@@ -14672,14 +14797,14 @@
     </row>
     <row r="2" spans="1:4" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="B2" s="31" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="C2" s="31"/>
       <c r="D2" s="24" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -14690,10 +14815,10 @@
         <v>8</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -14705,7 +14830,7 @@
       </c>
       <c r="C4" s="25"/>
       <c r="D4" s="25" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -14717,7 +14842,7 @@
       </c>
       <c r="C5" s="25"/>
       <c r="D5" s="25" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -14729,7 +14854,7 @@
       </c>
       <c r="C6" s="25"/>
       <c r="D6" s="25" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -14741,7 +14866,7 @@
       </c>
       <c r="C7" s="25"/>
       <c r="D7" s="25" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -14753,12 +14878,12 @@
       </c>
       <c r="C8" s="25"/>
       <c r="D8" s="25" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
@@ -14843,10 +14968,10 @@
     </row>
     <row r="2" spans="1:4" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
-        <v>754</v>
+        <v>749</v>
       </c>
       <c r="B2" s="31" t="s">
-        <v>758</v>
+        <v>753</v>
       </c>
       <c r="C2" s="31"/>
       <c r="D2" s="24"/>
@@ -14859,52 +14984,52 @@
         <v>8</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="26" t="s">
-        <v>766</v>
+        <v>761</v>
       </c>
       <c r="B4" s="26" t="s">
-        <v>766</v>
+        <v>761</v>
       </c>
       <c r="C4" s="25" t="s">
         <v>77</v>
       </c>
       <c r="D4" s="25" t="s">
-        <v>771</v>
+        <v>766</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="26" t="s">
+        <v>757</v>
+      </c>
+      <c r="B5" s="26" t="s">
+        <v>760</v>
+      </c>
+      <c r="C5" s="25" t="s">
         <v>762</v>
       </c>
-      <c r="B5" s="26" t="s">
-        <v>765</v>
-      </c>
-      <c r="C5" s="25" t="s">
-        <v>767</v>
-      </c>
       <c r="D5" s="25" t="s">
-        <v>769</v>
+        <v>764</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="25" t="s">
+        <v>758</v>
+      </c>
+      <c r="B6" s="25" t="s">
+        <v>759</v>
+      </c>
+      <c r="C6" s="25" t="s">
         <v>763</v>
       </c>
-      <c r="B6" s="25" t="s">
-        <v>764</v>
-      </c>
-      <c r="C6" s="25" t="s">
-        <v>768</v>
-      </c>
       <c r="D6" s="25" t="s">
-        <v>770</v>
+        <v>765</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -15021,14 +15146,14 @@
     </row>
     <row r="2" spans="1:4" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="B2" s="31" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="C2" s="31"/>
       <c r="D2" s="24" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -15039,39 +15164,39 @@
         <v>8</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="D4" s="5"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="D5" s="5"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
@@ -15204,14 +15329,14 @@
     </row>
     <row r="2" spans="1:4" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
+        <v>460</v>
+      </c>
+      <c r="B2" s="31" t="s">
         <v>464</v>
-      </c>
-      <c r="B2" s="31" t="s">
-        <v>468</v>
       </c>
       <c r="C2" s="31"/>
       <c r="D2" s="24" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -15222,69 +15347,69 @@
         <v>8</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="D4" s="5"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="D5" s="5"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="D6" s="5"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="D7" s="5"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
-        <v>795</v>
+        <v>790</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>796</v>
+        <v>791</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>794</v>
+        <v>789</v>
       </c>
       <c r="D8" s="5"/>
     </row>
@@ -15403,10 +15528,10 @@
     </row>
     <row r="2" spans="1:4" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="B2" s="31" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="C2" s="31"/>
     </row>
@@ -15418,80 +15543,80 @@
         <v>8</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>797</v>
+        <v>792</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>724</v>
+        <v>719</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>715</v>
+        <v>710</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>719</v>
+        <v>714</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>716</v>
+        <v>711</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>720</v>
+        <v>715</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>717</v>
+        <v>712</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>718</v>
+        <v>713</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>721</v>
+        <v>716</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
-        <v>722</v>
+        <v>717</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>714</v>
+        <v>709</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>713</v>
+        <v>708</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>723</v>
+        <v>718</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -15592,9 +15717,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
-    </sheetView>
+    <sheetView zoomScale="125" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -15611,14 +15734,14 @@
     </row>
     <row r="2" spans="1:4" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="B2" s="31" t="s">
-        <v>799</v>
+        <v>794</v>
       </c>
       <c r="C2" s="31"/>
       <c r="D2" s="27" t="s">
-        <v>692</v>
+        <v>687</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -15629,52 +15752,52 @@
         <v>8</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>800</v>
+        <v>795</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -15805,10 +15928,10 @@
     </row>
     <row r="2" spans="1:4" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="B2" s="31" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="C2" s="31"/>
     </row>
@@ -15820,45 +15943,45 @@
         <v>8</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="D4" s="5"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="D5" s="5"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="D6" s="5"/>
     </row>
@@ -15989,10 +16112,10 @@
     </row>
     <row r="2" spans="1:4" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="B2" s="31" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="C2" s="31"/>
     </row>
@@ -16004,94 +16127,94 @@
         <v>8</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
+        <v>389</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>389</v>
+      </c>
+      <c r="C5" s="5" t="s">
         <v>393</v>
       </c>
-      <c r="B5" s="5" t="s">
-        <v>393</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>397</v>
-      </c>
       <c r="D5" s="5" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
+        <v>390</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>390</v>
+      </c>
+      <c r="C6" s="5" t="s">
         <v>394</v>
       </c>
-      <c r="B6" s="5" t="s">
-        <v>394</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>398</v>
-      </c>
       <c r="D6" s="5" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
+        <v>391</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>391</v>
+      </c>
+      <c r="C7" s="5" t="s">
         <v>395</v>
       </c>
-      <c r="B7" s="5" t="s">
-        <v>395</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>399</v>
-      </c>
       <c r="D7" s="5" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -16204,10 +16327,10 @@
     </row>
     <row r="2" spans="1:4" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="B2" s="31" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="C2" s="31"/>
     </row>
@@ -16219,90 +16342,90 @@
         <v>8</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="D7" s="5"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="D8" s="5"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -16414,10 +16537,10 @@
     </row>
     <row r="2" spans="1:4" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="B2" s="31" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="C2" s="31"/>
     </row>
@@ -16429,66 +16552,66 @@
         <v>8</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="B4" s="5" t="s">
+        <v>353</v>
+      </c>
+      <c r="C4" s="5" t="s">
         <v>357</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="D4" s="5" t="s">
         <v>361</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>365</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="B5" s="5" t="s">
+        <v>354</v>
+      </c>
+      <c r="C5" s="5" t="s">
         <v>358</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="D5" s="5" t="s">
         <v>362</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="B6" s="5" t="s">
+        <v>355</v>
+      </c>
+      <c r="C6" s="5" t="s">
         <v>359</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="D6" s="5" t="s">
         <v>363</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>367</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
+        <v>352</v>
+      </c>
+      <c r="B7" s="5" t="s">
         <v>356</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="C7" s="5" t="s">
         <v>360</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="D7" s="11" t="s">
         <v>364</v>
-      </c>
-      <c r="D7" s="11" t="s">
-        <v>368</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -16583,9 +16706,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -16602,10 +16723,10 @@
     </row>
     <row r="2" spans="1:4" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="B2" s="31" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="C2" s="31"/>
     </row>
@@ -16617,57 +16738,57 @@
         <v>8</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="D6" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -16779,10 +16900,10 @@
     </row>
     <row r="2" spans="1:4" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="B2" s="31" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="C2" s="31"/>
     </row>
@@ -16799,24 +16920,24 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -16938,14 +17059,14 @@
     </row>
     <row r="2" spans="1:4" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
-        <v>761</v>
+        <v>756</v>
       </c>
       <c r="B2" s="31" t="s">
-        <v>759</v>
+        <v>754</v>
       </c>
       <c r="C2" s="31"/>
       <c r="D2" s="24" t="s">
-        <v>775</v>
+        <v>770</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -16956,57 +17077,57 @@
         <v>8</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="26" t="s">
-        <v>750</v>
+        <v>745</v>
       </c>
       <c r="B4" s="26" t="s">
-        <v>750</v>
+        <v>745</v>
       </c>
       <c r="C4" s="25" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="D4" s="25"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="26" t="s">
-        <v>751</v>
+        <v>746</v>
       </c>
       <c r="B5" s="26" t="s">
-        <v>751</v>
+        <v>746</v>
       </c>
       <c r="C5" s="25" t="s">
-        <v>772</v>
+        <v>767</v>
       </c>
       <c r="D5" s="25"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="25" t="s">
-        <v>752</v>
+        <v>747</v>
       </c>
       <c r="B6" s="25" t="s">
-        <v>752</v>
+        <v>747</v>
       </c>
       <c r="C6" s="25" t="s">
-        <v>773</v>
+        <v>768</v>
       </c>
       <c r="D6" s="25"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="26" t="s">
-        <v>753</v>
+        <v>748</v>
       </c>
       <c r="B7" s="26" t="s">
-        <v>753</v>
+        <v>748</v>
       </c>
       <c r="C7" s="25" t="s">
-        <v>774</v>
+        <v>769</v>
       </c>
       <c r="D7" s="25"/>
     </row>
@@ -17120,10 +17241,10 @@
     </row>
     <row r="2" spans="1:4" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
+        <v>301</v>
+      </c>
+      <c r="B2" s="31" t="s">
         <v>305</v>
-      </c>
-      <c r="B2" s="31" t="s">
-        <v>309</v>
       </c>
       <c r="C2" s="31"/>
     </row>
@@ -17140,24 +17261,24 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -17262,16 +17383,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:C2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="16.5" customWidth="1"/>
     <col min="2" max="2" width="13.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="21.5" customWidth="1"/>
-    <col min="4" max="4" width="31.1640625" customWidth="1"/>
+    <col min="4" max="4" width="39.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
@@ -17281,10 +17400,10 @@
     </row>
     <row r="2" spans="1:4" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
-        <v>281</v>
+        <v>801</v>
       </c>
       <c r="B2" s="31" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="C2" s="31"/>
     </row>
@@ -17296,51 +17415,66 @@
         <v>8</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>3</v>
+        <v>345</v>
+      </c>
+      <c r="D3" s="28" t="s">
+        <v>344</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>295</v>
+        <v>293</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>800</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>294</v>
+        <v>292</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>807</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
-        <v>302</v>
+        <v>804</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>293</v>
+        <v>805</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>803</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="8" t="s">
-        <v>303</v>
+        <v>808</v>
       </c>
       <c r="B7" s="5">
         <v>3</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>296</v>
+        <v>294</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>806</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -17435,9 +17569,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -17775,7 +17907,7 @@
         <v>257</v>
       </c>
       <c r="B2" s="31" t="s">
-        <v>802</v>
+        <v>797</v>
       </c>
       <c r="C2" s="31"/>
     </row>
@@ -17960,10 +18092,10 @@
         <v>8</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>779</v>
+        <v>774</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -17971,13 +18103,13 @@
         <v>255</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -17985,13 +18117,13 @@
         <v>256</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -18131,10 +18263,10 @@
     </row>
     <row r="2" spans="1:5" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
+        <v>772</v>
+      </c>
+      <c r="B2" s="31" t="s">
         <v>777</v>
-      </c>
-      <c r="B2" s="31" t="s">
-        <v>782</v>
       </c>
       <c r="C2" s="31"/>
       <c r="D2" s="31"/>
@@ -18147,38 +18279,38 @@
         <v>8</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>779</v>
+        <v>774</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
-        <v>783</v>
+        <v>778</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>785</v>
+        <v>780</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>787</v>
+        <v>782</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>789</v>
+        <v>784</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
-        <v>784</v>
+        <v>779</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>786</v>
+        <v>781</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>273</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>788</v>
+        <v>783</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -18832,10 +18964,10 @@
     </row>
     <row r="2" spans="1:4" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
-        <v>695</v>
+        <v>690</v>
       </c>
       <c r="B2" s="31" t="s">
-        <v>727</v>
+        <v>722</v>
       </c>
       <c r="C2" s="31"/>
       <c r="D2" s="24"/>
@@ -18848,66 +18980,66 @@
         <v>8</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="26" t="s">
-        <v>740</v>
+        <v>735</v>
       </c>
       <c r="B4" s="26" t="s">
-        <v>741</v>
+        <v>736</v>
       </c>
       <c r="C4" s="25" t="s">
-        <v>742</v>
+        <v>737</v>
       </c>
       <c r="D4" s="25" t="s">
-        <v>743</v>
+        <v>738</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="26" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="B5" s="26" t="s">
-        <v>737</v>
+        <v>732</v>
       </c>
       <c r="C5" s="25" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="D5" s="25" t="s">
-        <v>734</v>
+        <v>729</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="25" t="s">
-        <v>729</v>
+        <v>724</v>
       </c>
       <c r="B6" s="25" t="s">
-        <v>738</v>
+        <v>733</v>
       </c>
       <c r="C6" s="25" t="s">
-        <v>732</v>
+        <v>727</v>
       </c>
       <c r="D6" s="25" t="s">
-        <v>735</v>
+        <v>730</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="26" t="s">
-        <v>730</v>
+        <v>725</v>
       </c>
       <c r="B7" s="26" t="s">
-        <v>739</v>
+        <v>734</v>
       </c>
       <c r="C7" s="25" t="s">
-        <v>733</v>
+        <v>728</v>
       </c>
       <c r="D7" s="25" t="s">
-        <v>736</v>
+        <v>731</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -19747,11 +19879,11 @@
         <v>229</v>
       </c>
       <c r="B2" s="31" t="s">
-        <v>747</v>
+        <v>742</v>
       </c>
       <c r="C2" s="31"/>
       <c r="D2" s="24" t="s">
-        <v>745</v>
+        <v>740</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -19765,7 +19897,7 @@
         <v>3</v>
       </c>
       <c r="D3" s="28" t="s">
-        <v>744</v>
+        <v>739</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -20339,7 +20471,7 @@
       </c>
       <c r="C2" s="32"/>
       <c r="D2" s="29" t="s">
-        <v>790</v>
+        <v>785</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -20350,10 +20482,10 @@
         <v>8</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>779</v>
+        <v>774</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -20367,7 +20499,7 @@
         <v>9</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>793</v>
+        <v>788</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -20381,7 +20513,7 @@
         <v>10</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>792</v>
+        <v>787</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -20395,7 +20527,7 @@
         <v>59</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>791</v>
+        <v>786</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -20772,10 +20904,10 @@
     </row>
     <row r="2" spans="1:4" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
-        <v>695</v>
+        <v>690</v>
       </c>
       <c r="B2" s="31" t="s">
-        <v>694</v>
+        <v>689</v>
       </c>
       <c r="C2" s="31"/>
       <c r="D2" s="24"/>
@@ -20788,52 +20920,52 @@
         <v>8</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="26" t="s">
-        <v>696</v>
+        <v>691</v>
       </c>
       <c r="B4" s="26" t="s">
-        <v>699</v>
+        <v>694</v>
       </c>
       <c r="C4" s="25" t="s">
-        <v>702</v>
+        <v>697</v>
       </c>
       <c r="D4" s="25" t="s">
-        <v>705</v>
+        <v>700</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="25" t="s">
-        <v>697</v>
+        <v>692</v>
       </c>
       <c r="B5" s="25" t="s">
-        <v>700</v>
+        <v>695</v>
       </c>
       <c r="C5" s="25" t="s">
-        <v>703</v>
+        <v>698</v>
       </c>
       <c r="D5" s="25" t="s">
-        <v>706</v>
+        <v>701</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="26" t="s">
-        <v>698</v>
+        <v>693</v>
       </c>
       <c r="B6" s="26" t="s">
-        <v>701</v>
+        <v>696</v>
       </c>
       <c r="C6" s="25" t="s">
-        <v>704</v>
+        <v>699</v>
       </c>
       <c r="D6" s="25" t="s">
-        <v>707</v>
+        <v>702</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -21120,7 +21252,7 @@
         <v>61</v>
       </c>
       <c r="B2" s="32" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="C2" s="32"/>
     </row>
@@ -21203,7 +21335,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
@@ -21671,14 +21803,14 @@
     </row>
     <row r="2" spans="1:4" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
-        <v>680</v>
+        <v>675</v>
       </c>
       <c r="B2" s="31" t="s">
-        <v>679</v>
+        <v>674</v>
       </c>
       <c r="C2" s="31"/>
       <c r="D2" s="24" t="s">
-        <v>691</v>
+        <v>686</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -21689,51 +21821,51 @@
         <v>8</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="26" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="B4" s="26" t="s">
-        <v>685</v>
+        <v>680</v>
       </c>
       <c r="C4" s="25" t="s">
-        <v>688</v>
+        <v>683</v>
       </c>
       <c r="D4" s="25"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="25" t="s">
-        <v>683</v>
+        <v>678</v>
       </c>
       <c r="B5" s="25" t="s">
-        <v>686</v>
+        <v>681</v>
       </c>
       <c r="C5" s="25" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="D5" s="25"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="26" t="s">
+        <v>679</v>
+      </c>
+      <c r="B6" s="26" t="s">
+        <v>682</v>
+      </c>
+      <c r="C6" s="25" t="s">
         <v>684</v>
-      </c>
-      <c r="B6" s="26" t="s">
-        <v>687</v>
-      </c>
-      <c r="C6" s="25" t="s">
-        <v>689</v>
       </c>
       <c r="D6" s="25"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="26" t="s">
-        <v>690</v>
+        <v>685</v>
       </c>
       <c r="B7" s="26"/>
       <c r="C7" s="25"/>
@@ -21841,10 +21973,10 @@
     </row>
     <row r="2" spans="1:4" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="B2" s="31" t="s">
-        <v>663</v>
+        <v>799</v>
       </c>
       <c r="C2" s="31"/>
       <c r="D2" s="24"/>
@@ -21857,94 +21989,94 @@
         <v>8</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="26" t="s">
-        <v>668</v>
+        <v>663</v>
       </c>
       <c r="B4" s="26" t="s">
-        <v>668</v>
+        <v>663</v>
       </c>
       <c r="C4" s="25" t="s">
-        <v>670</v>
+        <v>665</v>
       </c>
       <c r="D4" s="25" t="s">
-        <v>672</v>
+        <v>667</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="25" t="s">
-        <v>664</v>
+        <v>659</v>
       </c>
       <c r="B5" s="25" t="s">
-        <v>664</v>
+        <v>659</v>
       </c>
       <c r="C5" s="25" t="s">
-        <v>671</v>
+        <v>666</v>
       </c>
       <c r="D5" s="25" t="s">
-        <v>675</v>
+        <v>670</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="26" t="s">
-        <v>666</v>
+        <v>661</v>
       </c>
       <c r="B6" s="26" t="s">
-        <v>666</v>
+        <v>661</v>
       </c>
       <c r="C6" s="25" t="s">
         <v>267</v>
       </c>
       <c r="D6" s="25" t="s">
-        <v>674</v>
+        <v>669</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="26" t="s">
-        <v>669</v>
+        <v>664</v>
       </c>
       <c r="B7" s="26" t="s">
-        <v>669</v>
+        <v>664</v>
       </c>
       <c r="C7" s="25" t="s">
         <v>268</v>
       </c>
       <c r="D7" s="25" t="s">
-        <v>673</v>
+        <v>668</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="26" t="s">
-        <v>667</v>
+        <v>662</v>
       </c>
       <c r="B8" s="26" t="s">
-        <v>667</v>
+        <v>662</v>
       </c>
       <c r="C8" s="25" t="s">
         <v>266</v>
       </c>
       <c r="D8" s="25" t="s">
-        <v>676</v>
+        <v>671</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="25" t="s">
-        <v>665</v>
+        <v>660</v>
       </c>
       <c r="B9" s="25" t="s">
-        <v>665</v>
+        <v>660</v>
       </c>
       <c r="C9" s="25" t="s">
         <v>265</v>
       </c>
       <c r="D9" s="25" t="s">
-        <v>677</v>
+        <v>672</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -22037,14 +22169,14 @@
     </row>
     <row r="2" spans="1:4" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
       <c r="B2" s="31" t="s">
-        <v>650</v>
+        <v>646</v>
       </c>
       <c r="C2" s="31"/>
       <c r="D2" s="24" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -22055,51 +22187,51 @@
         <v>8</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="25" t="s">
-        <v>652</v>
+        <v>648</v>
       </c>
       <c r="B4" s="25" t="s">
-        <v>652</v>
+        <v>648</v>
       </c>
       <c r="C4" s="25" t="s">
-        <v>658</v>
+        <v>654</v>
       </c>
       <c r="D4" s="25"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="25" t="s">
-        <v>653</v>
+        <v>649</v>
       </c>
       <c r="B5" s="25" t="s">
-        <v>653</v>
+        <v>649</v>
       </c>
       <c r="C5" s="25" t="s">
-        <v>656</v>
+        <v>652</v>
       </c>
       <c r="D5" s="25"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="26" t="s">
-        <v>654</v>
+        <v>650</v>
       </c>
       <c r="B6" s="26" t="s">
-        <v>654</v>
+        <v>650</v>
       </c>
       <c r="C6" s="25" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="D6" s="25"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="26" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="B7" s="26"/>
       <c r="C7" s="25"/>
@@ -22207,10 +22339,10 @@
     </row>
     <row r="2" spans="1:4" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
-        <v>639</v>
+        <v>635</v>
       </c>
       <c r="B2" s="31" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
       <c r="C2" s="31"/>
       <c r="D2" s="24"/>
@@ -22223,38 +22355,38 @@
         <v>8</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="25" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
       <c r="B4" s="25" t="s">
-        <v>643</v>
+        <v>639</v>
       </c>
       <c r="C4" s="25" t="s">
+        <v>636</v>
+      </c>
+      <c r="D4" s="25" t="s">
         <v>640</v>
-      </c>
-      <c r="D4" s="25" t="s">
-        <v>644</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="25" t="s">
+        <v>638</v>
+      </c>
+      <c r="B5" s="25" t="s">
+        <v>638</v>
+      </c>
+      <c r="C5" s="25" t="s">
         <v>642</v>
       </c>
-      <c r="B5" s="25" t="s">
-        <v>642</v>
-      </c>
-      <c r="C5" s="25" t="s">
-        <v>646</v>
-      </c>
       <c r="D5" s="25" t="s">
-        <v>645</v>
+        <v>641</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">

--- a/tools-core/model/业务字典.xlsx
+++ b/tools-core/model/业务字典.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14740" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14740" tabRatio="500" firstSheet="37" activeTab="44"/>
   </bookViews>
   <sheets>
     <sheet name="业务字典" sheetId="1" r:id="rId1"/>
@@ -119,29 +119,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1342" uniqueCount="811">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1342" uniqueCount="815">
   <si>
     <t>银行业务的类型划分</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>业务字典</t>
-    <rPh sb="0" eb="1">
-      <t>y wu</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>zi dian</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>字典名称</t>
-    <rPh sb="0" eb="1">
-      <t>zi d</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ming c</t>
-    </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2367,13 +2347,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>类型</t>
-    <rPh sb="0" eb="1">
-      <t>lei xing</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>应用</t>
     <rPh sb="0" eb="1">
       <t>ying yong</t>
@@ -7809,6 +7782,71 @@
   </si>
   <si>
     <t>操作行为类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字典名称
+dict_name</t>
+    <rPh sb="0" eb="1">
+      <t>zi d</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ming c</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>业务字典
+dict_key</t>
+    <rPh sb="0" eb="1">
+      <t>y wu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>zi dian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>描述
+dict_desc</t>
+    <rPh sb="0" eb="1">
+      <t>miao s</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型
+dict_type</t>
+    <rPh sb="0" eb="1">
+      <t>lei xing</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字典项
+item_name</t>
+    <rPh sb="0" eb="1">
+      <t>zi d</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>xiang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实际值
+send_value</t>
+    <rPh sb="0" eb="1">
+      <t>shi ji zhi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>描述
+item_name</t>
+    <rPh sb="0" eb="1">
+      <t>miao s</t>
+    </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -7981,7 +8019,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -8058,6 +8096,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -12011,7 +12052,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G69"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -12020,1059 +12063,1059 @@
     <col min="3" max="3" width="41.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.1640625" style="17" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.1640625" style="17" customWidth="1"/>
-    <col min="6" max="6" width="11.5" style="17" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.33203125" style="17" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="69.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" ht="38" x14ac:dyDescent="0.2">
       <c r="A1" s="22" t="s">
-        <v>1</v>
+        <v>809</v>
       </c>
       <c r="B1" s="22" t="s">
-        <v>2</v>
+        <v>808</v>
       </c>
       <c r="C1" s="22" t="s">
-        <v>3</v>
+        <v>810</v>
       </c>
       <c r="D1" s="30" t="s">
+        <v>431</v>
+      </c>
+      <c r="E1" s="30" t="s">
         <v>434</v>
       </c>
-      <c r="E1" s="30" t="s">
-        <v>437</v>
-      </c>
       <c r="F1" s="23" t="s">
-        <v>247</v>
+        <v>811</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C2" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="17" t="s">
+        <v>433</v>
+      </c>
+      <c r="E2" t="s">
         <v>436</v>
       </c>
-      <c r="E2" t="s">
-        <v>439</v>
-      </c>
       <c r="F2" s="17" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="G2" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D3" s="17" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="E3" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="F3" s="17" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="G3" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C4" t="s">
         <v>97</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="C4" t="s">
-        <v>99</v>
-      </c>
       <c r="D4" s="17" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="E4" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="F4" s="17" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>741</v>
+        <v>738</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C5" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D5" s="17" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="E5" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="F5" s="17" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>129</v>
-      </c>
       <c r="C6" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D6" s="17" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="E6" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="F6" s="17" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C7" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D7" s="17" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="E7" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="F7" s="17" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C8" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D8" s="17" t="s">
+        <v>433</v>
+      </c>
+      <c r="E8" t="s">
         <v>436</v>
       </c>
-      <c r="E8" t="s">
-        <v>439</v>
-      </c>
       <c r="F8" s="17" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>26</v>
-      </c>
       <c r="C9" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D9" s="17" t="s">
+        <v>433</v>
+      </c>
+      <c r="E9" t="s">
         <v>436</v>
       </c>
-      <c r="E9" t="s">
-        <v>439</v>
-      </c>
       <c r="F9" s="17" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C10" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D10" s="17" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="E10" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="F10" s="17" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D11" s="17" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="E11" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="F11" s="17" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C12" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D12" s="17" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="E12" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="F12" s="17" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C13" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D13" s="17" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="E13" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="F13" s="17" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C14" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D14" s="17" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="E14" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="F14" s="17" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C15" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="D15" s="17" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="E15" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="F15" s="17" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="B16" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>188</v>
-      </c>
       <c r="C16" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="D16" s="17" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="E16" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="F16" s="17" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C17" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D17" s="17" t="s">
+        <v>433</v>
+      </c>
+      <c r="E17" t="s">
         <v>436</v>
       </c>
-      <c r="E17" t="s">
-        <v>439</v>
-      </c>
       <c r="F17" s="17" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C18" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="E18" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="F18" s="17" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="C19" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="E19" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="F19" s="17" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>772</v>
+        <v>769</v>
       </c>
       <c r="C20" t="s">
-        <v>773</v>
+        <v>770</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="E20" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="F20" s="17" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
-        <v>796</v>
+        <v>793</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="C21" t="s">
-        <v>798</v>
+        <v>795</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="E21" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="F21" s="17" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
+        <v>426</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="C22" t="s">
+        <v>471</v>
+      </c>
+      <c r="D22" s="17" t="s">
+        <v>433</v>
+      </c>
+      <c r="E22" t="s">
+        <v>441</v>
+      </c>
+      <c r="F22" s="17" t="s">
         <v>429</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>420</v>
-      </c>
-      <c r="C22" t="s">
-        <v>474</v>
-      </c>
-      <c r="D22" s="17" t="s">
-        <v>436</v>
-      </c>
-      <c r="E22" t="s">
-        <v>444</v>
-      </c>
-      <c r="F22" s="17" t="s">
-        <v>432</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>793</v>
+        <v>790</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="E23" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="F23" s="17" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
+        <v>446</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>448</v>
+      </c>
+      <c r="C24" t="s">
         <v>449</v>
       </c>
-      <c r="B24" s="2" t="s">
-        <v>451</v>
-      </c>
-      <c r="C24" t="s">
-        <v>452</v>
-      </c>
       <c r="D24" s="17" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="E24" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="F24" s="17" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="C25" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="E25" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="F25" s="17" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="E26" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="F26" s="17" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="C27" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="E27" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="F27" s="17" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="E28" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="F28" s="17" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>690</v>
+        <v>687</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="E29" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="F29" s="17" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="C30" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="E30" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="F30" s="17" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="E31" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="F31" s="17" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="C32" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="E32" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="F32" s="17" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="C33" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="E33" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="F33" s="17" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="C34" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="E34" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="F34" s="17" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="C35" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="E35" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="F35" s="17" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
-        <v>706</v>
+        <v>703</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="C36" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="E36" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="F36" s="17" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
+        <v>622</v>
+      </c>
+      <c r="B37" s="2" t="s">
         <v>625</v>
       </c>
-      <c r="B37" s="2" t="s">
-        <v>628</v>
-      </c>
       <c r="C37" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="E37" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="F37" s="17" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="C38" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="E38" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="F38" s="17" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C39" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="E39" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="F39" s="17" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="C40" t="s">
-        <v>802</v>
+        <v>799</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="E40" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="F40" s="17" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
-        <v>809</v>
+        <v>806</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>810</v>
+        <v>807</v>
       </c>
       <c r="E41"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
+        <v>670</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>672</v>
+      </c>
+      <c r="C42" t="s">
         <v>673</v>
       </c>
-      <c r="B42" s="2" t="s">
-        <v>675</v>
-      </c>
-      <c r="C42" t="s">
-        <v>676</v>
-      </c>
       <c r="D42" s="17" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="E42" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="F42" s="17" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="C43" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="E43" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="F43" s="17" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="B44" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="C44" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="D44" s="17" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="E44" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="F44" s="17" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="C45" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="D45" s="17" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="E45" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="F45" s="17" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="C46" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="D46" s="17" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="E46" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="F46" s="17" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="D47" s="17" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="E47" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="F47" s="17" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="D48" s="17" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="E48" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="F48" s="17" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="C49" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="D49" s="17" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="E49" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="F49" s="17" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="C50" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="D50" s="17" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="E50" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="F50" s="17" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="D51" s="17" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="E51" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="F51" s="17" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>720</v>
+        <v>717</v>
       </c>
       <c r="C52" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
       <c r="D52" s="17" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="E52" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="F52" s="17" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" s="3" t="s">
-        <v>755</v>
+        <v>752</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>743</v>
+        <v>740</v>
       </c>
       <c r="C53" t="s">
-        <v>751</v>
+        <v>748</v>
       </c>
       <c r="D53" s="17" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="E53" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="F53" s="17" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="s">
-        <v>752</v>
+        <v>749</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
       <c r="C54" t="s">
-        <v>750</v>
+        <v>747</v>
       </c>
       <c r="D54" s="17" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="E54" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="F54" s="17" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.2">
@@ -13206,59 +13249,59 @@
   <sheetData>
     <row r="1" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="18" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="B2" s="31" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="C2" s="31"/>
       <c r="D2" s="24"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="25" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="B4" s="25" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="C4" s="25" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="D4" s="25" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="25" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="B5" s="25" t="s">
+        <v>600</v>
+      </c>
+      <c r="C5" s="25" t="s">
+        <v>391</v>
+      </c>
+      <c r="D5" s="25" t="s">
         <v>603</v>
-      </c>
-      <c r="C5" s="25" t="s">
-        <v>394</v>
-      </c>
-      <c r="D5" s="25" t="s">
-        <v>606</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -13371,56 +13414,56 @@
   <sheetData>
     <row r="1" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="18" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="B2" s="31" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="C2" s="31"/>
       <c r="D2" s="24" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="26" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="B4" s="26" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="C4" s="25" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="D4" s="25"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="26" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="B5" s="26" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="C5" s="25" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="D5" s="25"/>
     </row>
@@ -13533,92 +13576,92 @@
   <sheetData>
     <row r="1" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="18" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="B2" s="31" t="s">
-        <v>705</v>
+        <v>702</v>
       </c>
       <c r="C2" s="31"/>
       <c r="D2" s="24" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="26" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="B4" s="26" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="C4" s="25" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="D4" s="25"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="26" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="B5" s="26" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="C5" s="25" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="D5" s="25"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="26" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="B6" s="26" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="C6" s="25" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="D6" s="25"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="26" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="B7" s="26" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="C7" s="25" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="D7" s="25"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="26" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="B8" s="26" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="C8" s="25" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="D8" s="25"/>
     </row>
@@ -13713,61 +13756,61 @@
   <sheetData>
     <row r="1" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="18" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="B2" s="31" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="C2" s="31"/>
       <c r="D2" s="24" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="25" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="B4" s="25" t="s">
+        <v>599</v>
+      </c>
+      <c r="C4" s="25" t="s">
+        <v>389</v>
+      </c>
+      <c r="D4" s="25" t="s">
         <v>602</v>
-      </c>
-      <c r="C4" s="25" t="s">
-        <v>392</v>
-      </c>
-      <c r="D4" s="25" t="s">
-        <v>605</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="25" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="B5" s="25" t="s">
+        <v>600</v>
+      </c>
+      <c r="C5" s="25" t="s">
+        <v>391</v>
+      </c>
+      <c r="D5" s="25" t="s">
         <v>603</v>
-      </c>
-      <c r="C5" s="25" t="s">
-        <v>394</v>
-      </c>
-      <c r="D5" s="25" t="s">
-        <v>606</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -13880,75 +13923,75 @@
   <sheetData>
     <row r="1" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="18" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="B2" s="31" t="s">
-        <v>707</v>
+        <v>704</v>
       </c>
       <c r="C2" s="31"/>
       <c r="D2" s="24" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="25" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="B4" s="25" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="C4" s="25" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="D4" s="25" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="25" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="B5" s="25" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="C5" s="25" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="D5" s="25" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="25" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="B6" s="25" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="C6" s="25" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="D6" s="25" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -14054,217 +14097,217 @@
   <sheetData>
     <row r="1" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="18" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="B2" s="31" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
       <c r="C2" s="31"/>
       <c r="D2" s="24" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="25" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="B4" s="25" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="C4" s="25" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="D4" s="25"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="25" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="B5" s="25" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="C5" s="25" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="D5" s="25"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="25" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="B6" s="25" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="C6" s="25" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="D6" s="25"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="25" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="B7" s="25" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="C7" s="25" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="D7" s="25"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="25" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="B8" s="25" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="C8" s="25" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="D8" s="25"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="25" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="B9" s="25" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="C9" s="25" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="D9" s="25"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="25" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="B10" s="25" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="C10" s="25" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="D10" s="11"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="25" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="B11" s="25" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="C11" s="25" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="D11" s="14"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="25" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="B12" s="25" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="C12" s="25" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="25" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="B13" s="25" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="C13" s="25" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="25" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="B14" s="25" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="C14" s="25" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="25" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="B15" s="25" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="C15" s="25" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="25" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="B16" s="25" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="C16" s="25" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="25" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="B17" s="25" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="C17" s="25" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="25" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="B18" s="25" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="C18" s="25" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="25" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="B19" s="25" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="C19" s="25" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
@@ -14300,75 +14343,75 @@
   <sheetData>
     <row r="1" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="18" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="B2" s="31" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="C2" s="31"/>
       <c r="D2" s="24" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
+        <v>519</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>519</v>
+      </c>
+      <c r="C4" s="25" t="s">
+        <v>525</v>
+      </c>
+      <c r="D4" s="25" t="s">
         <v>522</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>522</v>
-      </c>
-      <c r="C4" s="25" t="s">
-        <v>528</v>
-      </c>
-      <c r="D4" s="25" t="s">
-        <v>525</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
+        <v>517</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>517</v>
+      </c>
+      <c r="C5" s="25" t="s">
         <v>520</v>
       </c>
-      <c r="B5" s="5" t="s">
-        <v>520</v>
-      </c>
-      <c r="C5" s="25" t="s">
+      <c r="D5" s="25" t="s">
         <v>523</v>
-      </c>
-      <c r="D5" s="25" t="s">
-        <v>526</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
+        <v>518</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>518</v>
+      </c>
+      <c r="C6" s="25" t="s">
         <v>521</v>
       </c>
-      <c r="B6" s="5" t="s">
-        <v>521</v>
-      </c>
-      <c r="C6" s="25" t="s">
+      <c r="D6" s="25" t="s">
         <v>524</v>
-      </c>
-      <c r="D6" s="25" t="s">
-        <v>527</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -14464,66 +14507,66 @@
   <sheetData>
     <row r="1" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="18" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="B2" s="31" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="C2" s="31"/>
       <c r="D2" s="24"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="C4" s="25" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="D4" s="25"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="C5" s="25" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="D5" s="25"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="C6" s="25" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="D6" s="25"/>
     </row>
@@ -14531,7 +14574,7 @@
       <c r="A7" s="5"/>
       <c r="B7" s="5"/>
       <c r="C7" s="25" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="D7" s="25"/>
     </row>
@@ -14621,98 +14664,98 @@
   <sheetData>
     <row r="1" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="18" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="B2" s="31" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="C2" s="31"/>
       <c r="D2" s="24" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="C4" s="25" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="D4" s="25"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="C5" s="25" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="D5" s="25"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="C6" s="25" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="D6" s="25"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="C7" s="25" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="D7" s="25"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="C8" s="25" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="D8" s="25"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
@@ -14792,33 +14835,33 @@
   <sheetData>
     <row r="1" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="18" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="B2" s="31" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="C2" s="31"/>
       <c r="D2" s="24" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -14830,7 +14873,7 @@
       </c>
       <c r="C4" s="25"/>
       <c r="D4" s="25" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -14842,7 +14885,7 @@
       </c>
       <c r="C5" s="25"/>
       <c r="D5" s="25" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -14854,7 +14897,7 @@
       </c>
       <c r="C6" s="25"/>
       <c r="D6" s="25" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -14866,7 +14909,7 @@
       </c>
       <c r="C7" s="25"/>
       <c r="D7" s="25" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -14878,12 +14921,12 @@
       </c>
       <c r="C8" s="25"/>
       <c r="D8" s="25" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
@@ -14963,73 +15006,73 @@
   <sheetData>
     <row r="1" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="18" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
       <c r="B2" s="31" t="s">
-        <v>753</v>
+        <v>750</v>
       </c>
       <c r="C2" s="31"/>
       <c r="D2" s="24"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="26" t="s">
-        <v>761</v>
+        <v>758</v>
       </c>
       <c r="B4" s="26" t="s">
-        <v>761</v>
+        <v>758</v>
       </c>
       <c r="C4" s="25" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D4" s="25" t="s">
-        <v>766</v>
+        <v>763</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="26" t="s">
+        <v>754</v>
+      </c>
+      <c r="B5" s="26" t="s">
         <v>757</v>
       </c>
-      <c r="B5" s="26" t="s">
-        <v>760</v>
-      </c>
       <c r="C5" s="25" t="s">
-        <v>762</v>
+        <v>759</v>
       </c>
       <c r="D5" s="25" t="s">
-        <v>764</v>
+        <v>761</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="25" t="s">
-        <v>758</v>
+        <v>755</v>
       </c>
       <c r="B6" s="25" t="s">
-        <v>759</v>
+        <v>756</v>
       </c>
       <c r="C6" s="25" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
       <c r="D6" s="25" t="s">
-        <v>765</v>
+        <v>762</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -15141,62 +15184,62 @@
   <sheetData>
     <row r="1" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="18" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="B2" s="31" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="C2" s="31"/>
       <c r="D2" s="24" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
+        <v>481</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>482</v>
+      </c>
+      <c r="C4" s="5" t="s">
         <v>484</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>485</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>487</v>
       </c>
       <c r="D4" s="5"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="D5" s="5"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
@@ -15324,92 +15367,92 @@
   <sheetData>
     <row r="1" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="18" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="B2" s="31" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="C2" s="31"/>
       <c r="D2" s="24" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="D4" s="5"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="D5" s="5"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="D6" s="5"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="D7" s="5"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
-        <v>790</v>
+        <v>787</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>791</v>
+        <v>788</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>789</v>
+        <v>786</v>
       </c>
       <c r="D8" s="5"/>
     </row>
@@ -15523,100 +15566,100 @@
   <sheetData>
     <row r="1" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="18" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="B2" s="31" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="C2" s="31"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>719</v>
+        <v>716</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>710</v>
+        <v>707</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>714</v>
+        <v>711</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>715</v>
+        <v>712</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="C7" s="5" t="s">
+        <v>710</v>
+      </c>
+      <c r="D7" s="5" t="s">
         <v>713</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>716</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
-        <v>717</v>
+        <v>714</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>709</v>
+        <v>706</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>708</v>
+        <v>705</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>718</v>
+        <v>715</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -15729,75 +15772,75 @@
   <sheetData>
     <row r="1" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="18" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="B2" s="31" t="s">
-        <v>794</v>
+        <v>791</v>
       </c>
       <c r="C2" s="31"/>
       <c r="D2" s="27" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>795</v>
+        <v>792</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
+        <v>419</v>
+      </c>
+      <c r="B5" s="5" t="s">
         <v>422</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="C5" s="5" t="s">
+        <v>391</v>
+      </c>
+      <c r="D5" s="5" t="s">
         <v>425</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>394</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>428</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
+        <v>420</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>421</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>400</v>
+      </c>
+      <c r="D6" s="5" t="s">
         <v>423</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>424</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>403</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>426</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -15923,65 +15966,65 @@
   <sheetData>
     <row r="1" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="18" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="B2" s="31" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="C2" s="31"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
+        <v>408</v>
+      </c>
+      <c r="B4" s="5" t="s">
         <v>411</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="C4" s="5" t="s">
         <v>414</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>417</v>
       </c>
       <c r="D4" s="5"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
+        <v>409</v>
+      </c>
+      <c r="B5" s="5" t="s">
         <v>412</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="C5" s="5" t="s">
         <v>415</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>418</v>
       </c>
       <c r="D5" s="5"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
+        <v>410</v>
+      </c>
+      <c r="B6" s="5" t="s">
         <v>413</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="C6" s="5" t="s">
         <v>416</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>419</v>
       </c>
       <c r="D6" s="5"/>
     </row>
@@ -16107,114 +16150,114 @@
   <sheetData>
     <row r="1" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="B2" s="31" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="C2" s="31"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
+        <v>398</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>399</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>400</v>
+      </c>
+      <c r="D9" s="11" t="s">
         <v>401</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>402</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>403</v>
-      </c>
-      <c r="D9" s="11" t="s">
-        <v>404</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -16322,110 +16365,110 @@
   <sheetData>
     <row r="1" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="18" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="B2" s="31" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="C2" s="31"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
+        <v>367</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>367</v>
+      </c>
+      <c r="C4" s="5" t="s">
         <v>370</v>
       </c>
-      <c r="B4" s="5" t="s">
-        <v>370</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>373</v>
-      </c>
       <c r="D4" s="5" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
+        <v>368</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>368</v>
+      </c>
+      <c r="C7" s="5" t="s">
         <v>371</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>371</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>374</v>
       </c>
       <c r="D7" s="5"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="C8" s="5" t="s">
         <v>372</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>372</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>375</v>
       </c>
       <c r="D8" s="5"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -16532,86 +16575,86 @@
   <sheetData>
     <row r="1" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="18" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="B2" s="31" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="C2" s="31"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="B4" s="5" t="s">
         <v>350</v>
       </c>
-      <c r="B4" s="5" t="s">
-        <v>353</v>
-      </c>
       <c r="C4" s="5" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
+        <v>348</v>
+      </c>
+      <c r="B5" s="5" t="s">
         <v>351</v>
       </c>
-      <c r="B5" s="5" t="s">
-        <v>354</v>
-      </c>
       <c r="C5" s="5" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -16718,77 +16761,77 @@
   <sheetData>
     <row r="1" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="18" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="B2" s="31" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="C2" s="31"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
+        <v>327</v>
+      </c>
+      <c r="B4" s="5" t="s">
         <v>330</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="C4" s="5" t="s">
         <v>333</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>336</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
+        <v>328</v>
+      </c>
+      <c r="B5" s="5" t="s">
         <v>331</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="C5" s="5" t="s">
         <v>334</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>337</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
+        <v>329</v>
+      </c>
+      <c r="B6" s="5" t="s">
         <v>332</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="C6" s="5" t="s">
         <v>335</v>
       </c>
-      <c r="C6" s="5" t="s">
-        <v>338</v>
-      </c>
       <c r="D6" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -16895,49 +16938,49 @@
   <sheetData>
     <row r="1" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="18" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="B2" s="31" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="C2" s="31"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -17054,80 +17097,80 @@
   <sheetData>
     <row r="1" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="18" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
-        <v>756</v>
+        <v>753</v>
       </c>
       <c r="B2" s="31" t="s">
-        <v>754</v>
+        <v>751</v>
       </c>
       <c r="C2" s="31"/>
       <c r="D2" s="24" t="s">
-        <v>770</v>
+        <v>767</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="26" t="s">
-        <v>745</v>
+        <v>742</v>
       </c>
       <c r="B4" s="26" t="s">
-        <v>745</v>
+        <v>742</v>
       </c>
       <c r="C4" s="25" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="D4" s="25"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="26" t="s">
-        <v>746</v>
+        <v>743</v>
       </c>
       <c r="B5" s="26" t="s">
-        <v>746</v>
+        <v>743</v>
       </c>
       <c r="C5" s="25" t="s">
-        <v>767</v>
+        <v>764</v>
       </c>
       <c r="D5" s="25"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="25" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
       <c r="B6" s="25" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
       <c r="C6" s="25" t="s">
-        <v>768</v>
+        <v>765</v>
       </c>
       <c r="D6" s="25"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="26" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
       <c r="B7" s="26" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
       <c r="C7" s="25" t="s">
-        <v>769</v>
+        <v>766</v>
       </c>
       <c r="D7" s="25"/>
     </row>
@@ -17236,49 +17279,49 @@
   <sheetData>
     <row r="1" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="18" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="B2" s="31" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="C2" s="31"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -17395,86 +17438,86 @@
   <sheetData>
     <row r="1" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="18" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
-        <v>801</v>
+        <v>798</v>
       </c>
       <c r="B2" s="31" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="C2" s="31"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="D3" s="28" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>800</v>
+        <v>797</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
-        <v>804</v>
+        <v>801</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>805</v>
+        <v>802</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>803</v>
+        <v>800</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="8" t="s">
-        <v>808</v>
+        <v>805</v>
       </c>
       <c r="B7" s="5">
         <v>3</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>806</v>
+        <v>803</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -17581,49 +17624,49 @@
   <sheetData>
     <row r="1" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="18" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="B2" s="31" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="C2" s="31"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -17740,49 +17783,49 @@
   <sheetData>
     <row r="1" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="18" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="B2" s="31" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="C2" s="31"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -17899,71 +17942,71 @@
   <sheetData>
     <row r="1" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="18" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="B2" s="31" t="s">
-        <v>797</v>
+        <v>794</v>
       </c>
       <c r="C2" s="31"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="8" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -18071,59 +18114,59 @@
   <sheetData>
     <row r="1" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="18" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="B2" s="31" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="C2" s="31"/>
       <c r="D2" s="31"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>774</v>
+        <v>771</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>775</v>
+        <v>772</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>776</v>
+        <v>773</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -18258,59 +18301,59 @@
   <sheetData>
     <row r="1" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="18" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
-        <v>772</v>
+        <v>769</v>
       </c>
       <c r="B2" s="31" t="s">
-        <v>777</v>
+        <v>774</v>
       </c>
       <c r="C2" s="31"/>
       <c r="D2" s="31"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>774</v>
+        <v>771</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
-        <v>778</v>
+        <v>775</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>780</v>
+        <v>777</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>782</v>
+        <v>779</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>784</v>
+        <v>781</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
-        <v>779</v>
+        <v>776</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>781</v>
+        <v>778</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>783</v>
+        <v>780</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -18444,67 +18487,67 @@
   <sheetData>
     <row r="1" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="18" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
+        <v>232</v>
+      </c>
+      <c r="B2" s="31" t="s">
         <v>234</v>
-      </c>
-      <c r="B2" s="31" t="s">
-        <v>236</v>
       </c>
       <c r="C2" s="31"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="C6" s="5" t="s">
         <v>243</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>244</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="8"/>
       <c r="B7" s="8"/>
       <c r="C7" s="5" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -18611,71 +18654,71 @@
   <sheetData>
     <row r="1" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="18" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B2" s="31" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C2" s="31"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="8" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -18782,82 +18825,82 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="19" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="16" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B2" s="31" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C2" s="31"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="8" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D8" s="14"/>
     </row>
@@ -18959,87 +19002,87 @@
   <sheetData>
     <row r="1" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="18" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
-        <v>690</v>
+        <v>687</v>
       </c>
       <c r="B2" s="31" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="C2" s="31"/>
       <c r="D2" s="24"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="26" t="s">
+        <v>732</v>
+      </c>
+      <c r="B4" s="26" t="s">
+        <v>733</v>
+      </c>
+      <c r="C4" s="25" t="s">
+        <v>734</v>
+      </c>
+      <c r="D4" s="25" t="s">
         <v>735</v>
-      </c>
-      <c r="B4" s="26" t="s">
-        <v>736</v>
-      </c>
-      <c r="C4" s="25" t="s">
-        <v>737</v>
-      </c>
-      <c r="D4" s="25" t="s">
-        <v>738</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="26" t="s">
+        <v>720</v>
+      </c>
+      <c r="B5" s="26" t="s">
+        <v>729</v>
+      </c>
+      <c r="C5" s="25" t="s">
         <v>723</v>
       </c>
-      <c r="B5" s="26" t="s">
-        <v>732</v>
-      </c>
-      <c r="C5" s="25" t="s">
+      <c r="D5" s="25" t="s">
         <v>726</v>
-      </c>
-      <c r="D5" s="25" t="s">
-        <v>729</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="25" t="s">
+        <v>721</v>
+      </c>
+      <c r="B6" s="25" t="s">
+        <v>730</v>
+      </c>
+      <c r="C6" s="25" t="s">
         <v>724</v>
       </c>
-      <c r="B6" s="25" t="s">
-        <v>733</v>
-      </c>
-      <c r="C6" s="25" t="s">
+      <c r="D6" s="25" t="s">
         <v>727</v>
-      </c>
-      <c r="D6" s="25" t="s">
-        <v>730</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="26" t="s">
+        <v>722</v>
+      </c>
+      <c r="B7" s="26" t="s">
+        <v>731</v>
+      </c>
+      <c r="C7" s="25" t="s">
         <v>725</v>
       </c>
-      <c r="B7" s="26" t="s">
-        <v>734</v>
-      </c>
-      <c r="C7" s="25" t="s">
+      <c r="D7" s="25" t="s">
         <v>728</v>
-      </c>
-      <c r="D7" s="25" t="s">
-        <v>731</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -19145,56 +19188,56 @@
   <sheetData>
     <row r="1" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="18" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B2" s="32" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C2" s="32"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="B5" s="5" t="s">
         <v>192</v>
       </c>
-      <c r="B5" s="5" t="s">
-        <v>194</v>
-      </c>
       <c r="C5" s="5" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="5"/>
       <c r="B6" s="5"/>
       <c r="C6" s="5" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -19306,60 +19349,60 @@
   <sheetData>
     <row r="1" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="18" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B2" s="32" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C2" s="32"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="C4" s="5" t="s">
         <v>182</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -19471,138 +19514,138 @@
   <sheetData>
     <row r="1" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="18" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B2" s="32" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C2" s="32"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D8" s="14"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
@@ -19678,74 +19721,74 @@
   <sheetData>
     <row r="1" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="18" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B2" s="32" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C2" s="32"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="B4" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="B4" s="5" t="s">
-        <v>133</v>
-      </c>
       <c r="C4" s="5" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="C5" s="5" t="s">
         <v>134</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C6" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="D6" s="33" t="s">
         <v>141</v>
-      </c>
-      <c r="D6" s="33" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B7" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="C7" s="5" t="s">
         <v>140</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>142</v>
       </c>
       <c r="D7" s="34"/>
     </row>
@@ -19758,7 +19801,7 @@
       <c r="A9" s="5"/>
       <c r="B9" s="5"/>
       <c r="C9" s="5" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -19871,117 +19914,117 @@
   <sheetData>
     <row r="1" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="18" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B2" s="31" t="s">
-        <v>742</v>
+        <v>739</v>
       </c>
       <c r="C2" s="31"/>
       <c r="D2" s="24" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D3" s="28" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="5"/>
       <c r="B11" s="5"/>
       <c r="C11" s="5" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -20075,60 +20118,62 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D25"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.1640625" customWidth="1"/>
+    <col min="1" max="1" width="14.6640625" customWidth="1"/>
     <col min="2" max="2" width="17.5" customWidth="1"/>
     <col min="3" max="3" width="24.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="18" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B2" s="32" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C2" s="32"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>3</v>
+    <row r="3" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+      <c r="A3" s="35" t="s">
+        <v>812</v>
+      </c>
+      <c r="B3" s="35" t="s">
+        <v>813</v>
+      </c>
+      <c r="C3" s="35" t="s">
+        <v>814</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="5" t="s">
-        <v>23</v>
-      </c>
       <c r="C5" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -20259,82 +20304,82 @@
   <sheetData>
     <row r="1" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="18" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="B2" s="32" t="s">
         <v>98</v>
-      </c>
-      <c r="B2" s="32" t="s">
-        <v>100</v>
       </c>
       <c r="C2" s="32"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="C6" s="5" t="s">
         <v>110</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="C7" s="5" t="s">
         <v>103</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
@@ -20459,75 +20504,75 @@
   <sheetData>
     <row r="1" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="18" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B2" s="32" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C2" s="32"/>
       <c r="D2" s="29" t="s">
-        <v>785</v>
+        <v>782</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>774</v>
+        <v>771</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>788</v>
+        <v>785</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="9" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>787</v>
+        <v>784</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>786</v>
+        <v>783</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -20560,60 +20605,60 @@
   <sheetData>
     <row r="1" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="18" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B2" s="32" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C2" s="32"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -20728,60 +20773,60 @@
   <sheetData>
     <row r="1" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="18" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B2" s="32" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C2" s="32"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B4" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" s="5" t="s">
         <v>39</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -20899,73 +20944,73 @@
   <sheetData>
     <row r="1" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="18" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
-        <v>690</v>
+        <v>687</v>
       </c>
       <c r="B2" s="31" t="s">
-        <v>689</v>
+        <v>686</v>
       </c>
       <c r="C2" s="31"/>
       <c r="D2" s="24"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="26" t="s">
+        <v>688</v>
+      </c>
+      <c r="B4" s="26" t="s">
         <v>691</v>
       </c>
-      <c r="B4" s="26" t="s">
+      <c r="C4" s="25" t="s">
         <v>694</v>
       </c>
-      <c r="C4" s="25" t="s">
+      <c r="D4" s="25" t="s">
         <v>697</v>
-      </c>
-      <c r="D4" s="25" t="s">
-        <v>700</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="25" t="s">
+        <v>689</v>
+      </c>
+      <c r="B5" s="25" t="s">
         <v>692</v>
       </c>
-      <c r="B5" s="25" t="s">
+      <c r="C5" s="25" t="s">
         <v>695</v>
       </c>
-      <c r="C5" s="25" t="s">
+      <c r="D5" s="25" t="s">
         <v>698</v>
-      </c>
-      <c r="D5" s="25" t="s">
-        <v>701</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="26" t="s">
+        <v>690</v>
+      </c>
+      <c r="B6" s="26" t="s">
         <v>693</v>
       </c>
-      <c r="B6" s="26" t="s">
+      <c r="C6" s="25" t="s">
         <v>696</v>
       </c>
-      <c r="C6" s="25" t="s">
+      <c r="D6" s="25" t="s">
         <v>699</v>
-      </c>
-      <c r="D6" s="25" t="s">
-        <v>702</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -21070,71 +21115,71 @@
   <sheetData>
     <row r="1" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="18" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B2" s="32" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C2" s="32"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -21244,98 +21289,98 @@
   <sheetData>
     <row r="1" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="18" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B2" s="32" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="C2" s="32"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
@@ -21439,71 +21484,71 @@
   <sheetData>
     <row r="1" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="18" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B2" s="32" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C2" s="32"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B4" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="B4" s="5" t="s">
-        <v>80</v>
-      </c>
       <c r="C4" s="5" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="C5" s="5" t="s">
         <v>75</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="11" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B7" s="5">
         <v>3</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -21623,49 +21668,49 @@
   <sheetData>
     <row r="1" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="18" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B2" s="32" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C2" s="32"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="B4" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="C4" s="5" t="s">
         <v>90</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="B5" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="C5" s="5" t="s">
         <v>91</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -21798,74 +21843,74 @@
   <sheetData>
     <row r="1" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="18" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
-        <v>675</v>
+        <v>672</v>
       </c>
       <c r="B2" s="31" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
       <c r="C2" s="31"/>
       <c r="D2" s="24" t="s">
-        <v>686</v>
+        <v>683</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="26" t="s">
+        <v>674</v>
+      </c>
+      <c r="B4" s="26" t="s">
         <v>677</v>
       </c>
-      <c r="B4" s="26" t="s">
+      <c r="C4" s="25" t="s">
         <v>680</v>
-      </c>
-      <c r="C4" s="25" t="s">
-        <v>683</v>
       </c>
       <c r="D4" s="25"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="25" t="s">
+        <v>675</v>
+      </c>
+      <c r="B5" s="25" t="s">
         <v>678</v>
       </c>
-      <c r="B5" s="25" t="s">
-        <v>681</v>
-      </c>
       <c r="C5" s="25" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="D5" s="25"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="26" t="s">
+        <v>676</v>
+      </c>
+      <c r="B6" s="26" t="s">
         <v>679</v>
       </c>
-      <c r="B6" s="26" t="s">
-        <v>682</v>
-      </c>
       <c r="C6" s="25" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
       <c r="D6" s="25"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="26" t="s">
-        <v>685</v>
+        <v>682</v>
       </c>
       <c r="B7" s="26"/>
       <c r="C7" s="25"/>
@@ -21968,115 +22013,115 @@
   <sheetData>
     <row r="1" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="18" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="B2" s="31" t="s">
-        <v>799</v>
+        <v>796</v>
       </c>
       <c r="C2" s="31"/>
       <c r="D2" s="24"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="26" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="B4" s="26" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="C4" s="25" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
       <c r="D4" s="25" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="25" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
       <c r="B5" s="25" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
       <c r="C5" s="25" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="D5" s="25" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="26" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="B6" s="26" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="C6" s="25" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="D6" s="25" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="26" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="B7" s="26" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="C7" s="25" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="D7" s="25" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="26" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="B8" s="26" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="C8" s="25" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="D8" s="25" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="25" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="B9" s="25" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="C9" s="25" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="D9" s="25" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -22164,74 +22209,74 @@
   <sheetData>
     <row r="1" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="18" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="B2" s="31" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="C2" s="31"/>
       <c r="D2" s="24" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="25" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
       <c r="B4" s="25" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
       <c r="C4" s="25" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="D4" s="25"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="25" t="s">
+        <v>646</v>
+      </c>
+      <c r="B5" s="25" t="s">
+        <v>646</v>
+      </c>
+      <c r="C5" s="25" t="s">
         <v>649</v>
-      </c>
-      <c r="B5" s="25" t="s">
-        <v>649</v>
-      </c>
-      <c r="C5" s="25" t="s">
-        <v>652</v>
       </c>
       <c r="D5" s="25"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="26" t="s">
+        <v>647</v>
+      </c>
+      <c r="B6" s="26" t="s">
+        <v>647</v>
+      </c>
+      <c r="C6" s="25" t="s">
         <v>650</v>
-      </c>
-      <c r="B6" s="26" t="s">
-        <v>650</v>
-      </c>
-      <c r="C6" s="25" t="s">
-        <v>653</v>
       </c>
       <c r="D6" s="25"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="26" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="B7" s="26"/>
       <c r="C7" s="25"/>
@@ -22334,59 +22379,59 @@
   <sheetData>
     <row r="1" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="18" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="B2" s="31" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="C2" s="31"/>
       <c r="D2" s="24"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="25" t="s">
+        <v>634</v>
+      </c>
+      <c r="B4" s="25" t="s">
+        <v>636</v>
+      </c>
+      <c r="C4" s="25" t="s">
+        <v>633</v>
+      </c>
+      <c r="D4" s="25" t="s">
         <v>637</v>
-      </c>
-      <c r="B4" s="25" t="s">
-        <v>639</v>
-      </c>
-      <c r="C4" s="25" t="s">
-        <v>636</v>
-      </c>
-      <c r="D4" s="25" t="s">
-        <v>640</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="25" t="s">
+        <v>635</v>
+      </c>
+      <c r="B5" s="25" t="s">
+        <v>635</v>
+      </c>
+      <c r="C5" s="25" t="s">
+        <v>639</v>
+      </c>
+      <c r="D5" s="25" t="s">
         <v>638</v>
-      </c>
-      <c r="B5" s="25" t="s">
-        <v>638</v>
-      </c>
-      <c r="C5" s="25" t="s">
-        <v>642</v>
-      </c>
-      <c r="D5" s="25" t="s">
-        <v>641</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
